--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -1225,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>15.3356753967102</v>
+        <v>15.3356906174493</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>15.6942815365648</v>
+        <v>15.6942959309451</v>
       </c>
     </row>
     <row r="5">
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9420793622473</v>
+        <v>15.9420633866799</v>
       </c>
     </row>
     <row r="6">
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>5.19216598625374</v>
+        <v>5.19216544508237</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>5.35330194088398</v>
+        <v>5.35331173365339</v>
       </c>
     </row>
     <row r="8">
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>10.355919793205</v>
+        <v>10.3559255360215</v>
       </c>
     </row>
     <row r="9">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>10.9663130021397</v>
+        <v>10.9663195326391</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.61039901571137</v>
+        <v>4.61040452441175</v>
       </c>
     </row>
     <row r="11">
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>3.95983386000621</v>
+        <v>3.95984138808551</v>
       </c>
     </row>
     <row r="12">
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>3.50207373745984</v>
+        <v>3.50208137038269</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.45429969376498</v>
+        <v>2.45430123159216</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.25843785002973</v>
+        <v>2.25843974097699</v>
       </c>
     </row>
     <row r="15">
@@ -1429,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.24727326955021</v>
+        <v>3.24728514507103</v>
       </c>
     </row>
     <row r="16">
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>1.7240754662295</v>
+        <v>1.7240815529515</v>
       </c>
     </row>
     <row r="17">
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.99718163641413</v>
+        <v>1.99717449462203</v>
       </c>
     </row>
     <row r="18">
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.68827625833502</v>
+        <v>1.68827477650755</v>
       </c>
     </row>
     <row r="20">
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>8.96235265297222</v>
+        <v>8.96234623280221</v>
       </c>
     </row>
     <row r="21">
@@ -1529,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>1.47498752545979</v>
+        <v>1.47498781844189</v>
       </c>
     </row>
     <row r="22">
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>9.49776664124632</v>
+        <v>9.49776136551452</v>
       </c>
     </row>
     <row r="23">
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>10.1591327746801</v>
+        <v>10.1591450105602</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>6.91835714036321</v>
+        <v>6.9183544788721</v>
       </c>
     </row>
     <row r="25">
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6.967914815438</v>
+        <v>6.96792064049583</v>
       </c>
     </row>
     <row r="26">
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.190943418138406</v>
+        <v>0.190947513654166</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0657222510833032</v>
+        <v>0.0657212086612229</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>33.3179487294449</v>
+        <v>33.3179494353646</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>37.3742605420713</v>
+        <v>37.3742474972893</v>
       </c>
     </row>
     <row r="32">
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>19.1421705395925</v>
+        <v>19.1421522228922</v>
       </c>
     </row>
     <row r="33">
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>5.4685906341177</v>
+        <v>5.46858695163859</v>
       </c>
     </row>
     <row r="34">
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>8.6172602067872</v>
+        <v>8.61725246262129</v>
       </c>
     </row>
     <row r="36">
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>9.17971427204474</v>
+        <v>9.17973210258124</v>
       </c>
     </row>
     <row r="37">
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>9.9376837878956</v>
+        <v>9.93767441071071</v>
       </c>
     </row>
     <row r="38">
@@ -1814,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.154251093185291</v>
+        <v>0.154253471154843</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.314075522095588</v>
+        <v>0.31407372942124</v>
       </c>
     </row>
     <row r="40">
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.619618390395256</v>
+        <v>0.619616253625389</v>
       </c>
     </row>
     <row r="41">
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>0.648424421992168</v>
+        <v>0.64842405649543</v>
       </c>
     </row>
     <row r="42">
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.72158011986203</v>
+        <v>2.72158351822392</v>
       </c>
     </row>
     <row r="43">
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.23890856311652</v>
+        <v>2.23890439269459</v>
       </c>
     </row>
     <row r="44">
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.39575511751311</v>
+        <v>1.39576852532036</v>
       </c>
     </row>
     <row r="45">
@@ -1933,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>1.45748535257807</v>
+        <v>1.45751554318889</v>
       </c>
     </row>
     <row r="46">
@@ -1950,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1.133230381832</v>
+        <v>1.13323988387596</v>
       </c>
     </row>
     <row r="47">
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>4.73177167384643</v>
+        <v>4.73177436779216</v>
       </c>
     </row>
     <row r="48">
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.96333070691118</v>
+        <v>2.96332203306619</v>
       </c>
     </row>
     <row r="49">
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2.64046074588717</v>
+        <v>2.6404637216087</v>
       </c>
     </row>
     <row r="50">
@@ -2018,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>2.25637385027984</v>
+        <v>2.25638416374799</v>
       </c>
     </row>
     <row r="51">
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>3.74344045116351</v>
+        <v>3.74342003056502</v>
       </c>
     </row>
     <row r="52">
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.43278895468516</v>
+        <v>3.43278069927274</v>
       </c>
     </row>
     <row r="53">
@@ -2069,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.43274532420558</v>
+        <v>3.43278069927275</v>
       </c>
     </row>
     <row r="54">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>2.26465819614279</v>
+        <v>2.26465771105775</v>
       </c>
     </row>
     <row r="55">
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2125369484917</v>
+        <v>1.2125001825611</v>
       </c>
     </row>
     <row r="56">
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>1.26129244001238</v>
+        <v>1.26129341743807</v>
       </c>
     </row>
     <row r="57">
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>1.31303120557072</v>
+        <v>1.31305123609011</v>
       </c>
     </row>
     <row r="58">
@@ -2169,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>2.64808838266416</v>
+        <v>2.64809612387271</v>
       </c>
     </row>
     <row r="60">
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>2.29476499530291</v>
+        <v>2.2947686552715</v>
       </c>
     </row>
     <row r="61">
@@ -2203,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2.30000626076031</v>
+        <v>2.30000067264594</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>3.19327105334416</v>
+        <v>3.19326470055972</v>
       </c>
     </row>
     <row r="63">
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>1.46977925123417</v>
+        <v>1.46978618107776</v>
       </c>
     </row>
     <row r="64">
@@ -2254,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>2.48832818986295</v>
+        <v>2.488371830882</v>
       </c>
     </row>
     <row r="65">
@@ -2271,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>2.86903170989933</v>
+        <v>2.8690077444824</v>
       </c>
     </row>
     <row r="66">
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>2.19720006111572</v>
+        <v>2.19720484782488</v>
       </c>
     </row>
     <row r="67">
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>5.52340842892352</v>
+        <v>5.52339047377792</v>
       </c>
     </row>
     <row r="68">
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>5.85917713909884</v>
+        <v>5.8591887381911</v>
       </c>
     </row>
     <row r="69">
@@ -2339,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>5.57666025614796</v>
+        <v>5.57666278159159</v>
       </c>
     </row>
     <row r="70">
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>1.92293179488865</v>
+        <v>1.922930824986</v>
       </c>
     </row>
     <row r="71">
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05419724381797</v>
+        <v>4.05419976992293</v>
       </c>
     </row>
     <row r="72">
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>3.2665766487029</v>
+        <v>3.26659107170728</v>
       </c>
     </row>
     <row r="73">
@@ -2407,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>3.27977701262502</v>
+        <v>3.27979297032674</v>
       </c>
     </row>
     <row r="74">
@@ -2439,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0488625686063105</v>
+        <v>0.0488750134934941</v>
       </c>
     </row>
     <row r="76">
@@ -2486,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>1.38922955656578</v>
+        <v>1.38923849658479</v>
       </c>
     </row>
     <row r="79">
@@ -2503,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>1.38012508651772</v>
+        <v>1.38013493776449</v>
       </c>
     </row>
     <row r="80">
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>1.60234371037164</v>
+        <v>1.60234443540041</v>
       </c>
     </row>
     <row r="81">
@@ -2537,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>1.99798417237737</v>
+        <v>1.99803456739524</v>
       </c>
     </row>
     <row r="82">
@@ -2569,7 +2569,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>11.17690908254</v>
+        <v>11.1769117625527</v>
       </c>
     </row>
     <row r="84">
@@ -2586,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>3.33102157757408</v>
+        <v>3.33102249438043</v>
       </c>
     </row>
     <row r="85">
@@ -2603,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>2.69088166317529</v>
+        <v>2.69089023943175</v>
       </c>
     </row>
     <row r="86">
@@ -2637,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1.35958859800417</v>
+        <v>1.35960270455969</v>
       </c>
     </row>
     <row r="88">
@@ -2654,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1.77027256369627</v>
+        <v>1.77026499125126</v>
       </c>
     </row>
     <row r="89">
@@ -2671,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>0.363254112344107</v>
+        <v>0.363249228856335</v>
       </c>
     </row>
     <row r="90">
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>0.456084247846662</v>
+        <v>0.456083376058024</v>
       </c>
     </row>
     <row r="91">
@@ -2705,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.83302946638161</v>
+        <v>4.83303763708488</v>
       </c>
     </row>
     <row r="92">
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3.43002640272778</v>
+        <v>3.43002527439029</v>
       </c>
     </row>
     <row r="93">
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>0.202186430592986</v>
+        <v>0.202187043768461</v>
       </c>
     </row>
     <row r="94">
@@ -2756,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3.22427088774499</v>
+        <v>3.22426802168545</v>
       </c>
     </row>
     <row r="95">
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>2.63815982824993</v>
+        <v>2.63817201712728</v>
       </c>
     </row>
     <row r="96">
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>2.10623499351009</v>
+        <v>2.10620720408295</v>
       </c>
     </row>
     <row r="97">
@@ -2807,7 +2807,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>2.11547555639625</v>
+        <v>2.11546851154299</v>
       </c>
     </row>
     <row r="98">
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>1.50340934517804</v>
+        <v>1.50341910813844</v>
       </c>
     </row>
     <row r="99">
@@ -2841,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>0.721289138070261</v>
+        <v>0.721301765630651</v>
       </c>
     </row>
     <row r="100">
@@ -2858,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>0.15352625301287</v>
+        <v>0.153528671584097</v>
       </c>
     </row>
     <row r="101">
@@ -2875,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>0.159276681990142</v>
+        <v>0.159278647278304</v>
       </c>
     </row>
     <row r="102">
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>5.77482795473387</v>
+        <v>5.77482588917892</v>
       </c>
     </row>
     <row r="103">
@@ -2909,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>5.87095780441618</v>
+        <v>5.87094463762768</v>
       </c>
     </row>
     <row r="104">
@@ -2926,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>6.49994344386323</v>
+        <v>6.49996681179461</v>
       </c>
     </row>
     <row r="105">
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>9.29681921445658</v>
+        <v>9.29688878144571</v>
       </c>
     </row>
     <row r="106">
@@ -2992,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>1.05756177652217</v>
+        <v>1.05758352469268</v>
       </c>
     </row>
     <row r="109">
@@ -3009,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>1.05759923344425</v>
+        <v>1.05758352469268</v>
       </c>
     </row>
     <row r="110">
@@ -3026,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166919497755836</v>
+        <v>0.166913074875336</v>
       </c>
     </row>
     <row r="111">
@@ -3043,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>4.1224921217441</v>
+        <v>4.12248969710546</v>
       </c>
     </row>
     <row r="112">
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3.95342445236824</v>
+        <v>3.9534331796198</v>
       </c>
     </row>
     <row r="113">
@@ -3077,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>4.08534296515553</v>
+        <v>4.08534499387167</v>
       </c>
     </row>
     <row r="114">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>2.13928634111706</v>
+        <v>2.13929173735345</v>
       </c>
     </row>
     <row r="117">
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>2.14210835295893</v>
+        <v>2.14209940324869</v>
       </c>
     </row>
     <row r="118">
@@ -3173,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>20.1847106708115</v>
+        <v>20.1847094446841</v>
       </c>
     </row>
     <row r="120">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>3.07331452519846</v>
+        <v>3.07330586584493</v>
       </c>
     </row>
     <row r="121">
@@ -3207,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>17.6324341717361</v>
+        <v>17.6324308368215</v>
       </c>
     </row>
     <row r="122">
@@ -3224,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1.14614713711401</v>
+        <v>1.14615036490099</v>
       </c>
     </row>
     <row r="123">
@@ -3241,7 +3241,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>0.578323900792127</v>
+        <v>0.578326414207442</v>
       </c>
     </row>
     <row r="124">
@@ -3258,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>0.654599766280752</v>
+        <v>0.654599749467464</v>
       </c>
     </row>
     <row r="125">
@@ -3275,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>4.18097241489567</v>
+        <v>4.18096721283514</v>
       </c>
     </row>
     <row r="126">
@@ -3292,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>4.17389354345245</v>
+        <v>4.17388701626664</v>
       </c>
     </row>
     <row r="127">
@@ -3309,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5840133285458</v>
+        <v>4.58401631336874</v>
       </c>
     </row>
     <row r="128">
@@ -3326,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>4.17931453889927</v>
+        <v>4.17930435468186</v>
       </c>
     </row>
     <row r="129">
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>2.66614127705546</v>
+        <v>2.66614531061906</v>
       </c>
     </row>
     <row r="131">
@@ -3375,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>2.11563217143644</v>
+        <v>2.11562638300831</v>
       </c>
     </row>
     <row r="132">
@@ -3392,7 +3392,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>2.14111745909581</v>
+        <v>2.14111305126284</v>
       </c>
     </row>
     <row r="133">
@@ -3409,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>7.33303266827795</v>
+        <v>7.33302853532034</v>
       </c>
     </row>
     <row r="134">
@@ -3426,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>2.38296221433108</v>
+        <v>2.38296887652746</v>
       </c>
     </row>
     <row r="135">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>0.646532316891551</v>
+        <v>0.646537278346251</v>
       </c>
     </row>
     <row r="136">
@@ -3460,7 +3460,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>0.248653914165512</v>
+        <v>0.24865714483881</v>
       </c>
     </row>
     <row r="137">
@@ -3511,7 +3511,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>12.0419351480044</v>
+        <v>12.0419358471416</v>
       </c>
     </row>
     <row r="140">
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57707069518874</v>
+        <v>1.57706388307033</v>
       </c>
     </row>
     <row r="141">
@@ -3560,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>5.94839805667666</v>
+        <v>5.94840147106993</v>
       </c>
     </row>
     <row r="143">
@@ -3577,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>7.02262566540252</v>
+        <v>7.02264726192444</v>
       </c>
     </row>
     <row r="144">
@@ -3594,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>6.68951356511182</v>
+        <v>6.68952016485973</v>
       </c>
     </row>
     <row r="145">
@@ -3611,7 +3611,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>0.943270590055569</v>
+        <v>0.943271022849446</v>
       </c>
     </row>
     <row r="146">
@@ -3628,7 +3628,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>2.61442710114949</v>
+        <v>2.6144303857919</v>
       </c>
     </row>
     <row r="147">
@@ -3645,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>2.52332466432644</v>
+        <v>2.52332561922478</v>
       </c>
     </row>
     <row r="148">
@@ -3662,7 +3662,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>1.35927651675919</v>
+        <v>1.35927828921079</v>
       </c>
     </row>
     <row r="149">
@@ -3679,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>2.979759004039</v>
+        <v>2.97976139733796</v>
       </c>
     </row>
     <row r="150">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>3.29831466076673</v>
+        <v>3.29831276357972</v>
       </c>
     </row>
     <row r="151">
@@ -3713,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>3.07768197075252</v>
+        <v>3.07768019374141</v>
       </c>
     </row>
     <row r="152">
@@ -3730,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>1.60082851671048</v>
+        <v>1.60083096741314</v>
       </c>
     </row>
     <row r="153">
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>2.98051087895188</v>
+        <v>2.98052752522209</v>
       </c>
     </row>
     <row r="155">
@@ -3779,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>3.21686358608822</v>
+        <v>3.21684996328964</v>
       </c>
     </row>
     <row r="156">
@@ -3796,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>3.38213618818081</v>
+        <v>3.38215169917029</v>
       </c>
     </row>
     <row r="157">
@@ -3828,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>43.8331850064408</v>
+        <v>43.8331829453177</v>
       </c>
     </row>
     <row r="159">
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>30.2803965593693</v>
+        <v>30.2804212557598</v>
       </c>
     </row>
     <row r="160">
@@ -3862,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>38.1588859553091</v>
+        <v>38.1588848577468</v>
       </c>
     </row>
     <row r="161">
@@ -3879,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>2.10644322031081</v>
+        <v>2.10645024483824</v>
       </c>
     </row>
     <row r="162">
@@ -3896,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>6.92062910159705</v>
+        <v>6.92063768232793</v>
       </c>
     </row>
     <row r="163">
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>3.83657890729207</v>
+        <v>3.83656569836818</v>
       </c>
     </row>
     <row r="164">
@@ -3930,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>4.25390546726196</v>
+        <v>4.25390522577354</v>
       </c>
     </row>
     <row r="165">
@@ -3947,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>6.38830647837549</v>
+        <v>6.38830861719034</v>
       </c>
     </row>
     <row r="166">
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>3.78365754591583</v>
+        <v>3.78366179966857</v>
       </c>
     </row>
     <row r="167">
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>2.84596558783927</v>
+        <v>2.84596980099268</v>
       </c>
     </row>
     <row r="168">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>3.10367421414946</v>
+        <v>3.10369724407425</v>
       </c>
     </row>
     <row r="169">
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>3.59924319223422</v>
+        <v>3.59924154818217</v>
       </c>
     </row>
     <row r="171">
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>3.42463076524023</v>
+        <v>3.42462639004872</v>
       </c>
     </row>
     <row r="172">
@@ -4066,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0308277044840743</v>
+        <v>0.0308291132387858</v>
       </c>
     </row>
     <row r="173">
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>10.1193215988271</v>
+        <v>10.1193328097413</v>
       </c>
     </row>
     <row r="174">
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>8.22993624661202</v>
+        <v>8.22994004941695</v>
       </c>
     </row>
     <row r="175">
@@ -4117,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>2.62046646868403</v>
+        <v>2.62046974570417</v>
       </c>
     </row>
     <row r="176">
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>8.3560982173185</v>
+        <v>8.35610735566221</v>
       </c>
     </row>
     <row r="177">
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>7.67424357816427</v>
+        <v>7.67424433786038</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>3.2237111654526</v>
+        <v>3.22370282698648</v>
       </c>
     </row>
     <row r="179">
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>3.33643215269988</v>
+        <v>3.33643798281438</v>
       </c>
     </row>
     <row r="180">
@@ -4217,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>3.41795187500025</v>
+        <v>3.41793496629762</v>
       </c>
     </row>
     <row r="182">
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>1.86406373875763</v>
+        <v>1.86405374890517</v>
       </c>
     </row>
     <row r="183">
@@ -4251,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>1.40865415793886</v>
+        <v>1.40862600783234</v>
       </c>
     </row>
     <row r="184">
@@ -4268,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>9.39366342225592</v>
+        <v>9.39366432930934</v>
       </c>
     </row>
     <row r="185">
@@ -4285,7 +4285,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>3.71130744558915</v>
+        <v>3.71131029169717</v>
       </c>
     </row>
     <row r="186">
@@ -4302,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>2.74412256116719</v>
+        <v>2.74412688518416</v>
       </c>
     </row>
     <row r="187">
@@ -4319,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>1.46567612239021</v>
+        <v>1.46567814339775</v>
       </c>
     </row>
     <row r="188">
@@ -4351,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>9.82653485621106</v>
+        <v>9.82654205211828</v>
       </c>
     </row>
     <row r="190">
@@ -4368,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>7.1383946163847</v>
+        <v>7.13837466833952</v>
       </c>
     </row>
     <row r="191">
@@ -4385,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>7.81757449158561</v>
+        <v>7.81758972030622</v>
       </c>
     </row>
     <row r="192">
@@ -4402,7 +4402,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>2.40522334697655</v>
+        <v>2.40522045643658</v>
       </c>
     </row>
     <row r="193">
@@ -4419,7 +4419,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>2.01026190943005</v>
+        <v>2.01024563705108</v>
       </c>
     </row>
     <row r="194">
@@ -4436,7 +4436,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>1.01350094031229</v>
+        <v>1.01350929908517</v>
       </c>
     </row>
     <row r="195">
@@ -4453,7 +4453,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>3.09186055542041</v>
+        <v>3.09186680117602</v>
       </c>
     </row>
     <row r="196">
@@ -4485,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>1.83531057383694</v>
+        <v>1.8352991027124</v>
       </c>
     </row>
     <row r="198">
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>1.63361332739398</v>
+        <v>1.63360337809616</v>
       </c>
     </row>
     <row r="199">
@@ -4519,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>1.64448540818925</v>
+        <v>1.64448767776689</v>
       </c>
     </row>
     <row r="200">
@@ -4536,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>0.172731652152688</v>
+        <v>0.172726496055366</v>
       </c>
     </row>
     <row r="201">
@@ -4553,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>0.413061752866806</v>
+        <v>0.413052886217129</v>
       </c>
     </row>
     <row r="202">
@@ -4570,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.617664611529884</v>
+        <v>0.617666243420624</v>
       </c>
     </row>
     <row r="203">
@@ -4587,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>0.386026468929751</v>
+        <v>0.386029190010806</v>
       </c>
     </row>
     <row r="204">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>2.3463147576274</v>
+        <v>2.3462996493634</v>
       </c>
     </row>
     <row r="209">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>3.53253918218265</v>
+        <v>3.53253293044436</v>
       </c>
     </row>
     <row r="210">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>5.12468321920238</v>
+        <v>5.12468515368471</v>
       </c>
     </row>
     <row r="211">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>4.66056800316272</v>
+        <v>4.66056071721619</v>
       </c>
     </row>
     <row r="212">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>1.55084396827564</v>
+        <v>1.55084386366119</v>
       </c>
     </row>
     <row r="213">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>1.34038365140374</v>
+        <v>1.34038121070869</v>
       </c>
     </row>
     <row r="215">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>1.41195876393226</v>
+        <v>1.4119564310587</v>
       </c>
     </row>
     <row r="216">
@@ -4815,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>4.2651725780269</v>
+        <v>4.26517640951186</v>
       </c>
     </row>
     <row r="218">
@@ -4832,7 +4832,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>3.56374637143511</v>
+        <v>3.56374641089975</v>
       </c>
     </row>
     <row r="219">
@@ -4849,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>3.58198486571347</v>
+        <v>3.58197700216842</v>
       </c>
     </row>
     <row r="220">
@@ -4881,7 +4881,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>11.7153560473694</v>
+        <v>11.7153635372223</v>
       </c>
     </row>
     <row r="222">
@@ -4898,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>5.21052885670129</v>
+        <v>5.21053947410308</v>
       </c>
     </row>
     <row r="223">
@@ -4915,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>3.98567497596842</v>
+        <v>3.98565422382035</v>
       </c>
     </row>
     <row r="224">
@@ -4932,7 +4932,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>1.86077970536721</v>
+        <v>1.86078736426138</v>
       </c>
     </row>
     <row r="225">
@@ -4949,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>1.6188857387339</v>
+        <v>1.61889269358652</v>
       </c>
     </row>
     <row r="226">
@@ -4966,7 +4966,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>4.12359181924968</v>
+        <v>4.12359041272843</v>
       </c>
     </row>
     <row r="227">
@@ -4983,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>4.55596795011852</v>
+        <v>4.55595187692862</v>
       </c>
     </row>
     <row r="228">
@@ -5000,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>0.186833092148533</v>
+        <v>0.186831864472974</v>
       </c>
     </row>
     <row r="229">
@@ -5017,7 +5017,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>0.166817518563934</v>
+        <v>0.166828921748261</v>
       </c>
     </row>
     <row r="230">
@@ -5034,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>0.390882162093546</v>
+        <v>0.390883318447412</v>
       </c>
     </row>
     <row r="231">
@@ -5051,7 +5051,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>0.115010253949623</v>
+        <v>0.115007820416408</v>
       </c>
     </row>
     <row r="232">
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>11.8102008902569</v>
+        <v>11.8102009601687</v>
       </c>
     </row>
     <row r="233">
@@ -5085,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>13.7921704685042</v>
+        <v>13.7921625923632</v>
       </c>
     </row>
     <row r="234">
@@ -5102,7 +5102,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>9.50467502043201</v>
+        <v>9.50469539221951</v>
       </c>
     </row>
     <row r="235">
@@ -5119,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>7.56233311191032</v>
+        <v>7.56233102753203</v>
       </c>
     </row>
     <row r="236">
@@ -5151,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>4.08909516926651</v>
+        <v>4.08909742673781</v>
       </c>
     </row>
     <row r="238">
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>5.61494895461089</v>
+        <v>5.61494292259245</v>
       </c>
     </row>
     <row r="239">
@@ -5185,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>3.52007441365467</v>
+        <v>3.52006909862577</v>
       </c>
     </row>
     <row r="240">
@@ -5202,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>0.476680275189459</v>
+        <v>0.476681383817925</v>
       </c>
     </row>
     <row r="241">
@@ -5219,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>0.809123950654931</v>
+        <v>0.809137189647576</v>
       </c>
     </row>
     <row r="242">
@@ -5266,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>3.48738117155956</v>
+        <v>3.48739661196212</v>
       </c>
     </row>
     <row r="245">
@@ -5300,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0586713720937493</v>
+        <v>0.0586620980424158</v>
       </c>
     </row>
     <row r="247">
@@ -5334,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>14.5165362282252</v>
+        <v>14.5165521088971</v>
       </c>
     </row>
     <row r="249">
@@ -5351,7 +5351,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>8.40593571931509</v>
+        <v>8.40593120530641</v>
       </c>
     </row>
     <row r="250">
@@ -5368,7 +5368,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>6.64797111534886</v>
+        <v>6.64802272702723</v>
       </c>
     </row>
     <row r="251">
@@ -5385,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>6.80515562422733</v>
+        <v>6.80516276269613</v>
       </c>
     </row>
     <row r="252">
@@ -5402,7 +5402,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>16.5865327684001</v>
+        <v>16.5865318891311</v>
       </c>
     </row>
     <row r="253">
@@ -5419,7 +5419,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>17.4865996329438</v>
+        <v>17.4865924333735</v>
       </c>
     </row>
     <row r="254">
@@ -5436,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>14.1026739515279</v>
+        <v>14.1026723884953</v>
       </c>
     </row>
     <row r="255">
@@ -5453,7 +5453,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>5.02134857731072</v>
+        <v>5.02134159048173</v>
       </c>
     </row>
     <row r="256">
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>26.0666835734897</v>
+        <v>26.0666758052632</v>
       </c>
     </row>
     <row r="258">
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>21.7328411744163</v>
+        <v>21.7328503008064</v>
       </c>
     </row>
     <row r="259">
@@ -5521,7 +5521,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>5.26587537695351</v>
+        <v>5.26588917649263</v>
       </c>
     </row>
     <row r="260">
@@ -5570,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>2.62982206026475</v>
+        <v>2.62982361756525</v>
       </c>
     </row>
     <row r="263">
@@ -5587,7 +5587,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>1.65535315085253</v>
+        <v>1.65534869074287</v>
       </c>
     </row>
     <row r="264">
@@ -5604,7 +5604,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>0.824812156234551</v>
+        <v>0.824802334058637</v>
       </c>
     </row>
     <row r="265">
@@ -5621,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>0.695820037306112</v>
+        <v>0.695825778856043</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>8.95905903914632</v>
+        <v>8.95906339977202</v>
       </c>
     </row>
     <row r="270">
@@ -5700,7 +5700,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>2.17162910462599</v>
+        <v>2.17163719964644</v>
       </c>
     </row>
     <row r="271">
@@ -5717,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>1.52240206933958</v>
+        <v>1.5223937996504</v>
       </c>
     </row>
     <row r="272">
@@ -5734,7 +5734,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>2.70772691188145</v>
+        <v>2.70774192278399</v>
       </c>
     </row>
     <row r="273">
@@ -5751,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>2.26427171111507</v>
+        <v>2.26427016108828</v>
       </c>
     </row>
     <row r="274">
@@ -5768,7 +5768,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>3.0006003845635</v>
+        <v>3.00058113094714</v>
       </c>
     </row>
     <row r="275">
@@ -5785,7 +5785,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>2.61719421263148</v>
+        <v>2.61719603551417</v>
       </c>
     </row>
     <row r="276">
@@ -5802,7 +5802,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>3.9386373230305</v>
+        <v>3.93863418679942</v>
       </c>
     </row>
     <row r="277">
@@ -5819,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>2.86574939431969</v>
+        <v>2.86576632716781</v>
       </c>
     </row>
     <row r="278">
@@ -5836,7 +5836,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>2.50433857386583</v>
+        <v>2.50435751482434</v>
       </c>
     </row>
     <row r="279">
@@ -5853,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>2.49508524438295</v>
+        <v>2.49515461464192</v>
       </c>
     </row>
     <row r="280">
@@ -5870,7 +5870,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>2.49593716034126</v>
+        <v>2.49593716873141</v>
       </c>
     </row>
     <row r="281">
@@ -5887,7 +5887,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>1.49455065301361</v>
+        <v>1.49454494628182</v>
       </c>
     </row>
     <row r="282">
@@ -5904,7 +5904,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>1.21980334474897</v>
+        <v>1.21981370470389</v>
       </c>
     </row>
     <row r="283">
@@ -5921,7 +5921,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>1.69175246038637</v>
+        <v>1.69175309565028</v>
       </c>
     </row>
     <row r="284">
@@ -5938,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>13.082586671442</v>
+        <v>13.082586060183</v>
       </c>
     </row>
     <row r="285">
@@ -5955,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>14.2057232176958</v>
+        <v>14.2057147486807</v>
       </c>
     </row>
     <row r="286">
@@ -5972,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>5.28748518909737</v>
+        <v>5.28749616941133</v>
       </c>
     </row>
     <row r="287">
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>5.3930825405604</v>
+        <v>5.39304851441482</v>
       </c>
     </row>
     <row r="288">
@@ -6023,7 +6023,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>0.103168602773994</v>
+        <v>0.103178934369685</v>
       </c>
     </row>
     <row r="290">
@@ -6040,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>4.25093524769918</v>
+        <v>4.25093950289802</v>
       </c>
     </row>
     <row r="291">
@@ -6057,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>4.56698060496726</v>
+        <v>4.56696247587023</v>
       </c>
     </row>
     <row r="292">
@@ -6104,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>10.7438874393751</v>
+        <v>10.7439049105377</v>
       </c>
     </row>
     <row r="295">
@@ -6121,7 +6121,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>0.824059034544692</v>
+        <v>0.824085556108811</v>
       </c>
     </row>
     <row r="296">
@@ -6138,7 +6138,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>2.38955012289133</v>
+        <v>2.38954594379699</v>
       </c>
     </row>
     <row r="297">
@@ -6155,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>4.04932341741257</v>
+        <v>4.04934150730013</v>
       </c>
     </row>
     <row r="298">
@@ -6172,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>3.67271558757771</v>
+        <v>3.67269825149293</v>
       </c>
     </row>
     <row r="299">
@@ -6189,7 +6189,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>4.33441270591811</v>
+        <v>4.33440328725693</v>
       </c>
     </row>
     <row r="300">
@@ -6206,7 +6206,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>0.67706314426163</v>
+        <v>0.677063336349798</v>
       </c>
     </row>
     <row r="301">
@@ -6223,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>4.2004009662949</v>
+        <v>4.20039704670622</v>
       </c>
     </row>
     <row r="302">
@@ -6240,7 +6240,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>2.39557158208705</v>
+        <v>2.39556716755207</v>
       </c>
     </row>
     <row r="303">
@@ -6257,7 +6257,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>2.41910946820475</v>
+        <v>2.4191111916177</v>
       </c>
     </row>
     <row r="304">
@@ -6274,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>0.464858636115543</v>
+        <v>0.464857525899094</v>
       </c>
     </row>
     <row r="305">
@@ -6291,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>0.390240846274222</v>
+        <v>0.390240879578713</v>
       </c>
     </row>
     <row r="306">
@@ -6308,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>0.653442349896446</v>
+        <v>0.653441090301897</v>
       </c>
     </row>
     <row r="307">
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>0.240184926937827</v>
+        <v>0.240180388288656</v>
       </c>
     </row>
     <row r="308">
@@ -6342,7 +6342,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>0.220836761690422</v>
+        <v>0.220837489372196</v>
       </c>
     </row>
     <row r="309">
@@ -6359,7 +6359,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>0.550548716372975</v>
+        <v>0.55054643283809</v>
       </c>
     </row>
     <row r="310">
@@ -6376,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>0.456563109190522</v>
+        <v>0.456557627486575</v>
       </c>
     </row>
     <row r="311">
@@ -6393,7 +6393,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>0.483607678363067</v>
+        <v>0.483606671980489</v>
       </c>
     </row>
     <row r="312">
@@ -6410,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>1.76309711853513</v>
+        <v>1.76310287693512</v>
       </c>
     </row>
     <row r="313">
@@ -6427,7 +6427,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>3.57322934854647</v>
+        <v>3.57323638726782</v>
       </c>
     </row>
     <row r="314">
@@ -6444,7 +6444,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>3.04367913373796</v>
+        <v>3.0436800011115</v>
       </c>
     </row>
     <row r="315">
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>0.803069262415842</v>
+        <v>0.803067858884915</v>
       </c>
     </row>
     <row r="316">
@@ -6478,7 +6478,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>0.198918455873826</v>
+        <v>0.198923363344545</v>
       </c>
     </row>
     <row r="317">
@@ -6495,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>3.68906189495995</v>
+        <v>3.68906064060006</v>
       </c>
     </row>
     <row r="318">
@@ -6572,7 +6572,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>3.11745908009054</v>
+        <v>3.11747149969446</v>
       </c>
     </row>
     <row r="323">
@@ -6589,7 +6589,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>2.95099251690501</v>
+        <v>2.95098147373831</v>
       </c>
     </row>
     <row r="324">
@@ -6621,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>3.34368490653432</v>
+        <v>3.34369366833286</v>
       </c>
     </row>
     <row r="326">
@@ -6638,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>2.44398563672202</v>
+        <v>2.44399006073546</v>
       </c>
     </row>
     <row r="327">
@@ -6655,7 +6655,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>2.53403402568742</v>
+        <v>2.53401569612292</v>
       </c>
     </row>
     <row r="328">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>5.08288234693821</v>
+        <v>5.08288984016921</v>
       </c>
     </row>
     <row r="330">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>4.24985449775613</v>
+        <v>4.24985952675842</v>
       </c>
     </row>
     <row r="331">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>4.35804137574956</v>
+        <v>4.3580355566655</v>
       </c>
     </row>
     <row r="332">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>1.05223808435413</v>
+        <v>1.05223908937631</v>
       </c>
     </row>
     <row r="333">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>0.534133643308944</v>
+        <v>0.534132819159194</v>
       </c>
     </row>
     <row r="334">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>1.16909934443983</v>
+        <v>1.16909296915319</v>
       </c>
     </row>
     <row r="335">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>14.9489723336224</v>
+        <v>14.9489769840747</v>
       </c>
     </row>
     <row r="337">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>10.5528785444784</v>
+        <v>10.5528565498628</v>
       </c>
     </row>
     <row r="338">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>10.1872357878404</v>
+        <v>10.1872306770011</v>
       </c>
     </row>
     <row r="339">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>10.5147715820772</v>
+        <v>10.5147840323966</v>
       </c>
     </row>
     <row r="340">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>4.20360595991705</v>
+        <v>4.20361044732929</v>
       </c>
     </row>
     <row r="341">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>0.911704038841244</v>
+        <v>0.911704634220828</v>
       </c>
     </row>
     <row r="342">
@@ -6938,7 +6938,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>1.24789399759202</v>
+        <v>1.24788650550937</v>
       </c>
     </row>
     <row r="345">
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>0.646162626488455</v>
+        <v>0.64616196773575</v>
       </c>
     </row>
     <row r="346">
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>8.87133078197975</v>
+        <v>8.87132620863997</v>
       </c>
     </row>
     <row r="347">
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>8.52251643895606</v>
+        <v>8.52249120064722</v>
       </c>
     </row>
     <row r="348">
@@ -7006,7 +7006,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>6.75809725295386</v>
+        <v>6.75808342162104</v>
       </c>
     </row>
     <row r="349">
@@ -7023,7 +7023,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>7.10219449368903</v>
+        <v>7.10218418606714</v>
       </c>
     </row>
     <row r="350">
@@ -7040,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>2.5451777020004</v>
+        <v>2.54517849600635</v>
       </c>
     </row>
     <row r="351">
@@ -7057,7 +7057,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>2.60564471265906</v>
+        <v>2.60563983240734</v>
       </c>
     </row>
     <row r="352">
@@ -7074,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>1.99286089080231</v>
+        <v>1.99286853376956</v>
       </c>
     </row>
     <row r="353">
@@ -7091,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>2.04574687292605</v>
+        <v>2.0457343765412</v>
       </c>
     </row>
     <row r="354">
@@ -7108,7 +7108,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>15.856151293308</v>
+        <v>15.8561596618237</v>
       </c>
     </row>
     <row r="355">
@@ -7125,7 +7125,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>6.40518840514929</v>
+        <v>6.40518594445996</v>
       </c>
     </row>
     <row r="356">
@@ -7142,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>4.89482425569655</v>
+        <v>4.89483698439467</v>
       </c>
     </row>
     <row r="357">
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>4.86011968772635</v>
+        <v>4.86010314596907</v>
       </c>
     </row>
     <row r="358">
@@ -7191,7 +7191,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>1.1155428945356</v>
+        <v>1.11554544095819</v>
       </c>
     </row>
     <row r="360">
@@ -7208,7 +7208,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>1.11554401664925</v>
+        <v>1.11554544095818</v>
       </c>
     </row>
     <row r="361">
@@ -7225,7 +7225,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>1.52718713480848</v>
+        <v>1.52718780532453</v>
       </c>
     </row>
     <row r="362">
@@ -7242,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>1.5569377048187</v>
+        <v>1.55694271075762</v>
       </c>
     </row>
     <row r="363">
@@ -7259,7 +7259,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>1.50200127979491</v>
+        <v>1.5020111303197</v>
       </c>
     </row>
     <row r="364">
@@ -7276,7 +7276,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>1.32921691975866</v>
+        <v>1.32922504333827</v>
       </c>
     </row>
     <row r="365">
@@ -7293,7 +7293,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>1.37779367133456</v>
+        <v>1.37779521000565</v>
       </c>
     </row>
     <row r="366">
@@ -7310,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>11.9925212535506</v>
+        <v>11.9925121206656</v>
       </c>
     </row>
     <row r="367">
@@ -7327,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>9.885359516055</v>
+        <v>9.88536016272667</v>
       </c>
     </row>
     <row r="368">
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>8.47471916700633</v>
+        <v>8.47471507899226</v>
       </c>
     </row>
     <row r="369">
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>7.47916542006146</v>
+        <v>7.47917413328382</v>
       </c>
     </row>
     <row r="370">
@@ -7393,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>3.07582549061275</v>
+        <v>3.07583066536121</v>
       </c>
     </row>
     <row r="372">
@@ -7410,7 +7410,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>1.68778948747144</v>
+        <v>1.68778629828561</v>
       </c>
     </row>
     <row r="373">
@@ -7427,7 +7427,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>1.68790236027583</v>
+        <v>1.6879008206839</v>
       </c>
     </row>
     <row r="374">
@@ -7444,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>47.3293232767254</v>
+        <v>47.3293096991185</v>
       </c>
     </row>
     <row r="375">
@@ -7461,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>57.0428261707402</v>
+        <v>57.0428419158142</v>
       </c>
     </row>
     <row r="376">
@@ -7478,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>28.8207576436644</v>
+        <v>28.8207620111615</v>
       </c>
     </row>
     <row r="377">
@@ -7512,7 +7512,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>1.56944869614629</v>
+        <v>1.56945853539325</v>
       </c>
     </row>
     <row r="379">
@@ -7529,7 +7529,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>4.09867371470691</v>
+        <v>4.09866638169917</v>
       </c>
     </row>
     <row r="380">
@@ -7546,7 +7546,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>4.58804789119833</v>
+        <v>4.58810345016884</v>
       </c>
     </row>
     <row r="381">
@@ -7563,7 +7563,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>4.09849508965846</v>
+        <v>4.09851715086873</v>
       </c>
     </row>
     <row r="382">
@@ -7610,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>3.01467847229282</v>
+        <v>3.01467918590421</v>
       </c>
     </row>
     <row r="385">
@@ -7627,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>3.03271272620638</v>
+        <v>3.03270387784063</v>
       </c>
     </row>
     <row r="386">
@@ -7659,7 +7659,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>6.85720389519999</v>
+        <v>6.85722228210877</v>
       </c>
     </row>
     <row r="388">
@@ -7676,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4.13385558041441</v>
+        <v>4.13387242904085</v>
       </c>
     </row>
     <row r="389">
@@ -7693,7 +7693,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>3.93874255830525</v>
+        <v>3.93873968088583</v>
       </c>
     </row>
     <row r="390">
@@ -7740,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2.83933483945288</v>
+        <v>2.83934173511963</v>
       </c>
     </row>
     <row r="393">
@@ -7757,7 +7757,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>1.88340677319871</v>
+        <v>1.88340647655123</v>
       </c>
     </row>
     <row r="394">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>3.54874116009933</v>
+        <v>3.54874886514287</v>
       </c>
     </row>
     <row r="396">
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>2.85614662173421</v>
+        <v>2.85615087282756</v>
       </c>
     </row>
     <row r="397">
@@ -7823,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>2.92846466859091</v>
+        <v>2.92846118254087</v>
       </c>
     </row>
     <row r="398">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>0.549973295762353</v>
+        <v>0.54998582706151</v>
       </c>
     </row>
     <row r="399">
@@ -7857,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>1.57661457244078</v>
+        <v>1.57663936536554</v>
       </c>
     </row>
     <row r="400">
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>1.53749682219453</v>
+        <v>1.53754043951716</v>
       </c>
     </row>
     <row r="401">
@@ -7891,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>1.50820398717346</v>
+        <v>1.5081988707009</v>
       </c>
     </row>
     <row r="402">
@@ -7938,7 +7938,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>1.9614698528622</v>
+        <v>1.96146772795591</v>
       </c>
     </row>
     <row r="405">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>1.56145263970344</v>
+        <v>1.56144879075778</v>
       </c>
     </row>
     <row r="407">
@@ -7989,7 +7989,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.12237713277336</v>
+        <v>1.12238844260587</v>
       </c>
     </row>
     <row r="408">
@@ -8006,7 +8006,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>0.894547592272769</v>
+        <v>0.894558796965872</v>
       </c>
     </row>
     <row r="409">
@@ -8023,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>0.912887884606074</v>
+        <v>0.912889569353876</v>
       </c>
     </row>
     <row r="410">
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>0.211922019723088</v>
+        <v>0.211919336990705</v>
       </c>
     </row>
     <row r="411">
@@ -8057,7 +8057,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>1.00544039563909</v>
+        <v>1.00546756087867</v>
       </c>
     </row>
     <row r="412">
@@ -8074,7 +8074,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>0.880881382301636</v>
+        <v>0.880912822315389</v>
       </c>
     </row>
     <row r="413">
@@ -8091,7 +8091,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>0.883428415611974</v>
+        <v>0.883457294271269</v>
       </c>
     </row>
     <row r="414">
@@ -8108,7 +8108,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>0.900645854081156</v>
+        <v>0.900648728420557</v>
       </c>
     </row>
     <row r="415">
@@ -8125,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>2.47882085376084</v>
+        <v>2.47882550180696</v>
       </c>
     </row>
     <row r="416">
@@ -8142,7 +8142,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>2.45409556875162</v>
+        <v>2.45409204039692</v>
       </c>
     </row>
     <row r="417">
@@ -8159,7 +8159,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>2.60387986961613</v>
+        <v>2.60388536376553</v>
       </c>
     </row>
     <row r="418">
@@ -8193,7 +8193,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>1.0180335565229</v>
+        <v>1.01804246967008</v>
       </c>
     </row>
     <row r="420">
@@ -8210,7 +8210,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>0.961868013672028</v>
+        <v>0.961866562759904</v>
       </c>
     </row>
     <row r="421">
@@ -8227,7 +8227,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>0.563690281015813</v>
+        <v>0.563696633746248</v>
       </c>
     </row>
     <row r="422">
@@ -8244,7 +8244,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>0.384207561987514</v>
+        <v>0.384210366407466</v>
       </c>
     </row>
     <row r="423">
@@ -8278,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>1.43263096542136</v>
+        <v>1.43263134206006</v>
       </c>
     </row>
     <row r="425">
@@ -8295,7 +8295,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>1.47942294256859</v>
+        <v>1.47942587158481</v>
       </c>
     </row>
     <row r="426">
@@ -8327,7 +8327,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>1.04985198660051</v>
+        <v>1.04986189199313</v>
       </c>
     </row>
     <row r="428">
@@ -8344,7 +8344,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>1.43964436193338</v>
+        <v>1.43965409593354</v>
       </c>
     </row>
     <row r="429">
@@ -8361,7 +8361,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.2298650712971</v>
+        <v>1.22987083797169</v>
       </c>
     </row>
     <row r="430">
@@ -8395,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>1.14061549239073</v>
+        <v>1.14061579149211</v>
       </c>
     </row>
     <row r="432">
@@ -8412,7 +8412,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>0.640236490173997</v>
+        <v>0.64023412318404</v>
       </c>
     </row>
     <row r="433">
@@ -8429,7 +8429,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>0.65331040020793</v>
+        <v>0.653312049628012</v>
       </c>
     </row>
     <row r="434">
@@ -8461,7 +8461,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>6.30264460964618</v>
+        <v>6.30265358928409</v>
       </c>
     </row>
     <row r="436">
@@ -8478,7 +8478,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>5.27314750477249</v>
+        <v>5.27313453339111</v>
       </c>
     </row>
     <row r="437">
@@ -8495,7 +8495,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>9.94357377442938</v>
+        <v>9.94357070778264</v>
       </c>
     </row>
     <row r="438">
@@ -8512,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>6.39565369104028</v>
+        <v>6.39564890712685</v>
       </c>
     </row>
     <row r="439">
@@ -8529,7 +8529,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>1.70046705857949</v>
+        <v>1.70046377419339</v>
       </c>
     </row>
     <row r="440">
@@ -8546,7 +8546,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>5.06659337182714</v>
+        <v>5.06658668906344</v>
       </c>
     </row>
     <row r="441">
@@ -8563,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5.00585855940434</v>
+        <v>5.00585766085961</v>
       </c>
     </row>
   </sheetData>
@@ -8609,13 +8609,13 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>15.3356753967102</v>
+        <v>15.3356906174493</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6942815365648</v>
+        <v>15.6942959309451</v>
       </c>
       <c r="F2" t="n">
-        <v>15.9420793622473</v>
+        <v>15.9420633866799</v>
       </c>
     </row>
     <row r="3">
@@ -8626,16 +8626,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>5.19216598625374</v>
+        <v>5.19216544508237</v>
       </c>
       <c r="D3" t="n">
-        <v>5.35330194088398</v>
+        <v>5.35331173365339</v>
       </c>
       <c r="E3" t="n">
-        <v>10.355919793205</v>
+        <v>10.3559255360215</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9663130021397</v>
+        <v>10.9663195326391</v>
       </c>
     </row>
     <row r="4">
@@ -8646,16 +8646,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>4.61039901571137</v>
+        <v>4.61040452441175</v>
       </c>
       <c r="D4" t="n">
-        <v>3.95983386000621</v>
+        <v>3.95984138808551</v>
       </c>
       <c r="E4" t="n">
-        <v>3.50207373745984</v>
+        <v>3.50208137038269</v>
       </c>
       <c r="F4" t="n">
-        <v>2.45429969376498</v>
+        <v>2.45430123159216</v>
       </c>
     </row>
     <row r="5">
@@ -8666,16 +8666,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.25843785002973</v>
+        <v>2.25843974097699</v>
       </c>
       <c r="D5" t="n">
-        <v>3.24727326955021</v>
+        <v>3.24728514507103</v>
       </c>
       <c r="E5" t="n">
-        <v>1.7240754662295</v>
+        <v>1.7240815529515</v>
       </c>
       <c r="F5" t="n">
-        <v>1.99718163641413</v>
+        <v>1.99717449462203</v>
       </c>
     </row>
     <row r="6">
@@ -8687,13 +8687,13 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>1.68827625833502</v>
+        <v>1.68827477650755</v>
       </c>
       <c r="E6" t="n">
-        <v>8.96235265297222</v>
+        <v>8.96234623280221</v>
       </c>
       <c r="F6" t="n">
-        <v>1.47498752545979</v>
+        <v>1.47498781844189</v>
       </c>
     </row>
     <row r="7">
@@ -8704,16 +8704,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>9.49776664124632</v>
+        <v>9.49776136551452</v>
       </c>
       <c r="D7" t="n">
-        <v>10.1591327746801</v>
+        <v>10.1591450105602</v>
       </c>
       <c r="E7" t="n">
-        <v>6.91835714036321</v>
+        <v>6.9183544788721</v>
       </c>
       <c r="F7" t="n">
-        <v>6.967914815438</v>
+        <v>6.96792064049583</v>
       </c>
     </row>
     <row r="8">
@@ -8725,13 +8725,13 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>0.190943418138406</v>
+        <v>0.190947513654166</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0657222510833032</v>
+        <v>0.0657212086612229</v>
       </c>
     </row>
     <row r="9">
@@ -8742,16 +8742,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3179487294449</v>
+        <v>33.3179494353646</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3742605420713</v>
+        <v>37.3742474972893</v>
       </c>
       <c r="E9" t="n">
-        <v>19.1421705395925</v>
+        <v>19.1421522228922</v>
       </c>
       <c r="F9" t="n">
-        <v>5.4685906341177</v>
+        <v>5.46858695163859</v>
       </c>
     </row>
     <row r="10">
@@ -8763,13 +8763,13 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>8.6172602067872</v>
+        <v>8.61725246262129</v>
       </c>
       <c r="E10" t="n">
-        <v>9.17971427204474</v>
+        <v>9.17973210258124</v>
       </c>
       <c r="F10" t="n">
-        <v>9.9376837878956</v>
+        <v>9.93767441071071</v>
       </c>
     </row>
     <row r="11">
@@ -8780,16 +8780,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.154251093185291</v>
+        <v>0.154253471154843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314075522095588</v>
+        <v>0.31407372942124</v>
       </c>
       <c r="E11" t="n">
-        <v>0.619618390395256</v>
+        <v>0.619616253625389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.648424421992168</v>
+        <v>0.64842405649543</v>
       </c>
     </row>
     <row r="12">
@@ -8800,16 +8800,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>2.72158011986203</v>
+        <v>2.72158351822392</v>
       </c>
       <c r="D12" t="n">
-        <v>2.23890856311652</v>
+        <v>2.23890439269459</v>
       </c>
       <c r="E12" t="n">
-        <v>1.39575511751311</v>
+        <v>1.39576852532036</v>
       </c>
       <c r="F12" t="n">
-        <v>1.45748535257807</v>
+        <v>1.45751554318889</v>
       </c>
     </row>
     <row r="13">
@@ -8820,16 +8820,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.133230381832</v>
+        <v>1.13323988387596</v>
       </c>
       <c r="D13" t="n">
-        <v>4.73177167384643</v>
+        <v>4.73177436779216</v>
       </c>
       <c r="E13" t="n">
-        <v>2.96333070691118</v>
+        <v>2.96332203306619</v>
       </c>
       <c r="F13" t="n">
-        <v>2.64046074588717</v>
+        <v>2.6404637216087</v>
       </c>
     </row>
     <row r="14">
@@ -8840,16 +8840,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.25637385027984</v>
+        <v>2.25638416374799</v>
       </c>
       <c r="D14" t="n">
-        <v>3.74344045116351</v>
+        <v>3.74342003056502</v>
       </c>
       <c r="E14" t="n">
-        <v>3.43278895468516</v>
+        <v>3.43278069927274</v>
       </c>
       <c r="F14" t="n">
-        <v>3.43274532420558</v>
+        <v>3.43278069927275</v>
       </c>
     </row>
     <row r="15">
@@ -8860,16 +8860,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2.26465819614279</v>
+        <v>2.26465771105775</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2125369484917</v>
+        <v>1.2125001825611</v>
       </c>
       <c r="E15" t="n">
-        <v>1.26129244001238</v>
+        <v>1.26129341743807</v>
       </c>
       <c r="F15" t="n">
-        <v>1.31303120557072</v>
+        <v>1.31305123609011</v>
       </c>
     </row>
     <row r="16">
@@ -8881,13 +8881,13 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>2.64808838266416</v>
+        <v>2.64809612387271</v>
       </c>
       <c r="E16" t="n">
-        <v>2.29476499530291</v>
+        <v>2.2947686552715</v>
       </c>
       <c r="F16" t="n">
-        <v>2.30000626076031</v>
+        <v>2.30000067264594</v>
       </c>
     </row>
     <row r="17">
@@ -8898,16 +8898,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3.19327105334416</v>
+        <v>3.19326470055972</v>
       </c>
       <c r="D17" t="n">
-        <v>1.46977925123417</v>
+        <v>1.46978618107776</v>
       </c>
       <c r="E17" t="n">
-        <v>2.48832818986295</v>
+        <v>2.488371830882</v>
       </c>
       <c r="F17" t="n">
-        <v>2.86903170989933</v>
+        <v>2.8690077444824</v>
       </c>
     </row>
     <row r="18">
@@ -8918,16 +8918,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>2.19720006111572</v>
+        <v>2.19720484782488</v>
       </c>
       <c r="D18" t="n">
-        <v>5.52340842892352</v>
+        <v>5.52339047377792</v>
       </c>
       <c r="E18" t="n">
-        <v>5.85917713909884</v>
+        <v>5.8591887381911</v>
       </c>
       <c r="F18" t="n">
-        <v>5.57666025614796</v>
+        <v>5.57666278159159</v>
       </c>
     </row>
     <row r="19">
@@ -8938,16 +8938,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>1.92293179488865</v>
+        <v>1.922930824986</v>
       </c>
       <c r="D19" t="n">
-        <v>4.05419724381797</v>
+        <v>4.05419976992293</v>
       </c>
       <c r="E19" t="n">
-        <v>3.2665766487029</v>
+        <v>3.26659107170728</v>
       </c>
       <c r="F19" t="n">
-        <v>3.27977701262502</v>
+        <v>3.27979297032674</v>
       </c>
     </row>
     <row r="20">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.0488625686063105</v>
+        <v>0.0488750134934941</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -8972,16 +8972,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>1.38922955656578</v>
+        <v>1.38923849658479</v>
       </c>
       <c r="D21" t="n">
-        <v>1.38012508651772</v>
+        <v>1.38013493776449</v>
       </c>
       <c r="E21" t="n">
-        <v>1.60234371037164</v>
+        <v>1.60234443540041</v>
       </c>
       <c r="F21" t="n">
-        <v>1.99798417237737</v>
+        <v>1.99803456739524</v>
       </c>
     </row>
     <row r="22">
@@ -8993,13 +8993,13 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>11.17690908254</v>
+        <v>11.1769117625527</v>
       </c>
       <c r="E22" t="n">
-        <v>3.33102157757408</v>
+        <v>3.33102249438043</v>
       </c>
       <c r="F22" t="n">
-        <v>2.69088166317529</v>
+        <v>2.69089023943175</v>
       </c>
     </row>
     <row r="23">
@@ -9013,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35958859800417</v>
+        <v>1.35960270455969</v>
       </c>
       <c r="E23" t="n">
-        <v>1.77027256369627</v>
+        <v>1.77026499125126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.363254112344107</v>
+        <v>0.363249228856335</v>
       </c>
     </row>
     <row r="24">
@@ -9030,16 +9030,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>0.456084247846662</v>
+        <v>0.456083376058024</v>
       </c>
       <c r="D24" t="n">
-        <v>4.83302946638161</v>
+        <v>4.83303763708488</v>
       </c>
       <c r="E24" t="n">
-        <v>3.43002640272778</v>
+        <v>3.43002527439029</v>
       </c>
       <c r="F24" t="n">
-        <v>0.202186430592986</v>
+        <v>0.202187043768461</v>
       </c>
     </row>
     <row r="25">
@@ -9050,16 +9050,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>3.22427088774499</v>
+        <v>3.22426802168545</v>
       </c>
       <c r="D25" t="n">
-        <v>2.63815982824993</v>
+        <v>2.63817201712728</v>
       </c>
       <c r="E25" t="n">
-        <v>2.10623499351009</v>
+        <v>2.10620720408295</v>
       </c>
       <c r="F25" t="n">
-        <v>2.11547555639625</v>
+        <v>2.11546851154299</v>
       </c>
     </row>
     <row r="26">
@@ -9070,16 +9070,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>1.50340934517804</v>
+        <v>1.50341910813844</v>
       </c>
       <c r="D26" t="n">
-        <v>0.721289138070261</v>
+        <v>0.721301765630651</v>
       </c>
       <c r="E26" t="n">
-        <v>0.15352625301287</v>
+        <v>0.153528671584097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.159276681990142</v>
+        <v>0.159278647278304</v>
       </c>
     </row>
     <row r="27">
@@ -9090,16 +9090,16 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>5.77482795473387</v>
+        <v>5.77482588917892</v>
       </c>
       <c r="D27" t="n">
-        <v>5.87095780441618</v>
+        <v>5.87094463762768</v>
       </c>
       <c r="E27" t="n">
-        <v>6.49994344386323</v>
+        <v>6.49996681179461</v>
       </c>
       <c r="F27" t="n">
-        <v>9.29681921445658</v>
+        <v>9.29688878144571</v>
       </c>
     </row>
     <row r="28">
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.05756177652217</v>
+        <v>1.05758352469268</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05759923344425</v>
+        <v>1.05758352469268</v>
       </c>
     </row>
     <row r="29">
@@ -9128,16 +9128,16 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166919497755836</v>
+        <v>0.166913074875336</v>
       </c>
       <c r="D29" t="n">
-        <v>4.1224921217441</v>
+        <v>4.12248969710546</v>
       </c>
       <c r="E29" t="n">
-        <v>3.95342445236824</v>
+        <v>3.9534331796198</v>
       </c>
       <c r="F29" t="n">
-        <v>4.08534296515553</v>
+        <v>4.08534499387167</v>
       </c>
     </row>
     <row r="30">
@@ -9150,10 +9150,10 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>2.13928634111706</v>
+        <v>2.13929173735345</v>
       </c>
       <c r="F30" t="n">
-        <v>2.14210835295893</v>
+        <v>2.14209940324869</v>
       </c>
     </row>
     <row r="31">
@@ -9166,10 +9166,10 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>20.1847106708115</v>
+        <v>20.1847094446841</v>
       </c>
       <c r="F31" t="n">
-        <v>3.07331452519846</v>
+        <v>3.07330586584493</v>
       </c>
     </row>
     <row r="32">
@@ -9180,16 +9180,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>17.6324341717361</v>
+        <v>17.6324308368215</v>
       </c>
       <c r="D32" t="n">
-        <v>1.14614713711401</v>
+        <v>1.14615036490099</v>
       </c>
       <c r="E32" t="n">
-        <v>0.578323900792127</v>
+        <v>0.578326414207442</v>
       </c>
       <c r="F32" t="n">
-        <v>0.654599766280752</v>
+        <v>0.654599749467464</v>
       </c>
     </row>
     <row r="33">
@@ -9200,16 +9200,16 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>4.18097241489567</v>
+        <v>4.18096721283514</v>
       </c>
       <c r="D33" t="n">
-        <v>4.17389354345245</v>
+        <v>4.17388701626664</v>
       </c>
       <c r="E33" t="n">
-        <v>4.5840133285458</v>
+        <v>4.58401631336874</v>
       </c>
       <c r="F33" t="n">
-        <v>4.17931453889927</v>
+        <v>4.17930435468186</v>
       </c>
     </row>
     <row r="34">
@@ -9221,13 +9221,13 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>2.66614127705546</v>
+        <v>2.66614531061906</v>
       </c>
       <c r="E34" t="n">
-        <v>2.11563217143644</v>
+        <v>2.11562638300831</v>
       </c>
       <c r="F34" t="n">
-        <v>2.14111745909581</v>
+        <v>2.14111305126284</v>
       </c>
     </row>
     <row r="35">
@@ -9238,16 +9238,16 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>7.33303266827795</v>
+        <v>7.33302853532034</v>
       </c>
       <c r="D35" t="n">
-        <v>2.38296221433108</v>
+        <v>2.38296887652746</v>
       </c>
       <c r="E35" t="n">
-        <v>0.646532316891551</v>
+        <v>0.646537278346251</v>
       </c>
       <c r="F35" t="n">
-        <v>0.248653914165512</v>
+        <v>0.24865714483881</v>
       </c>
     </row>
     <row r="36">
@@ -9264,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>12.0419351480044</v>
+        <v>12.0419358471416</v>
       </c>
       <c r="F36" t="n">
-        <v>1.57707069518874</v>
+        <v>1.57706388307033</v>
       </c>
     </row>
     <row r="37">
@@ -9279,13 +9279,13 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>5.94839805667666</v>
+        <v>5.94840147106993</v>
       </c>
       <c r="E37" t="n">
-        <v>7.02262566540252</v>
+        <v>7.02264726192444</v>
       </c>
       <c r="F37" t="n">
-        <v>6.68951356511182</v>
+        <v>6.68952016485973</v>
       </c>
     </row>
     <row r="38">
@@ -9296,16 +9296,16 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>0.943270590055569</v>
+        <v>0.943271022849446</v>
       </c>
       <c r="D38" t="n">
-        <v>2.61442710114949</v>
+        <v>2.6144303857919</v>
       </c>
       <c r="E38" t="n">
-        <v>2.52332466432644</v>
+        <v>2.52332561922478</v>
       </c>
       <c r="F38" t="n">
-        <v>1.35927651675919</v>
+        <v>1.35927828921079</v>
       </c>
     </row>
     <row r="39">
@@ -9316,16 +9316,16 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>2.979759004039</v>
+        <v>2.97976139733796</v>
       </c>
       <c r="D39" t="n">
-        <v>3.29831466076673</v>
+        <v>3.29831276357972</v>
       </c>
       <c r="E39" t="n">
-        <v>3.07768197075252</v>
+        <v>3.07768019374141</v>
       </c>
       <c r="F39" t="n">
-        <v>1.60082851671048</v>
+        <v>1.60083096741314</v>
       </c>
     </row>
     <row r="40">
@@ -9337,13 +9337,13 @@
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>2.98051087895188</v>
+        <v>2.98052752522209</v>
       </c>
       <c r="E40" t="n">
-        <v>3.21686358608822</v>
+        <v>3.21684996328964</v>
       </c>
       <c r="F40" t="n">
-        <v>3.38213618818081</v>
+        <v>3.38215169917029</v>
       </c>
     </row>
     <row r="41">
@@ -9355,13 +9355,13 @@
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>43.8331850064408</v>
+        <v>43.8331829453177</v>
       </c>
       <c r="E41" t="n">
-        <v>30.2803965593693</v>
+        <v>30.2804212557598</v>
       </c>
       <c r="F41" t="n">
-        <v>38.1588859553091</v>
+        <v>38.1588848577468</v>
       </c>
     </row>
     <row r="42">
@@ -9372,16 +9372,16 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>2.10644322031081</v>
+        <v>2.10645024483824</v>
       </c>
       <c r="D42" t="n">
-        <v>6.92062910159705</v>
+        <v>6.92063768232793</v>
       </c>
       <c r="E42" t="n">
-        <v>3.83657890729207</v>
+        <v>3.83656569836818</v>
       </c>
       <c r="F42" t="n">
-        <v>4.25390546726196</v>
+        <v>4.25390522577354</v>
       </c>
     </row>
     <row r="43">
@@ -9392,16 +9392,16 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>6.38830647837549</v>
+        <v>6.38830861719034</v>
       </c>
       <c r="D43" t="n">
-        <v>3.78365754591583</v>
+        <v>3.78366179966857</v>
       </c>
       <c r="E43" t="n">
-        <v>2.84596558783927</v>
+        <v>2.84596980099268</v>
       </c>
       <c r="F43" t="n">
-        <v>3.10367421414946</v>
+        <v>3.10369724407425</v>
       </c>
     </row>
     <row r="44">
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3.59924319223422</v>
+        <v>3.59924154818217</v>
       </c>
       <c r="E44" t="n">
-        <v>3.42463076524023</v>
+        <v>3.42462639004872</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0308277044840743</v>
+        <v>0.0308291132387858</v>
       </c>
     </row>
     <row r="45">
@@ -9433,13 +9433,13 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>10.1193215988271</v>
+        <v>10.1193328097413</v>
       </c>
       <c r="E45" t="n">
-        <v>8.22993624661202</v>
+        <v>8.22994004941695</v>
       </c>
       <c r="F45" t="n">
-        <v>2.62046646868403</v>
+        <v>2.62046974570417</v>
       </c>
     </row>
     <row r="46">
@@ -9450,16 +9450,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>8.3560982173185</v>
+        <v>8.35610735566221</v>
       </c>
       <c r="D46" t="n">
-        <v>7.67424357816427</v>
+        <v>7.67424433786038</v>
       </c>
       <c r="E46" t="n">
-        <v>3.2237111654526</v>
+        <v>3.22370282698648</v>
       </c>
       <c r="F46" t="n">
-        <v>3.33643215269988</v>
+        <v>3.33643798281438</v>
       </c>
     </row>
     <row r="47">
@@ -9471,13 +9471,13 @@
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>3.41795187500025</v>
+        <v>3.41793496629762</v>
       </c>
       <c r="E47" t="n">
-        <v>1.86406373875763</v>
+        <v>1.86405374890517</v>
       </c>
       <c r="F47" t="n">
-        <v>1.40865415793886</v>
+        <v>1.40862600783234</v>
       </c>
     </row>
     <row r="48">
@@ -9488,16 +9488,16 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>9.39366342225592</v>
+        <v>9.39366432930934</v>
       </c>
       <c r="D48" t="n">
-        <v>3.71130744558915</v>
+        <v>3.71131029169717</v>
       </c>
       <c r="E48" t="n">
-        <v>2.74412256116719</v>
+        <v>2.74412688518416</v>
       </c>
       <c r="F48" t="n">
-        <v>1.46567612239021</v>
+        <v>1.46567814339775</v>
       </c>
     </row>
     <row r="49">
@@ -9509,13 +9509,13 @@
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>9.82653485621106</v>
+        <v>9.82654205211828</v>
       </c>
       <c r="E49" t="n">
-        <v>7.1383946163847</v>
+        <v>7.13837466833952</v>
       </c>
       <c r="F49" t="n">
-        <v>7.81757449158561</v>
+        <v>7.81758972030622</v>
       </c>
     </row>
     <row r="50">
@@ -9526,16 +9526,16 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>2.40522334697655</v>
+        <v>2.40522045643658</v>
       </c>
       <c r="D50" t="n">
-        <v>2.01026190943005</v>
+        <v>2.01024563705108</v>
       </c>
       <c r="E50" t="n">
-        <v>1.01350094031229</v>
+        <v>1.01350929908517</v>
       </c>
       <c r="F50" t="n">
-        <v>3.09186055542041</v>
+        <v>3.09186680117602</v>
       </c>
     </row>
     <row r="51">
@@ -9547,13 +9547,13 @@
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>1.83531057383694</v>
+        <v>1.8352991027124</v>
       </c>
       <c r="E51" t="n">
-        <v>1.63361332739398</v>
+        <v>1.63360337809616</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64448540818925</v>
+        <v>1.64448767776689</v>
       </c>
     </row>
     <row r="52">
@@ -9564,16 +9564,16 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172731652152688</v>
+        <v>0.172726496055366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.413061752866806</v>
+        <v>0.413052886217129</v>
       </c>
       <c r="E52" t="n">
-        <v>0.617664611529884</v>
+        <v>0.617666243420624</v>
       </c>
       <c r="F52" t="n">
-        <v>0.386026468929751</v>
+        <v>0.386029190010806</v>
       </c>
     </row>
     <row r="53">
@@ -9596,16 +9596,16 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>2.3463147576274</v>
+        <v>2.3462996493634</v>
       </c>
       <c r="D54" t="n">
-        <v>3.53253918218265</v>
+        <v>3.53253293044436</v>
       </c>
       <c r="E54" t="n">
-        <v>5.12468321920238</v>
+        <v>5.12468515368471</v>
       </c>
       <c r="F54" t="n">
-        <v>4.66056800316272</v>
+        <v>4.66056071721619</v>
       </c>
     </row>
     <row r="55">
@@ -9616,16 +9616,16 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>1.55084396827564</v>
+        <v>1.55084386366119</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.34038365140374</v>
+        <v>1.34038121070869</v>
       </c>
       <c r="F55" t="n">
-        <v>1.41195876393226</v>
+        <v>1.4119564310587</v>
       </c>
     </row>
     <row r="56">
@@ -9637,13 +9637,13 @@
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>4.2651725780269</v>
+        <v>4.26517640951186</v>
       </c>
       <c r="E56" t="n">
-        <v>3.56374637143511</v>
+        <v>3.56374641089975</v>
       </c>
       <c r="F56" t="n">
-        <v>3.58198486571347</v>
+        <v>3.58197700216842</v>
       </c>
     </row>
     <row r="57">
@@ -9655,13 +9655,13 @@
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>11.7153560473694</v>
+        <v>11.7153635372223</v>
       </c>
       <c r="E57" t="n">
-        <v>5.21052885670129</v>
+        <v>5.21053947410308</v>
       </c>
       <c r="F57" t="n">
-        <v>3.98567497596842</v>
+        <v>3.98565422382035</v>
       </c>
     </row>
     <row r="58">
@@ -9672,16 +9672,16 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>1.86077970536721</v>
+        <v>1.86078736426138</v>
       </c>
       <c r="D58" t="n">
-        <v>1.6188857387339</v>
+        <v>1.61889269358652</v>
       </c>
       <c r="E58" t="n">
-        <v>4.12359181924968</v>
+        <v>4.12359041272843</v>
       </c>
       <c r="F58" t="n">
-        <v>4.55596795011852</v>
+        <v>4.55595187692862</v>
       </c>
     </row>
     <row r="59">
@@ -9692,16 +9692,16 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>0.186833092148533</v>
+        <v>0.186831864472974</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166817518563934</v>
+        <v>0.166828921748261</v>
       </c>
       <c r="E59" t="n">
-        <v>0.390882162093546</v>
+        <v>0.390883318447412</v>
       </c>
       <c r="F59" t="n">
-        <v>0.115010253949623</v>
+        <v>0.115007820416408</v>
       </c>
     </row>
     <row r="60">
@@ -9712,16 +9712,16 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>11.8102008902569</v>
+        <v>11.8102009601687</v>
       </c>
       <c r="D60" t="n">
-        <v>13.7921704685042</v>
+        <v>13.7921625923632</v>
       </c>
       <c r="E60" t="n">
-        <v>9.50467502043201</v>
+        <v>9.50469539221951</v>
       </c>
       <c r="F60" t="n">
-        <v>7.56233311191032</v>
+        <v>7.56233102753203</v>
       </c>
     </row>
     <row r="61">
@@ -9733,13 +9733,13 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>4.08909516926651</v>
+        <v>4.08909742673781</v>
       </c>
       <c r="E61" t="n">
-        <v>5.61494895461089</v>
+        <v>5.61494292259245</v>
       </c>
       <c r="F61" t="n">
-        <v>3.52007441365467</v>
+        <v>3.52006909862577</v>
       </c>
     </row>
     <row r="62">
@@ -9750,10 +9750,10 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>0.476680275189459</v>
+        <v>0.476681383817925</v>
       </c>
       <c r="D62" t="n">
-        <v>0.809123950654931</v>
+        <v>0.809137189647576</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -9766,13 +9766,13 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>3.48738117155956</v>
+        <v>3.48739661196212</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0586713720937493</v>
+        <v>0.0586620980424158</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -9786,16 +9786,16 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>14.5165362282252</v>
+        <v>14.5165521088971</v>
       </c>
       <c r="D64" t="n">
-        <v>8.40593571931509</v>
+        <v>8.40593120530641</v>
       </c>
       <c r="E64" t="n">
-        <v>6.64797111534886</v>
+        <v>6.64802272702723</v>
       </c>
       <c r="F64" t="n">
-        <v>6.80515562422733</v>
+        <v>6.80516276269613</v>
       </c>
     </row>
     <row r="65">
@@ -9806,16 +9806,16 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>16.5865327684001</v>
+        <v>16.5865318891311</v>
       </c>
       <c r="D65" t="n">
-        <v>17.4865996329438</v>
+        <v>17.4865924333735</v>
       </c>
       <c r="E65" t="n">
-        <v>14.1026739515279</v>
+        <v>14.1026723884953</v>
       </c>
       <c r="F65" t="n">
-        <v>5.02134857731072</v>
+        <v>5.02134159048173</v>
       </c>
     </row>
     <row r="66">
@@ -9829,13 +9829,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>26.0666835734897</v>
+        <v>26.0666758052632</v>
       </c>
       <c r="E66" t="n">
-        <v>21.7328411744163</v>
+        <v>21.7328503008064</v>
       </c>
       <c r="F66" t="n">
-        <v>5.26587537695351</v>
+        <v>5.26588917649263</v>
       </c>
     </row>
     <row r="67">
@@ -9850,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.62982206026475</v>
+        <v>2.62982361756525</v>
       </c>
       <c r="F67" t="n">
-        <v>1.65535315085253</v>
+        <v>1.65534869074287</v>
       </c>
     </row>
     <row r="68">
@@ -9864,10 +9864,10 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.824812156234551</v>
+        <v>0.824802334058637</v>
       </c>
       <c r="D68" t="n">
-        <v>0.695820037306112</v>
+        <v>0.695825778856043</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -9881,13 +9881,13 @@
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>8.95905903914632</v>
+        <v>8.95906339977202</v>
       </c>
       <c r="E69" t="n">
-        <v>2.17162910462599</v>
+        <v>2.17163719964644</v>
       </c>
       <c r="F69" t="n">
-        <v>1.52240206933958</v>
+        <v>1.5223937996504</v>
       </c>
     </row>
     <row r="70">
@@ -9898,16 +9898,16 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>2.70772691188145</v>
+        <v>2.70774192278399</v>
       </c>
       <c r="D70" t="n">
-        <v>2.26427171111507</v>
+        <v>2.26427016108828</v>
       </c>
       <c r="E70" t="n">
-        <v>3.0006003845635</v>
+        <v>3.00058113094714</v>
       </c>
       <c r="F70" t="n">
-        <v>2.61719421263148</v>
+        <v>2.61719603551417</v>
       </c>
     </row>
     <row r="71">
@@ -9918,16 +9918,16 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>3.9386373230305</v>
+        <v>3.93863418679942</v>
       </c>
       <c r="D71" t="n">
-        <v>2.86574939431969</v>
+        <v>2.86576632716781</v>
       </c>
       <c r="E71" t="n">
-        <v>2.50433857386583</v>
+        <v>2.50435751482434</v>
       </c>
       <c r="F71" t="n">
-        <v>2.49508524438295</v>
+        <v>2.49515461464192</v>
       </c>
     </row>
     <row r="72">
@@ -9938,16 +9938,16 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>2.49593716034126</v>
+        <v>2.49593716873141</v>
       </c>
       <c r="D72" t="n">
-        <v>1.49455065301361</v>
+        <v>1.49454494628182</v>
       </c>
       <c r="E72" t="n">
-        <v>1.21980334474897</v>
+        <v>1.21981370470389</v>
       </c>
       <c r="F72" t="n">
-        <v>1.69175246038637</v>
+        <v>1.69175309565028</v>
       </c>
     </row>
     <row r="73">
@@ -9958,16 +9958,16 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>13.082586671442</v>
+        <v>13.082586060183</v>
       </c>
       <c r="D73" t="n">
-        <v>14.2057232176958</v>
+        <v>14.2057147486807</v>
       </c>
       <c r="E73" t="n">
-        <v>5.28748518909737</v>
+        <v>5.28749616941133</v>
       </c>
       <c r="F73" t="n">
-        <v>5.3930825405604</v>
+        <v>5.39304851441482</v>
       </c>
     </row>
     <row r="74">
@@ -9981,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.103168602773994</v>
+        <v>0.103178934369685</v>
       </c>
       <c r="E74" t="n">
-        <v>4.25093524769918</v>
+        <v>4.25093950289802</v>
       </c>
       <c r="F74" t="n">
-        <v>4.56698060496726</v>
+        <v>4.56696247587023</v>
       </c>
     </row>
     <row r="75">
@@ -10000,10 +10000,10 @@
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" t="n">
-        <v>10.7438874393751</v>
+        <v>10.7439049105377</v>
       </c>
       <c r="F75" t="n">
-        <v>0.824059034544692</v>
+        <v>0.824085556108811</v>
       </c>
     </row>
     <row r="76">
@@ -10014,16 +10014,16 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>2.38955012289133</v>
+        <v>2.38954594379699</v>
       </c>
       <c r="D76" t="n">
-        <v>4.04932341741257</v>
+        <v>4.04934150730013</v>
       </c>
       <c r="E76" t="n">
-        <v>3.67271558757771</v>
+        <v>3.67269825149293</v>
       </c>
       <c r="F76" t="n">
-        <v>4.33441270591811</v>
+        <v>4.33440328725693</v>
       </c>
     </row>
     <row r="77">
@@ -10034,16 +10034,16 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>0.67706314426163</v>
+        <v>0.677063336349798</v>
       </c>
       <c r="D77" t="n">
-        <v>4.2004009662949</v>
+        <v>4.20039704670622</v>
       </c>
       <c r="E77" t="n">
-        <v>2.39557158208705</v>
+        <v>2.39556716755207</v>
       </c>
       <c r="F77" t="n">
-        <v>2.41910946820475</v>
+        <v>2.4191111916177</v>
       </c>
     </row>
     <row r="78">
@@ -10054,16 +10054,16 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>0.464858636115543</v>
+        <v>0.464857525899094</v>
       </c>
       <c r="D78" t="n">
-        <v>0.390240846274222</v>
+        <v>0.390240879578713</v>
       </c>
       <c r="E78" t="n">
-        <v>0.653442349896446</v>
+        <v>0.653441090301897</v>
       </c>
       <c r="F78" t="n">
-        <v>0.240184926937827</v>
+        <v>0.240180388288656</v>
       </c>
     </row>
     <row r="79">
@@ -10074,16 +10074,16 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220836761690422</v>
+        <v>0.220837489372196</v>
       </c>
       <c r="D79" t="n">
-        <v>0.550548716372975</v>
+        <v>0.55054643283809</v>
       </c>
       <c r="E79" t="n">
-        <v>0.456563109190522</v>
+        <v>0.456557627486575</v>
       </c>
       <c r="F79" t="n">
-        <v>0.483607678363067</v>
+        <v>0.483606671980489</v>
       </c>
     </row>
     <row r="80">
@@ -10094,16 +10094,16 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>1.76309711853513</v>
+        <v>1.76310287693512</v>
       </c>
       <c r="D80" t="n">
-        <v>3.57322934854647</v>
+        <v>3.57323638726782</v>
       </c>
       <c r="E80" t="n">
-        <v>3.04367913373796</v>
+        <v>3.0436800011115</v>
       </c>
       <c r="F80" t="n">
-        <v>0.803069262415842</v>
+        <v>0.803067858884915</v>
       </c>
     </row>
     <row r="81">
@@ -10114,10 +10114,10 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>0.198918455873826</v>
+        <v>0.198923363344545</v>
       </c>
       <c r="D81" t="n">
-        <v>3.68906189495995</v>
+        <v>3.68906064060006</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
@@ -10132,10 +10132,10 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" t="n">
-        <v>3.11745908009054</v>
+        <v>3.11747149969446</v>
       </c>
       <c r="F82" t="n">
-        <v>2.95099251690501</v>
+        <v>2.95098147373831</v>
       </c>
     </row>
     <row r="83">
@@ -10147,13 +10147,13 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>3.34368490653432</v>
+        <v>3.34369366833286</v>
       </c>
       <c r="E83" t="n">
-        <v>2.44398563672202</v>
+        <v>2.44399006073546</v>
       </c>
       <c r="F83" t="n">
-        <v>2.53403402568742</v>
+        <v>2.53401569612292</v>
       </c>
     </row>
     <row r="84">
@@ -10165,13 +10165,13 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>5.08288234693821</v>
+        <v>5.08288984016921</v>
       </c>
       <c r="E84" t="n">
-        <v>4.24985449775613</v>
+        <v>4.24985952675842</v>
       </c>
       <c r="F84" t="n">
-        <v>4.35804137574956</v>
+        <v>4.3580355566655</v>
       </c>
     </row>
     <row r="85">
@@ -10182,13 +10182,13 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05223808435413</v>
+        <v>1.05223908937631</v>
       </c>
       <c r="D85" t="n">
-        <v>0.534133643308944</v>
+        <v>0.534132819159194</v>
       </c>
       <c r="E85" t="n">
-        <v>1.16909934443983</v>
+        <v>1.16909296915319</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>14.9489723336224</v>
+        <v>14.9489769840747</v>
       </c>
       <c r="D86" t="n">
-        <v>10.5528785444784</v>
+        <v>10.5528565498628</v>
       </c>
       <c r="E86" t="n">
-        <v>10.1872357878404</v>
+        <v>10.1872306770011</v>
       </c>
       <c r="F86" t="n">
-        <v>10.5147715820772</v>
+        <v>10.5147840323966</v>
       </c>
     </row>
     <row r="87">
@@ -10222,10 +10222,10 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>4.20360595991705</v>
+        <v>4.20361044732929</v>
       </c>
       <c r="D87" t="n">
-        <v>0.911704038841244</v>
+        <v>0.911704634220828</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
@@ -10240,10 +10240,10 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" t="n">
-        <v>1.24789399759202</v>
+        <v>1.24788650550937</v>
       </c>
       <c r="F88" t="n">
-        <v>0.646162626488455</v>
+        <v>0.64616196773575</v>
       </c>
     </row>
     <row r="89">
@@ -10254,16 +10254,16 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>8.87133078197975</v>
+        <v>8.87132620863997</v>
       </c>
       <c r="D89" t="n">
-        <v>8.52251643895606</v>
+        <v>8.52249120064722</v>
       </c>
       <c r="E89" t="n">
-        <v>6.75809725295386</v>
+        <v>6.75808342162104</v>
       </c>
       <c r="F89" t="n">
-        <v>7.10219449368903</v>
+        <v>7.10218418606714</v>
       </c>
     </row>
     <row r="90">
@@ -10274,16 +10274,16 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>2.5451777020004</v>
+        <v>2.54517849600635</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60564471265906</v>
+        <v>2.60563983240734</v>
       </c>
       <c r="E90" t="n">
-        <v>1.99286089080231</v>
+        <v>1.99286853376956</v>
       </c>
       <c r="F90" t="n">
-        <v>2.04574687292605</v>
+        <v>2.0457343765412</v>
       </c>
     </row>
     <row r="91">
@@ -10294,16 +10294,16 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>15.856151293308</v>
+        <v>15.8561596618237</v>
       </c>
       <c r="D91" t="n">
-        <v>6.40518840514929</v>
+        <v>6.40518594445996</v>
       </c>
       <c r="E91" t="n">
-        <v>4.89482425569655</v>
+        <v>4.89483698439467</v>
       </c>
       <c r="F91" t="n">
-        <v>4.86011968772635</v>
+        <v>4.86010314596907</v>
       </c>
     </row>
     <row r="92">
@@ -10315,13 +10315,13 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>1.1155428945356</v>
+        <v>1.11554544095819</v>
       </c>
       <c r="E92" t="n">
-        <v>1.11554401664925</v>
+        <v>1.11554544095818</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52718713480848</v>
+        <v>1.52718780532453</v>
       </c>
     </row>
     <row r="93">
@@ -10332,16 +10332,16 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5569377048187</v>
+        <v>1.55694271075762</v>
       </c>
       <c r="D93" t="n">
-        <v>1.50200127979491</v>
+        <v>1.5020111303197</v>
       </c>
       <c r="E93" t="n">
-        <v>1.32921691975866</v>
+        <v>1.32922504333827</v>
       </c>
       <c r="F93" t="n">
-        <v>1.37779367133456</v>
+        <v>1.37779521000565</v>
       </c>
     </row>
     <row r="94">
@@ -10352,16 +10352,16 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>11.9925212535506</v>
+        <v>11.9925121206656</v>
       </c>
       <c r="D94" t="n">
-        <v>9.885359516055</v>
+        <v>9.88536016272667</v>
       </c>
       <c r="E94" t="n">
-        <v>8.47471916700633</v>
+        <v>8.47471507899226</v>
       </c>
       <c r="F94" t="n">
-        <v>7.47916542006146</v>
+        <v>7.47917413328382</v>
       </c>
     </row>
     <row r="95">
@@ -10373,13 +10373,13 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>3.07582549061275</v>
+        <v>3.07583066536121</v>
       </c>
       <c r="E95" t="n">
-        <v>1.68778948747144</v>
+        <v>1.68778629828561</v>
       </c>
       <c r="F95" t="n">
-        <v>1.68790236027583</v>
+        <v>1.6879008206839</v>
       </c>
     </row>
     <row r="96">
@@ -10390,13 +10390,13 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>47.3293232767254</v>
+        <v>47.3293096991185</v>
       </c>
       <c r="D96" t="n">
-        <v>57.0428261707402</v>
+        <v>57.0428419158142</v>
       </c>
       <c r="E96" t="n">
-        <v>28.8207576436644</v>
+        <v>28.8207620111615</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -10410,16 +10410,16 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>1.56944869614629</v>
+        <v>1.56945853539325</v>
       </c>
       <c r="D97" t="n">
-        <v>4.09867371470691</v>
+        <v>4.09866638169917</v>
       </c>
       <c r="E97" t="n">
-        <v>4.58804789119833</v>
+        <v>4.58810345016884</v>
       </c>
       <c r="F97" t="n">
-        <v>4.09849508965846</v>
+        <v>4.09851715086873</v>
       </c>
     </row>
     <row r="98">
@@ -10432,10 +10432,10 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" t="n">
-        <v>3.01467847229282</v>
+        <v>3.01467918590421</v>
       </c>
       <c r="F98" t="n">
-        <v>3.03271272620638</v>
+        <v>3.03270387784063</v>
       </c>
     </row>
     <row r="99">
@@ -10447,13 +10447,13 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>6.85720389519999</v>
+        <v>6.85722228210877</v>
       </c>
       <c r="E99" t="n">
-        <v>4.13385558041441</v>
+        <v>4.13387242904085</v>
       </c>
       <c r="F99" t="n">
-        <v>3.93874255830525</v>
+        <v>3.93873968088583</v>
       </c>
     </row>
     <row r="100">
@@ -10466,10 +10466,10 @@
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" t="n">
-        <v>2.83933483945288</v>
+        <v>2.83934173511963</v>
       </c>
       <c r="F100" t="n">
-        <v>1.88340677319871</v>
+        <v>1.88340647655123</v>
       </c>
     </row>
     <row r="101">
@@ -10481,13 +10481,13 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>3.54874116009933</v>
+        <v>3.54874886514287</v>
       </c>
       <c r="E101" t="n">
-        <v>2.85614662173421</v>
+        <v>2.85615087282756</v>
       </c>
       <c r="F101" t="n">
-        <v>2.92846466859091</v>
+        <v>2.92846118254087</v>
       </c>
     </row>
     <row r="102">
@@ -10498,16 +10498,16 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>0.549973295762353</v>
+        <v>0.54998582706151</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57661457244078</v>
+        <v>1.57663936536554</v>
       </c>
       <c r="E102" t="n">
-        <v>1.53749682219453</v>
+        <v>1.53754043951716</v>
       </c>
       <c r="F102" t="n">
-        <v>1.50820398717346</v>
+        <v>1.5081988707009</v>
       </c>
     </row>
     <row r="103">
@@ -10520,7 +10520,7 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" t="n">
-        <v>1.9614698528622</v>
+        <v>1.96146772795591</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -10534,16 +10534,16 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>1.56145263970344</v>
+        <v>1.56144879075778</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12237713277336</v>
+        <v>1.12238844260587</v>
       </c>
       <c r="E104" t="n">
-        <v>0.894547592272769</v>
+        <v>0.894558796965872</v>
       </c>
       <c r="F104" t="n">
-        <v>0.912887884606074</v>
+        <v>0.912889569353876</v>
       </c>
     </row>
     <row r="105">
@@ -10554,16 +10554,16 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>0.211922019723088</v>
+        <v>0.211919336990705</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00544039563909</v>
+        <v>1.00546756087867</v>
       </c>
       <c r="E105" t="n">
-        <v>0.880881382301636</v>
+        <v>0.880912822315389</v>
       </c>
       <c r="F105" t="n">
-        <v>0.883428415611974</v>
+        <v>0.883457294271269</v>
       </c>
     </row>
     <row r="106">
@@ -10574,16 +10574,16 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>0.900645854081156</v>
+        <v>0.900648728420557</v>
       </c>
       <c r="D106" t="n">
-        <v>2.47882085376084</v>
+        <v>2.47882550180696</v>
       </c>
       <c r="E106" t="n">
-        <v>2.45409556875162</v>
+        <v>2.45409204039692</v>
       </c>
       <c r="F106" t="n">
-        <v>2.60387986961613</v>
+        <v>2.60388536376553</v>
       </c>
     </row>
     <row r="107">
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0180335565229</v>
+        <v>1.01804246967008</v>
       </c>
       <c r="E107" t="n">
-        <v>0.961868013672028</v>
+        <v>0.961866562759904</v>
       </c>
       <c r="F107" t="n">
-        <v>0.563690281015813</v>
+        <v>0.563696633746248</v>
       </c>
     </row>
     <row r="108">
@@ -10614,16 +10614,16 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.384207561987514</v>
+        <v>0.384210366407466</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1.43263096542136</v>
+        <v>1.43263134206006</v>
       </c>
       <c r="F108" t="n">
-        <v>1.47942294256859</v>
+        <v>1.47942587158481</v>
       </c>
     </row>
     <row r="109">
@@ -10635,13 +10635,13 @@
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>1.04985198660051</v>
+        <v>1.04986189199313</v>
       </c>
       <c r="E109" t="n">
-        <v>1.43964436193338</v>
+        <v>1.43965409593354</v>
       </c>
       <c r="F109" t="n">
-        <v>1.2298650712971</v>
+        <v>1.22987083797169</v>
       </c>
     </row>
     <row r="110">
@@ -10655,13 +10655,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14061549239073</v>
+        <v>1.14061579149211</v>
       </c>
       <c r="E110" t="n">
-        <v>0.640236490173997</v>
+        <v>0.64023412318404</v>
       </c>
       <c r="F110" t="n">
-        <v>0.65331040020793</v>
+        <v>0.653312049628012</v>
       </c>
     </row>
     <row r="111">
@@ -10673,13 +10673,13 @@
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>6.30264460964618</v>
+        <v>6.30265358928409</v>
       </c>
       <c r="E111" t="n">
-        <v>5.27314750477249</v>
+        <v>5.27313453339111</v>
       </c>
       <c r="F111" t="n">
-        <v>9.94357377442938</v>
+        <v>9.94357070778264</v>
       </c>
     </row>
     <row r="112">
@@ -10690,16 +10690,16 @@
         <v>227</v>
       </c>
       <c r="C112" t="n">
-        <v>6.39565369104028</v>
+        <v>6.39564890712685</v>
       </c>
       <c r="D112" t="n">
-        <v>1.70046705857949</v>
+        <v>1.70046377419339</v>
       </c>
       <c r="E112" t="n">
-        <v>5.06659337182714</v>
+        <v>5.06658668906344</v>
       </c>
       <c r="F112" t="n">
-        <v>5.00585855940434</v>
+        <v>5.00585766085961</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -721,7 +721,7 @@
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -1225,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>15.3356906174493</v>
+        <v>15.3356906174</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>15.6942959309451</v>
+        <v>15.6942959309</v>
       </c>
     </row>
     <row r="5">
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9420633866799</v>
+        <v>15.9420633867</v>
       </c>
     </row>
     <row r="6">
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>5.19216544508237</v>
+        <v>5.1921654451</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>5.35331173365339</v>
+        <v>5.3533117337</v>
       </c>
     </row>
     <row r="8">
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>10.3559255360215</v>
+        <v>10.355925536</v>
       </c>
     </row>
     <row r="9">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>10.9663195326391</v>
+        <v>10.9663195326</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.61040452441175</v>
+        <v>4.6104045244</v>
       </c>
     </row>
     <row r="11">
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>3.95984138808551</v>
+        <v>3.9598413881</v>
       </c>
     </row>
     <row r="12">
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>3.50208137038269</v>
+        <v>3.5020813704</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.45430123159216</v>
+        <v>2.4543012316</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.25843974097699</v>
+        <v>2.258439741</v>
       </c>
     </row>
     <row r="15">
@@ -1429,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3.24728514507103</v>
+        <v>3.2472851451</v>
       </c>
     </row>
     <row r="16">
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>1.7240815529515</v>
+        <v>1.724081553</v>
       </c>
     </row>
     <row r="17">
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.99717449462203</v>
+        <v>1.9971744946</v>
       </c>
     </row>
     <row r="18">
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.68827477650755</v>
+        <v>1.6882747765</v>
       </c>
     </row>
     <row r="20">
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>8.96234623280221</v>
+        <v>8.9623462328</v>
       </c>
     </row>
     <row r="21">
@@ -1529,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>1.47498781844189</v>
+        <v>1.4749878184</v>
       </c>
     </row>
     <row r="22">
@@ -1546,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>9.49776136551452</v>
+        <v>9.4977613655</v>
       </c>
     </row>
     <row r="23">
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>10.1591450105602</v>
+        <v>10.1591450106</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9183544788721</v>
+        <v>6.9183544789</v>
       </c>
     </row>
     <row r="25">
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6.96792064049583</v>
+        <v>6.9679206405</v>
       </c>
     </row>
     <row r="26">
@@ -1629,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.190947513654166</v>
+        <v>0.1909475137</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0657212086612229</v>
+        <v>0.0657212087</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>33.3179494353646</v>
+        <v>33.3179494354</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>37.3742474972893</v>
+        <v>37.3742474973</v>
       </c>
     </row>
     <row r="32">
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>19.1421522228922</v>
+        <v>19.1421522229</v>
       </c>
     </row>
     <row r="33">
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>5.46858695163859</v>
+        <v>5.4685869516</v>
       </c>
     </row>
     <row r="34">
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>8.61725246262129</v>
+        <v>8.6172524626</v>
       </c>
     </row>
     <row r="36">
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>9.17973210258124</v>
+        <v>9.1797321026</v>
       </c>
     </row>
     <row r="37">
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>9.93767441071071</v>
+        <v>9.9376744107</v>
       </c>
     </row>
     <row r="38">
@@ -1814,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.154253471154843</v>
+        <v>0.1542534712</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.31407372942124</v>
+        <v>0.3140737294</v>
       </c>
     </row>
     <row r="40">
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.619616253625389</v>
+        <v>0.6196162536</v>
       </c>
     </row>
     <row r="41">
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>0.64842405649543</v>
+        <v>0.6484240565</v>
       </c>
     </row>
     <row r="42">
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.72158351822392</v>
+        <v>2.7215835182</v>
       </c>
     </row>
     <row r="43">
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.23890439269459</v>
+        <v>2.2389043927</v>
       </c>
     </row>
     <row r="44">
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.39576852532036</v>
+        <v>1.3957685253</v>
       </c>
     </row>
     <row r="45">
@@ -1933,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>1.45751554318889</v>
+        <v>1.4575155432</v>
       </c>
     </row>
     <row r="46">
@@ -1950,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1.13323988387596</v>
+        <v>1.1332398839</v>
       </c>
     </row>
     <row r="47">
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>4.73177436779216</v>
+        <v>4.7317743678</v>
       </c>
     </row>
     <row r="48">
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.96332203306619</v>
+        <v>2.9633220331</v>
       </c>
     </row>
     <row r="49">
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2.6404637216087</v>
+        <v>2.6404637216</v>
       </c>
     </row>
     <row r="50">
@@ -2018,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>2.25638416374799</v>
+        <v>2.2563841637</v>
       </c>
     </row>
     <row r="51">
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>3.74342003056502</v>
+        <v>3.7434200306</v>
       </c>
     </row>
     <row r="52">
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>3.43278069927274</v>
+        <v>3.4327806993</v>
       </c>
     </row>
     <row r="53">
@@ -2069,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.43278069927275</v>
+        <v>3.4327806993</v>
       </c>
     </row>
     <row r="54">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>2.26465771105775</v>
+        <v>2.2646577111</v>
       </c>
     </row>
     <row r="55">
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2125001825611</v>
+        <v>1.2125001826</v>
       </c>
     </row>
     <row r="56">
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>1.26129341743807</v>
+        <v>1.2612934174</v>
       </c>
     </row>
     <row r="57">
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>1.31305123609011</v>
+        <v>1.3130512361</v>
       </c>
     </row>
     <row r="58">
@@ -2169,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>2.64809612387271</v>
+        <v>2.6480961239</v>
       </c>
     </row>
     <row r="60">
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>2.2947686552715</v>
+        <v>2.2947686553</v>
       </c>
     </row>
     <row r="61">
@@ -2203,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>2.30000067264594</v>
+        <v>2.3000006726</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>3.19326470055972</v>
+        <v>3.1932647006</v>
       </c>
     </row>
     <row r="63">
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>1.46978618107776</v>
+        <v>1.4697861811</v>
       </c>
     </row>
     <row r="64">
@@ -2254,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>2.488371830882</v>
+        <v>2.4883718309</v>
       </c>
     </row>
     <row r="65">
@@ -2271,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>2.8690077444824</v>
+        <v>2.8690077445</v>
       </c>
     </row>
     <row r="66">
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>2.19720484782488</v>
+        <v>2.1972048478</v>
       </c>
     </row>
     <row r="67">
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>5.52339047377792</v>
+        <v>5.5233904738</v>
       </c>
     </row>
     <row r="68">
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>5.8591887381911</v>
+        <v>5.8591887382</v>
       </c>
     </row>
     <row r="69">
@@ -2339,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>5.57666278159159</v>
+        <v>5.5766627816</v>
       </c>
     </row>
     <row r="70">
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>1.922930824986</v>
+        <v>1.922930825</v>
       </c>
     </row>
     <row r="71">
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05419976992293</v>
+        <v>4.0541997699</v>
       </c>
     </row>
     <row r="72">
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>3.26659107170728</v>
+        <v>3.2665910717</v>
       </c>
     </row>
     <row r="73">
@@ -2407,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>3.27979297032674</v>
+        <v>3.2797929703</v>
       </c>
     </row>
     <row r="74">
@@ -2439,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0488750134934941</v>
+        <v>0.0488750135</v>
       </c>
     </row>
     <row r="76">
@@ -2486,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>1.38923849658479</v>
+        <v>1.3892384966</v>
       </c>
     </row>
     <row r="79">
@@ -2503,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>1.38013493776449</v>
+        <v>1.3801349378</v>
       </c>
     </row>
     <row r="80">
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>1.60234443540041</v>
+        <v>1.6023444354</v>
       </c>
     </row>
     <row r="81">
@@ -2537,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>1.99803456739524</v>
+        <v>1.9980345674</v>
       </c>
     </row>
     <row r="82">
@@ -2569,7 +2569,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>11.1769117625527</v>
+        <v>11.1769117626</v>
       </c>
     </row>
     <row r="84">
@@ -2586,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>3.33102249438043</v>
+        <v>3.3310224944</v>
       </c>
     </row>
     <row r="85">
@@ -2603,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>2.69089023943175</v>
+        <v>2.6908902394</v>
       </c>
     </row>
     <row r="86">
@@ -2637,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>1.35960270455969</v>
+        <v>1.3596027046</v>
       </c>
     </row>
     <row r="88">
@@ -2654,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>1.77026499125126</v>
+        <v>1.7702649913</v>
       </c>
     </row>
     <row r="89">
@@ -2671,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>0.363249228856335</v>
+        <v>0.3632492289</v>
       </c>
     </row>
     <row r="90">
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>0.456083376058024</v>
+        <v>0.4560833761</v>
       </c>
     </row>
     <row r="91">
@@ -2705,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.83303763708488</v>
+        <v>4.8330376371</v>
       </c>
     </row>
     <row r="92">
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>3.43002527439029</v>
+        <v>3.4300252744</v>
       </c>
     </row>
     <row r="93">
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>0.202187043768461</v>
+        <v>0.2021870438</v>
       </c>
     </row>
     <row r="94">
@@ -2756,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>3.22426802168545</v>
+        <v>3.2242680217</v>
       </c>
     </row>
     <row r="95">
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>2.63817201712728</v>
+        <v>2.6381720171</v>
       </c>
     </row>
     <row r="96">
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>2.10620720408295</v>
+        <v>2.1062072041</v>
       </c>
     </row>
     <row r="97">
@@ -2807,7 +2807,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>2.11546851154299</v>
+        <v>2.1154685115</v>
       </c>
     </row>
     <row r="98">
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>1.50341910813844</v>
+        <v>1.5034191081</v>
       </c>
     </row>
     <row r="99">
@@ -2841,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>0.721301765630651</v>
+        <v>0.7213017656</v>
       </c>
     </row>
     <row r="100">
@@ -2858,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>0.153528671584097</v>
+        <v>0.1535286716</v>
       </c>
     </row>
     <row r="101">
@@ -2875,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>0.159278647278304</v>
+        <v>0.1592786473</v>
       </c>
     </row>
     <row r="102">
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>5.77482588917892</v>
+        <v>5.7748258892</v>
       </c>
     </row>
     <row r="103">
@@ -2909,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>5.87094463762768</v>
+        <v>5.8709446376</v>
       </c>
     </row>
     <row r="104">
@@ -2926,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>6.49996681179461</v>
+        <v>6.4999668118</v>
       </c>
     </row>
     <row r="105">
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>9.29688878144571</v>
+        <v>9.2968887814</v>
       </c>
     </row>
     <row r="106">
@@ -2992,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>1.05758352469268</v>
+        <v>1.0575835247</v>
       </c>
     </row>
     <row r="109">
@@ -3009,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>1.05758352469268</v>
+        <v>1.0575835247</v>
       </c>
     </row>
     <row r="110">
@@ -3026,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166913074875336</v>
+        <v>0.1669130749</v>
       </c>
     </row>
     <row r="111">
@@ -3043,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>4.12248969710546</v>
+        <v>4.1224896971</v>
       </c>
     </row>
     <row r="112">
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3.9534331796198</v>
+        <v>3.9534331796</v>
       </c>
     </row>
     <row r="113">
@@ -3077,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>4.08534499387167</v>
+        <v>4.0853449939</v>
       </c>
     </row>
     <row r="114">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>2.13929173735345</v>
+        <v>2.1392917374</v>
       </c>
     </row>
     <row r="117">
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>2.14209940324869</v>
+        <v>2.1420994032</v>
       </c>
     </row>
     <row r="118">
@@ -3173,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>20.1847094446841</v>
+        <v>20.1847094447</v>
       </c>
     </row>
     <row r="120">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>3.07330586584493</v>
+        <v>3.0733058658</v>
       </c>
     </row>
     <row r="121">
@@ -3207,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>17.6324308368215</v>
+        <v>17.6324308368</v>
       </c>
     </row>
     <row r="122">
@@ -3224,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1.14615036490099</v>
+        <v>1.1461503649</v>
       </c>
     </row>
     <row r="123">
@@ -3241,7 +3241,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>0.578326414207442</v>
+        <v>0.5783264142</v>
       </c>
     </row>
     <row r="124">
@@ -3258,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>0.654599749467464</v>
+        <v>0.6545997495</v>
       </c>
     </row>
     <row r="125">
@@ -3275,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>4.18096721283514</v>
+        <v>4.1809672128</v>
       </c>
     </row>
     <row r="126">
@@ -3292,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>4.17388701626664</v>
+        <v>4.1738870163</v>
       </c>
     </row>
     <row r="127">
@@ -3309,7 +3309,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>4.58401631336874</v>
+        <v>4.5840163134</v>
       </c>
     </row>
     <row r="128">
@@ -3326,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>4.17930435468186</v>
+        <v>4.1793043547</v>
       </c>
     </row>
     <row r="129">
@@ -3358,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>2.66614531061906</v>
+        <v>2.6661453106</v>
       </c>
     </row>
     <row r="131">
@@ -3375,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>2.11562638300831</v>
+        <v>2.115626383</v>
       </c>
     </row>
     <row r="132">
@@ -3392,7 +3392,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>2.14111305126284</v>
+        <v>2.1411130513</v>
       </c>
     </row>
     <row r="133">
@@ -3409,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>7.33302853532034</v>
+        <v>7.3330285353</v>
       </c>
     </row>
     <row r="134">
@@ -3426,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>2.38296887652746</v>
+        <v>2.3829688765</v>
       </c>
     </row>
     <row r="135">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>0.646537278346251</v>
+        <v>0.6465372783</v>
       </c>
     </row>
     <row r="136">
@@ -3460,7 +3460,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>0.24865714483881</v>
+        <v>0.2486571448</v>
       </c>
     </row>
     <row r="137">
@@ -3511,7 +3511,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>12.0419358471416</v>
+        <v>12.0419358471</v>
       </c>
     </row>
     <row r="140">
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>1.57706388307033</v>
+        <v>1.5770638831</v>
       </c>
     </row>
     <row r="141">
@@ -3560,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>5.94840147106993</v>
+        <v>5.9484014711</v>
       </c>
     </row>
     <row r="143">
@@ -3577,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>7.02264726192444</v>
+        <v>7.0226472619</v>
       </c>
     </row>
     <row r="144">
@@ -3594,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>6.68952016485973</v>
+        <v>6.6895201649</v>
       </c>
     </row>
     <row r="145">
@@ -3611,7 +3611,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>0.943271022849446</v>
+        <v>0.9432710228</v>
       </c>
     </row>
     <row r="146">
@@ -3628,7 +3628,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>2.6144303857919</v>
+        <v>2.6144303858</v>
       </c>
     </row>
     <row r="147">
@@ -3645,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>2.52332561922478</v>
+        <v>2.5233256192</v>
       </c>
     </row>
     <row r="148">
@@ -3662,7 +3662,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>1.35927828921079</v>
+        <v>1.3592782892</v>
       </c>
     </row>
     <row r="149">
@@ -3679,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>2.97976139733796</v>
+        <v>2.9797613973</v>
       </c>
     </row>
     <row r="150">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>3.29831276357972</v>
+        <v>3.2983127636</v>
       </c>
     </row>
     <row r="151">
@@ -3713,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>3.07768019374141</v>
+        <v>3.0776801937</v>
       </c>
     </row>
     <row r="152">
@@ -3730,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>1.60083096741314</v>
+        <v>1.6008309674</v>
       </c>
     </row>
     <row r="153">
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>2.98052752522209</v>
+        <v>2.9805275252</v>
       </c>
     </row>
     <row r="155">
@@ -3779,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>3.21684996328964</v>
+        <v>3.2168499633</v>
       </c>
     </row>
     <row r="156">
@@ -3796,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>3.38215169917029</v>
+        <v>3.3821516992</v>
       </c>
     </row>
     <row r="157">
@@ -3828,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>43.8331829453177</v>
+        <v>43.8331829453</v>
       </c>
     </row>
     <row r="159">
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>30.2804212557598</v>
+        <v>30.2804212558</v>
       </c>
     </row>
     <row r="160">
@@ -3862,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>38.1588848577468</v>
+        <v>38.1588848577</v>
       </c>
     </row>
     <row r="161">
@@ -3879,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>2.10645024483824</v>
+        <v>2.1064502448</v>
       </c>
     </row>
     <row r="162">
@@ -3896,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>6.92063768232793</v>
+        <v>6.9206376823</v>
       </c>
     </row>
     <row r="163">
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>3.83656569836818</v>
+        <v>3.8365656984</v>
       </c>
     </row>
     <row r="164">
@@ -3930,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>4.25390522577354</v>
+        <v>4.2539052258</v>
       </c>
     </row>
     <row r="165">
@@ -3947,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>6.38830861719034</v>
+        <v>6.3883086172</v>
       </c>
     </row>
     <row r="166">
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>3.78366179966857</v>
+        <v>3.7836617997</v>
       </c>
     </row>
     <row r="167">
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>2.84596980099268</v>
+        <v>2.845969801</v>
       </c>
     </row>
     <row r="168">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>3.10369724407425</v>
+        <v>3.1036972441</v>
       </c>
     </row>
     <row r="169">
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>3.59924154818217</v>
+        <v>3.5992415482</v>
       </c>
     </row>
     <row r="171">
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>3.42462639004872</v>
+        <v>3.42462639</v>
       </c>
     </row>
     <row r="172">
@@ -4066,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0308291132387858</v>
+        <v>0.0308291132</v>
       </c>
     </row>
     <row r="173">
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>10.1193328097413</v>
+        <v>10.1193328097</v>
       </c>
     </row>
     <row r="174">
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>8.22994004941695</v>
+        <v>8.2299400494</v>
       </c>
     </row>
     <row r="175">
@@ -4117,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>2.62046974570417</v>
+        <v>2.6204697457</v>
       </c>
     </row>
     <row r="176">
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>8.35610735566221</v>
+        <v>8.3561073557</v>
       </c>
     </row>
     <row r="177">
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>7.67424433786038</v>
+        <v>7.6742443379</v>
       </c>
     </row>
     <row r="178">
@@ -4168,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>3.22370282698648</v>
+        <v>3.223702827</v>
       </c>
     </row>
     <row r="179">
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>3.33643798281438</v>
+        <v>3.3364379828</v>
       </c>
     </row>
     <row r="180">
@@ -4217,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>3.41793496629762</v>
+        <v>3.4179349663</v>
       </c>
     </row>
     <row r="182">
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>1.86405374890517</v>
+        <v>1.8640537489</v>
       </c>
     </row>
     <row r="183">
@@ -4251,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>1.40862600783234</v>
+        <v>1.4086260078</v>
       </c>
     </row>
     <row r="184">
@@ -4268,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>9.39366432930934</v>
+        <v>9.3936643293</v>
       </c>
     </row>
     <row r="185">
@@ -4285,7 +4285,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>3.71131029169717</v>
+        <v>3.7113102917</v>
       </c>
     </row>
     <row r="186">
@@ -4302,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>2.74412688518416</v>
+        <v>2.7441268852</v>
       </c>
     </row>
     <row r="187">
@@ -4319,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>1.46567814339775</v>
+        <v>1.4656781434</v>
       </c>
     </row>
     <row r="188">
@@ -4351,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>9.82654205211828</v>
+        <v>9.8265420521</v>
       </c>
     </row>
     <row r="190">
@@ -4368,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>7.13837466833952</v>
+        <v>7.1383746683</v>
       </c>
     </row>
     <row r="191">
@@ -4385,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>7.81758972030622</v>
+        <v>7.8175897203</v>
       </c>
     </row>
     <row r="192">
@@ -4402,7 +4402,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>2.40522045643658</v>
+        <v>2.4052204564</v>
       </c>
     </row>
     <row r="193">
@@ -4419,7 +4419,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>2.01024563705108</v>
+        <v>2.0102456371</v>
       </c>
     </row>
     <row r="194">
@@ -4436,7 +4436,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>1.01350929908517</v>
+        <v>1.0135092991</v>
       </c>
     </row>
     <row r="195">
@@ -4453,7 +4453,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>3.09186680117602</v>
+        <v>3.0918668012</v>
       </c>
     </row>
     <row r="196">
@@ -4485,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>1.8352991027124</v>
+        <v>1.8352991027</v>
       </c>
     </row>
     <row r="198">
@@ -4502,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>1.63360337809616</v>
+        <v>1.6336033781</v>
       </c>
     </row>
     <row r="199">
@@ -4519,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>1.64448767776689</v>
+        <v>1.6444876778</v>
       </c>
     </row>
     <row r="200">
@@ -4536,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>0.172726496055366</v>
+        <v>0.1727264961</v>
       </c>
     </row>
     <row r="201">
@@ -4553,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>0.413052886217129</v>
+        <v>0.4130528862</v>
       </c>
     </row>
     <row r="202">
@@ -4570,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.617666243420624</v>
+        <v>0.6176662434</v>
       </c>
     </row>
     <row r="203">
@@ -4587,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>0.386029190010806</v>
+        <v>0.38602919</v>
       </c>
     </row>
     <row r="204">
@@ -4664,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>2.3462996493634</v>
+        <v>2.3462996494</v>
       </c>
     </row>
     <row r="209">
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>3.53253293044436</v>
+        <v>3.5325329304</v>
       </c>
     </row>
     <row r="210">
@@ -4698,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>5.12468515368471</v>
+        <v>5.1246851537</v>
       </c>
     </row>
     <row r="211">
@@ -4715,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>4.66056071721619</v>
+        <v>4.6605607172</v>
       </c>
     </row>
     <row r="212">
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>1.55084386366119</v>
+        <v>1.5508438637</v>
       </c>
     </row>
     <row r="213">
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>1.34038121070869</v>
+        <v>1.3403812107</v>
       </c>
     </row>
     <row r="215">
@@ -4783,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>1.4119564310587</v>
+        <v>1.4119564311</v>
       </c>
     </row>
     <row r="216">
@@ -4815,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>4.26517640951186</v>
+        <v>4.2651764095</v>
       </c>
     </row>
     <row r="218">
@@ -4832,7 +4832,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>3.56374641089975</v>
+        <v>3.5637464109</v>
       </c>
     </row>
     <row r="219">
@@ -4849,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>3.58197700216842</v>
+        <v>3.5819770022</v>
       </c>
     </row>
     <row r="220">
@@ -4881,7 +4881,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>11.7153635372223</v>
+        <v>11.7153635372</v>
       </c>
     </row>
     <row r="222">
@@ -4898,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>5.21053947410308</v>
+        <v>5.2105394741</v>
       </c>
     </row>
     <row r="223">
@@ -4915,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>3.98565422382035</v>
+        <v>3.9856542238</v>
       </c>
     </row>
     <row r="224">
@@ -4932,7 +4932,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>1.86078736426138</v>
+        <v>1.8607873643</v>
       </c>
     </row>
     <row r="225">
@@ -4949,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>1.61889269358652</v>
+        <v>1.6188926936</v>
       </c>
     </row>
     <row r="226">
@@ -4966,7 +4966,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>4.12359041272843</v>
+        <v>4.1235904127</v>
       </c>
     </row>
     <row r="227">
@@ -4983,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>4.55595187692862</v>
+        <v>4.5559518769</v>
       </c>
     </row>
     <row r="228">
@@ -5000,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>0.186831864472974</v>
+        <v>0.1868318645</v>
       </c>
     </row>
     <row r="229">
@@ -5017,7 +5017,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>0.166828921748261</v>
+        <v>0.1668289217</v>
       </c>
     </row>
     <row r="230">
@@ -5034,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>0.390883318447412</v>
+        <v>0.3908833184</v>
       </c>
     </row>
     <row r="231">
@@ -5051,7 +5051,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>0.115007820416408</v>
+        <v>0.1150078204</v>
       </c>
     </row>
     <row r="232">
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>11.8102009601687</v>
+        <v>11.8102009602</v>
       </c>
     </row>
     <row r="233">
@@ -5085,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>13.7921625923632</v>
+        <v>13.7921625924</v>
       </c>
     </row>
     <row r="234">
@@ -5102,7 +5102,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>9.50469539221951</v>
+        <v>9.5046953922</v>
       </c>
     </row>
     <row r="235">
@@ -5119,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>7.56233102753203</v>
+        <v>7.5623310275</v>
       </c>
     </row>
     <row r="236">
@@ -5151,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>4.08909742673781</v>
+        <v>4.0890974267</v>
       </c>
     </row>
     <row r="238">
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>5.61494292259245</v>
+        <v>5.6149429226</v>
       </c>
     </row>
     <row r="239">
@@ -5185,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>3.52006909862577</v>
+        <v>3.5200690986</v>
       </c>
     </row>
     <row r="240">
@@ -5202,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>0.476681383817925</v>
+        <v>0.4766813838</v>
       </c>
     </row>
     <row r="241">
@@ -5219,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>0.809137189647576</v>
+        <v>0.8091371896</v>
       </c>
     </row>
     <row r="242">
@@ -5266,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>3.48739661196212</v>
+        <v>3.487396612</v>
       </c>
     </row>
     <row r="245">
@@ -5300,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0586620980424158</v>
+        <v>0.058662098</v>
       </c>
     </row>
     <row r="247">
@@ -5334,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>14.5165521088971</v>
+        <v>14.5165521089</v>
       </c>
     </row>
     <row r="249">
@@ -5351,7 +5351,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>8.40593120530641</v>
+        <v>8.4059312053</v>
       </c>
     </row>
     <row r="250">
@@ -5368,7 +5368,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>6.64802272702723</v>
+        <v>6.648022727</v>
       </c>
     </row>
     <row r="251">
@@ -5385,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>6.80516276269613</v>
+        <v>6.8051627627</v>
       </c>
     </row>
     <row r="252">
@@ -5402,7 +5402,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>16.5865318891311</v>
+        <v>16.5865318891</v>
       </c>
     </row>
     <row r="253">
@@ -5419,7 +5419,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>17.4865924333735</v>
+        <v>17.4865924334</v>
       </c>
     </row>
     <row r="254">
@@ -5436,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>14.1026723884953</v>
+        <v>14.1026723885</v>
       </c>
     </row>
     <row r="255">
@@ -5453,7 +5453,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>5.02134159048173</v>
+        <v>5.0213415905</v>
       </c>
     </row>
     <row r="256">
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>26.0666758052632</v>
+        <v>26.0666758053</v>
       </c>
     </row>
     <row r="258">
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>21.7328503008064</v>
+        <v>21.7328503008</v>
       </c>
     </row>
     <row r="259">
@@ -5521,7 +5521,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>5.26588917649263</v>
+        <v>5.2658891765</v>
       </c>
     </row>
     <row r="260">
@@ -5570,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>2.62982361756525</v>
+        <v>2.6298236176</v>
       </c>
     </row>
     <row r="263">
@@ -5587,7 +5587,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>1.65534869074287</v>
+        <v>1.6553486907</v>
       </c>
     </row>
     <row r="264">
@@ -5604,7 +5604,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>0.824802334058637</v>
+        <v>0.8248023341</v>
       </c>
     </row>
     <row r="265">
@@ -5621,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>0.695825778856043</v>
+        <v>0.6958257789</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>8.95906339977202</v>
+        <v>8.9590633998</v>
       </c>
     </row>
     <row r="270">
@@ -5700,7 +5700,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>2.17163719964644</v>
+        <v>2.1716371996</v>
       </c>
     </row>
     <row r="271">
@@ -5717,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>1.5223937996504</v>
+        <v>1.5223937997</v>
       </c>
     </row>
     <row r="272">
@@ -5734,7 +5734,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>2.70774192278399</v>
+        <v>2.7077419228</v>
       </c>
     </row>
     <row r="273">
@@ -5751,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>2.26427016108828</v>
+        <v>2.2642701611</v>
       </c>
     </row>
     <row r="274">
@@ -5768,7 +5768,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>3.00058113094714</v>
+        <v>3.0005811309</v>
       </c>
     </row>
     <row r="275">
@@ -5785,7 +5785,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>2.61719603551417</v>
+        <v>2.6171960355</v>
       </c>
     </row>
     <row r="276">
@@ -5802,7 +5802,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>3.93863418679942</v>
+        <v>3.9386341868</v>
       </c>
     </row>
     <row r="277">
@@ -5819,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>2.86576632716781</v>
+        <v>2.8657663272</v>
       </c>
     </row>
     <row r="278">
@@ -5836,7 +5836,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>2.50435751482434</v>
+        <v>2.5043575148</v>
       </c>
     </row>
     <row r="279">
@@ -5853,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>2.49515461464192</v>
+        <v>2.4951546146</v>
       </c>
     </row>
     <row r="280">
@@ -5870,7 +5870,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>2.49593716873141</v>
+        <v>2.4959371687</v>
       </c>
     </row>
     <row r="281">
@@ -5887,7 +5887,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>1.49454494628182</v>
+        <v>1.4945449463</v>
       </c>
     </row>
     <row r="282">
@@ -5904,7 +5904,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>1.21981370470389</v>
+        <v>1.2198137047</v>
       </c>
     </row>
     <row r="283">
@@ -5921,7 +5921,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>1.69175309565028</v>
+        <v>1.6917530957</v>
       </c>
     </row>
     <row r="284">
@@ -5938,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>13.082586060183</v>
+        <v>13.0825860602</v>
       </c>
     </row>
     <row r="285">
@@ -5955,7 +5955,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>14.2057147486807</v>
+        <v>14.2057147487</v>
       </c>
     </row>
     <row r="286">
@@ -5972,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>5.28749616941133</v>
+        <v>5.2874961694</v>
       </c>
     </row>
     <row r="287">
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>5.39304851441482</v>
+        <v>5.3930485144</v>
       </c>
     </row>
     <row r="288">
@@ -6023,7 +6023,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>0.103178934369685</v>
+        <v>0.1031789344</v>
       </c>
     </row>
     <row r="290">
@@ -6040,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>4.25093950289802</v>
+        <v>4.2509395029</v>
       </c>
     </row>
     <row r="291">
@@ -6057,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>4.56696247587023</v>
+        <v>4.5669624759</v>
       </c>
     </row>
     <row r="292">
@@ -6104,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>10.7439049105377</v>
+        <v>10.7439049105</v>
       </c>
     </row>
     <row r="295">
@@ -6121,7 +6121,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>0.824085556108811</v>
+        <v>0.8240855561</v>
       </c>
     </row>
     <row r="296">
@@ -6138,7 +6138,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>2.38954594379699</v>
+        <v>2.3895459438</v>
       </c>
     </row>
     <row r="297">
@@ -6155,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>4.04934150730013</v>
+        <v>4.0493415073</v>
       </c>
     </row>
     <row r="298">
@@ -6172,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>3.67269825149293</v>
+        <v>3.6726982515</v>
       </c>
     </row>
     <row r="299">
@@ -6189,7 +6189,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>4.33440328725693</v>
+        <v>4.3344032873</v>
       </c>
     </row>
     <row r="300">
@@ -6206,7 +6206,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>0.677063336349798</v>
+        <v>0.6770633363</v>
       </c>
     </row>
     <row r="301">
@@ -6223,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>4.20039704670622</v>
+        <v>4.2003970467</v>
       </c>
     </row>
     <row r="302">
@@ -6240,7 +6240,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>2.39556716755207</v>
+        <v>2.3955671676</v>
       </c>
     </row>
     <row r="303">
@@ -6257,7 +6257,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>2.4191111916177</v>
+        <v>2.4191111916</v>
       </c>
     </row>
     <row r="304">
@@ -6274,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>0.464857525899094</v>
+        <v>0.4648575259</v>
       </c>
     </row>
     <row r="305">
@@ -6291,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>0.390240879578713</v>
+        <v>0.3902408796</v>
       </c>
     </row>
     <row r="306">
@@ -6308,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>0.653441090301897</v>
+        <v>0.6534410903</v>
       </c>
     </row>
     <row r="307">
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>0.240180388288656</v>
+        <v>0.2401803883</v>
       </c>
     </row>
     <row r="308">
@@ -6342,7 +6342,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>0.220837489372196</v>
+        <v>0.2208374894</v>
       </c>
     </row>
     <row r="309">
@@ -6359,7 +6359,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>0.55054643283809</v>
+        <v>0.5505464328</v>
       </c>
     </row>
     <row r="310">
@@ -6376,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>0.456557627486575</v>
+        <v>0.4565576275</v>
       </c>
     </row>
     <row r="311">
@@ -6393,7 +6393,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>0.483606671980489</v>
+        <v>0.483606672</v>
       </c>
     </row>
     <row r="312">
@@ -6410,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>1.76310287693512</v>
+        <v>1.7631028769</v>
       </c>
     </row>
     <row r="313">
@@ -6427,7 +6427,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>3.57323638726782</v>
+        <v>3.5732363873</v>
       </c>
     </row>
     <row r="314">
@@ -6444,7 +6444,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>3.0436800011115</v>
+        <v>3.0436800011</v>
       </c>
     </row>
     <row r="315">
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>0.803067858884915</v>
+        <v>0.8030678589</v>
       </c>
     </row>
     <row r="316">
@@ -6478,7 +6478,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>0.198923363344545</v>
+        <v>0.1989233633</v>
       </c>
     </row>
     <row r="317">
@@ -6495,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>3.68906064060006</v>
+        <v>3.6890606406</v>
       </c>
     </row>
     <row r="318">
@@ -6572,7 +6572,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>3.11747149969446</v>
+        <v>3.1174714997</v>
       </c>
     </row>
     <row r="323">
@@ -6589,7 +6589,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>2.95098147373831</v>
+        <v>2.9509814737</v>
       </c>
     </row>
     <row r="324">
@@ -6621,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>3.34369366833286</v>
+        <v>3.3436936683</v>
       </c>
     </row>
     <row r="326">
@@ -6638,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>2.44399006073546</v>
+        <v>2.4439900607</v>
       </c>
     </row>
     <row r="327">
@@ -6655,7 +6655,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>2.53401569612292</v>
+        <v>2.5340156961</v>
       </c>
     </row>
     <row r="328">
@@ -6687,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>5.08288984016921</v>
+        <v>5.0828898402</v>
       </c>
     </row>
     <row r="330">
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>4.24985952675842</v>
+        <v>4.2498595268</v>
       </c>
     </row>
     <row r="331">
@@ -6721,7 +6721,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>4.3580355566655</v>
+        <v>4.3580355567</v>
       </c>
     </row>
     <row r="332">
@@ -6738,7 +6738,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>1.05223908937631</v>
+        <v>1.0522390894</v>
       </c>
     </row>
     <row r="333">
@@ -6755,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>0.534132819159194</v>
+        <v>0.5341328192</v>
       </c>
     </row>
     <row r="334">
@@ -6772,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>1.16909296915319</v>
+        <v>1.1690929692</v>
       </c>
     </row>
     <row r="335">
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>14.9489769840747</v>
+        <v>14.9489769841</v>
       </c>
     </row>
     <row r="337">
@@ -6823,7 +6823,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>10.5528565498628</v>
+        <v>10.5528565499</v>
       </c>
     </row>
     <row r="338">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>10.1872306770011</v>
+        <v>10.187230677</v>
       </c>
     </row>
     <row r="339">
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>10.5147840323966</v>
+        <v>10.5147840324</v>
       </c>
     </row>
     <row r="340">
@@ -6874,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>4.20361044732929</v>
+        <v>4.2036104473</v>
       </c>
     </row>
     <row r="341">
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>0.911704634220828</v>
+        <v>0.9117046342</v>
       </c>
     </row>
     <row r="342">
@@ -6938,7 +6938,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>1.24788650550937</v>
+        <v>1.2478865055</v>
       </c>
     </row>
     <row r="345">
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>0.64616196773575</v>
+        <v>0.6461619677</v>
       </c>
     </row>
     <row r="346">
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>8.87132620863997</v>
+        <v>8.8713262086</v>
       </c>
     </row>
     <row r="347">
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>8.52249120064722</v>
+        <v>8.5224912006</v>
       </c>
     </row>
     <row r="348">
@@ -7006,7 +7006,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>6.75808342162104</v>
+        <v>6.7580834216</v>
       </c>
     </row>
     <row r="349">
@@ -7023,7 +7023,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>7.10218418606714</v>
+        <v>7.1021841861</v>
       </c>
     </row>
     <row r="350">
@@ -7040,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>2.54517849600635</v>
+        <v>2.545178496</v>
       </c>
     </row>
     <row r="351">
@@ -7057,7 +7057,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>2.60563983240734</v>
+        <v>2.6056398324</v>
       </c>
     </row>
     <row r="352">
@@ -7074,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>1.99286853376956</v>
+        <v>1.9928685338</v>
       </c>
     </row>
     <row r="353">
@@ -7091,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>2.0457343765412</v>
+        <v>2.0457343765</v>
       </c>
     </row>
     <row r="354">
@@ -7108,7 +7108,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>15.8561596618237</v>
+        <v>15.8561596618</v>
       </c>
     </row>
     <row r="355">
@@ -7125,7 +7125,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>6.40518594445996</v>
+        <v>6.4051859445</v>
       </c>
     </row>
     <row r="356">
@@ -7142,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>4.89483698439467</v>
+        <v>4.8948369844</v>
       </c>
     </row>
     <row r="357">
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>4.86010314596907</v>
+        <v>4.860103146</v>
       </c>
     </row>
     <row r="358">
@@ -7191,7 +7191,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>1.11554544095819</v>
+        <v>1.115545441</v>
       </c>
     </row>
     <row r="360">
@@ -7208,7 +7208,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>1.11554544095818</v>
+        <v>1.115545441</v>
       </c>
     </row>
     <row r="361">
@@ -7225,7 +7225,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>1.52718780532453</v>
+        <v>1.5271878053</v>
       </c>
     </row>
     <row r="362">
@@ -7242,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>1.55694271075762</v>
+        <v>1.5569427108</v>
       </c>
     </row>
     <row r="363">
@@ -7259,7 +7259,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>1.5020111303197</v>
+        <v>1.5020111303</v>
       </c>
     </row>
     <row r="364">
@@ -7276,7 +7276,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>1.32922504333827</v>
+        <v>1.3292250433</v>
       </c>
     </row>
     <row r="365">
@@ -7293,7 +7293,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>1.37779521000565</v>
+        <v>1.37779521</v>
       </c>
     </row>
     <row r="366">
@@ -7310,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>11.9925121206656</v>
+        <v>11.9925121207</v>
       </c>
     </row>
     <row r="367">
@@ -7327,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>9.88536016272667</v>
+        <v>9.8853601627</v>
       </c>
     </row>
     <row r="368">
@@ -7344,7 +7344,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>8.47471507899226</v>
+        <v>8.474715079</v>
       </c>
     </row>
     <row r="369">
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>7.47917413328382</v>
+        <v>7.4791741333</v>
       </c>
     </row>
     <row r="370">
@@ -7393,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>3.07583066536121</v>
+        <v>3.0758306654</v>
       </c>
     </row>
     <row r="372">
@@ -7410,7 +7410,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>1.68778629828561</v>
+        <v>1.6877862983</v>
       </c>
     </row>
     <row r="373">
@@ -7427,7 +7427,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>1.6879008206839</v>
+        <v>1.6879008207</v>
       </c>
     </row>
     <row r="374">
@@ -7444,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>47.3293096991185</v>
+        <v>47.3293096991</v>
       </c>
     </row>
     <row r="375">
@@ -7461,7 +7461,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>57.0428419158142</v>
+        <v>57.0428419158</v>
       </c>
     </row>
     <row r="376">
@@ -7478,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>28.8207620111615</v>
+        <v>28.8207620112</v>
       </c>
     </row>
     <row r="377">
@@ -7512,7 +7512,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>1.56945853539325</v>
+        <v>1.5694585354</v>
       </c>
     </row>
     <row r="379">
@@ -7529,7 +7529,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>4.09866638169917</v>
+        <v>4.0986663817</v>
       </c>
     </row>
     <row r="380">
@@ -7546,7 +7546,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>4.58810345016884</v>
+        <v>4.5881034502</v>
       </c>
     </row>
     <row r="381">
@@ -7563,7 +7563,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>4.09851715086873</v>
+        <v>4.0985171509</v>
       </c>
     </row>
     <row r="382">
@@ -7610,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>3.01467918590421</v>
+        <v>3.0146791859</v>
       </c>
     </row>
     <row r="385">
@@ -7627,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>3.03270387784063</v>
+        <v>3.0327038778</v>
       </c>
     </row>
     <row r="386">
@@ -7659,7 +7659,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>6.85722228210877</v>
+        <v>6.8572222821</v>
       </c>
     </row>
     <row r="388">
@@ -7676,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4.13387242904085</v>
+        <v>4.133872429</v>
       </c>
     </row>
     <row r="389">
@@ -7693,7 +7693,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>3.93873968088583</v>
+        <v>3.9387396809</v>
       </c>
     </row>
     <row r="390">
@@ -7740,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2.83934173511963</v>
+        <v>2.8393417351</v>
       </c>
     </row>
     <row r="393">
@@ -7757,7 +7757,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>1.88340647655123</v>
+        <v>1.8834064766</v>
       </c>
     </row>
     <row r="394">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>3.54874886514287</v>
+        <v>3.5487488651</v>
       </c>
     </row>
     <row r="396">
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>2.85615087282756</v>
+        <v>2.8561508728</v>
       </c>
     </row>
     <row r="397">
@@ -7823,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>2.92846118254087</v>
+        <v>2.9284611825</v>
       </c>
     </row>
     <row r="398">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>0.54998582706151</v>
+        <v>0.5499858271</v>
       </c>
     </row>
     <row r="399">
@@ -7857,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>1.57663936536554</v>
+        <v>1.5766393654</v>
       </c>
     </row>
     <row r="400">
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>1.53754043951716</v>
+        <v>1.5375404395</v>
       </c>
     </row>
     <row r="401">
@@ -7891,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>1.5081988707009</v>
+        <v>1.5081988707</v>
       </c>
     </row>
     <row r="402">
@@ -7938,7 +7938,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>1.96146772795591</v>
+        <v>1.961467728</v>
       </c>
     </row>
     <row r="405">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>1.56144879075778</v>
+        <v>1.5614487908</v>
       </c>
     </row>
     <row r="407">
@@ -7989,7 +7989,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.12238844260587</v>
+        <v>1.1223884426</v>
       </c>
     </row>
     <row r="408">
@@ -8006,7 +8006,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>0.894558796965872</v>
+        <v>0.894558797</v>
       </c>
     </row>
     <row r="409">
@@ -8023,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>0.912889569353876</v>
+        <v>0.9128895694</v>
       </c>
     </row>
     <row r="410">
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>0.211919336990705</v>
+        <v>0.211919337</v>
       </c>
     </row>
     <row r="411">
@@ -8057,7 +8057,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>1.00546756087867</v>
+        <v>1.0054675609</v>
       </c>
     </row>
     <row r="412">
@@ -8074,7 +8074,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>0.880912822315389</v>
+        <v>0.8809128223</v>
       </c>
     </row>
     <row r="413">
@@ -8091,7 +8091,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>0.883457294271269</v>
+        <v>0.8834572943</v>
       </c>
     </row>
     <row r="414">
@@ -8108,7 +8108,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>0.900648728420557</v>
+        <v>0.9006487284</v>
       </c>
     </row>
     <row r="415">
@@ -8125,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>2.47882550180696</v>
+        <v>2.4788255018</v>
       </c>
     </row>
     <row r="416">
@@ -8142,7 +8142,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>2.45409204039692</v>
+        <v>2.4540920404</v>
       </c>
     </row>
     <row r="417">
@@ -8159,7 +8159,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>2.60388536376553</v>
+        <v>2.6038853638</v>
       </c>
     </row>
     <row r="418">
@@ -8193,7 +8193,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>1.01804246967008</v>
+        <v>1.0180424697</v>
       </c>
     </row>
     <row r="420">
@@ -8210,7 +8210,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>0.961866562759904</v>
+        <v>0.9618665628</v>
       </c>
     </row>
     <row r="421">
@@ -8227,7 +8227,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>0.563696633746248</v>
+        <v>0.5636966337</v>
       </c>
     </row>
     <row r="422">
@@ -8244,7 +8244,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>0.384210366407466</v>
+        <v>0.3842103664</v>
       </c>
     </row>
     <row r="423">
@@ -8278,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>1.43263134206006</v>
+        <v>1.4326313421</v>
       </c>
     </row>
     <row r="425">
@@ -8295,7 +8295,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>1.47942587158481</v>
+        <v>1.4794258716</v>
       </c>
     </row>
     <row r="426">
@@ -8327,7 +8327,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>1.04986189199313</v>
+        <v>1.049861892</v>
       </c>
     </row>
     <row r="428">
@@ -8344,7 +8344,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>1.43965409593354</v>
+        <v>1.4396540959</v>
       </c>
     </row>
     <row r="429">
@@ -8361,7 +8361,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.22987083797169</v>
+        <v>1.229870838</v>
       </c>
     </row>
     <row r="430">
@@ -8395,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>1.14061579149211</v>
+        <v>1.1406157915</v>
       </c>
     </row>
     <row r="432">
@@ -8412,7 +8412,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>0.64023412318404</v>
+        <v>0.6402341232</v>
       </c>
     </row>
     <row r="433">
@@ -8429,7 +8429,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>0.653312049628012</v>
+        <v>0.6533120496</v>
       </c>
     </row>
     <row r="434">
@@ -8461,7 +8461,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>6.30265358928409</v>
+        <v>6.3026535893</v>
       </c>
     </row>
     <row r="436">
@@ -8478,7 +8478,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>5.27313453339111</v>
+        <v>5.2731345334</v>
       </c>
     </row>
     <row r="437">
@@ -8495,7 +8495,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>9.94357070778264</v>
+        <v>9.9435707078</v>
       </c>
     </row>
     <row r="438">
@@ -8512,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>6.39564890712685</v>
+        <v>6.3956489071</v>
       </c>
     </row>
     <row r="439">
@@ -8529,7 +8529,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>1.70046377419339</v>
+        <v>1.7004637742</v>
       </c>
     </row>
     <row r="440">
@@ -8546,7 +8546,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>5.06658668906344</v>
+        <v>5.0665866891</v>
       </c>
     </row>
     <row r="441">
@@ -8563,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5.00585766085961</v>
+        <v>5.0058576609</v>
       </c>
     </row>
   </sheetData>
@@ -8609,13 +8609,13 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>15.3356906174493</v>
+        <v>15.3356906174</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6942959309451</v>
+        <v>15.6942959309</v>
       </c>
       <c r="F2" t="n">
-        <v>15.9420633866799</v>
+        <v>15.9420633867</v>
       </c>
     </row>
     <row r="3">
@@ -8626,16 +8626,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>5.19216544508237</v>
+        <v>5.1921654451</v>
       </c>
       <c r="D3" t="n">
-        <v>5.35331173365339</v>
+        <v>5.3533117337</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3559255360215</v>
+        <v>10.355925536</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9663195326391</v>
+        <v>10.9663195326</v>
       </c>
     </row>
     <row r="4">
@@ -8646,16 +8646,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>4.61040452441175</v>
+        <v>4.6104045244</v>
       </c>
       <c r="D4" t="n">
-        <v>3.95984138808551</v>
+        <v>3.9598413881</v>
       </c>
       <c r="E4" t="n">
-        <v>3.50208137038269</v>
+        <v>3.5020813704</v>
       </c>
       <c r="F4" t="n">
-        <v>2.45430123159216</v>
+        <v>2.4543012316</v>
       </c>
     </row>
     <row r="5">
@@ -8666,16 +8666,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.25843974097699</v>
+        <v>2.258439741</v>
       </c>
       <c r="D5" t="n">
-        <v>3.24728514507103</v>
+        <v>3.2472851451</v>
       </c>
       <c r="E5" t="n">
-        <v>1.7240815529515</v>
+        <v>1.724081553</v>
       </c>
       <c r="F5" t="n">
-        <v>1.99717449462203</v>
+        <v>1.9971744946</v>
       </c>
     </row>
     <row r="6">
@@ -8687,13 +8687,13 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>1.68827477650755</v>
+        <v>1.6882747765</v>
       </c>
       <c r="E6" t="n">
-        <v>8.96234623280221</v>
+        <v>8.9623462328</v>
       </c>
       <c r="F6" t="n">
-        <v>1.47498781844189</v>
+        <v>1.4749878184</v>
       </c>
     </row>
     <row r="7">
@@ -8704,16 +8704,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>9.49776136551452</v>
+        <v>9.4977613655</v>
       </c>
       <c r="D7" t="n">
-        <v>10.1591450105602</v>
+        <v>10.1591450106</v>
       </c>
       <c r="E7" t="n">
-        <v>6.9183544788721</v>
+        <v>6.9183544789</v>
       </c>
       <c r="F7" t="n">
-        <v>6.96792064049583</v>
+        <v>6.9679206405</v>
       </c>
     </row>
     <row r="8">
@@ -8725,13 +8725,13 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>0.190947513654166</v>
+        <v>0.1909475137</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0657212086612229</v>
+        <v>0.0657212087</v>
       </c>
     </row>
     <row r="9">
@@ -8742,16 +8742,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3179494353646</v>
+        <v>33.3179494354</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3742474972893</v>
+        <v>37.3742474973</v>
       </c>
       <c r="E9" t="n">
-        <v>19.1421522228922</v>
+        <v>19.1421522229</v>
       </c>
       <c r="F9" t="n">
-        <v>5.46858695163859</v>
+        <v>5.4685869516</v>
       </c>
     </row>
     <row r="10">
@@ -8763,13 +8763,13 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>8.61725246262129</v>
+        <v>8.6172524626</v>
       </c>
       <c r="E10" t="n">
-        <v>9.17973210258124</v>
+        <v>9.1797321026</v>
       </c>
       <c r="F10" t="n">
-        <v>9.93767441071071</v>
+        <v>9.9376744107</v>
       </c>
     </row>
     <row r="11">
@@ -8780,16 +8780,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.154253471154843</v>
+        <v>0.1542534712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31407372942124</v>
+        <v>0.3140737294</v>
       </c>
       <c r="E11" t="n">
-        <v>0.619616253625389</v>
+        <v>0.6196162536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.64842405649543</v>
+        <v>0.6484240565</v>
       </c>
     </row>
     <row r="12">
@@ -8800,16 +8800,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>2.72158351822392</v>
+        <v>2.7215835182</v>
       </c>
       <c r="D12" t="n">
-        <v>2.23890439269459</v>
+        <v>2.2389043927</v>
       </c>
       <c r="E12" t="n">
-        <v>1.39576852532036</v>
+        <v>1.3957685253</v>
       </c>
       <c r="F12" t="n">
-        <v>1.45751554318889</v>
+        <v>1.4575155432</v>
       </c>
     </row>
     <row r="13">
@@ -8820,16 +8820,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.13323988387596</v>
+        <v>1.1332398839</v>
       </c>
       <c r="D13" t="n">
-        <v>4.73177436779216</v>
+        <v>4.7317743678</v>
       </c>
       <c r="E13" t="n">
-        <v>2.96332203306619</v>
+        <v>2.9633220331</v>
       </c>
       <c r="F13" t="n">
-        <v>2.6404637216087</v>
+        <v>2.6404637216</v>
       </c>
     </row>
     <row r="14">
@@ -8840,16 +8840,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.25638416374799</v>
+        <v>2.2563841637</v>
       </c>
       <c r="D14" t="n">
-        <v>3.74342003056502</v>
+        <v>3.7434200306</v>
       </c>
       <c r="E14" t="n">
-        <v>3.43278069927274</v>
+        <v>3.4327806993</v>
       </c>
       <c r="F14" t="n">
-        <v>3.43278069927275</v>
+        <v>3.4327806993</v>
       </c>
     </row>
     <row r="15">
@@ -8860,16 +8860,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2.26465771105775</v>
+        <v>2.2646577111</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2125001825611</v>
+        <v>1.2125001826</v>
       </c>
       <c r="E15" t="n">
-        <v>1.26129341743807</v>
+        <v>1.2612934174</v>
       </c>
       <c r="F15" t="n">
-        <v>1.31305123609011</v>
+        <v>1.3130512361</v>
       </c>
     </row>
     <row r="16">
@@ -8881,13 +8881,13 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>2.64809612387271</v>
+        <v>2.6480961239</v>
       </c>
       <c r="E16" t="n">
-        <v>2.2947686552715</v>
+        <v>2.2947686553</v>
       </c>
       <c r="F16" t="n">
-        <v>2.30000067264594</v>
+        <v>2.3000006726</v>
       </c>
     </row>
     <row r="17">
@@ -8898,16 +8898,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3.19326470055972</v>
+        <v>3.1932647006</v>
       </c>
       <c r="D17" t="n">
-        <v>1.46978618107776</v>
+        <v>1.4697861811</v>
       </c>
       <c r="E17" t="n">
-        <v>2.488371830882</v>
+        <v>2.4883718309</v>
       </c>
       <c r="F17" t="n">
-        <v>2.8690077444824</v>
+        <v>2.8690077445</v>
       </c>
     </row>
     <row r="18">
@@ -8918,16 +8918,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>2.19720484782488</v>
+        <v>2.1972048478</v>
       </c>
       <c r="D18" t="n">
-        <v>5.52339047377792</v>
+        <v>5.5233904738</v>
       </c>
       <c r="E18" t="n">
-        <v>5.8591887381911</v>
+        <v>5.8591887382</v>
       </c>
       <c r="F18" t="n">
-        <v>5.57666278159159</v>
+        <v>5.5766627816</v>
       </c>
     </row>
     <row r="19">
@@ -8938,16 +8938,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>1.922930824986</v>
+        <v>1.922930825</v>
       </c>
       <c r="D19" t="n">
-        <v>4.05419976992293</v>
+        <v>4.0541997699</v>
       </c>
       <c r="E19" t="n">
-        <v>3.26659107170728</v>
+        <v>3.2665910717</v>
       </c>
       <c r="F19" t="n">
-        <v>3.27979297032674</v>
+        <v>3.2797929703</v>
       </c>
     </row>
     <row r="20">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.0488750134934941</v>
+        <v>0.0488750135</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -8972,16 +8972,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>1.38923849658479</v>
+        <v>1.3892384966</v>
       </c>
       <c r="D21" t="n">
-        <v>1.38013493776449</v>
+        <v>1.3801349378</v>
       </c>
       <c r="E21" t="n">
-        <v>1.60234443540041</v>
+        <v>1.6023444354</v>
       </c>
       <c r="F21" t="n">
-        <v>1.99803456739524</v>
+        <v>1.9980345674</v>
       </c>
     </row>
     <row r="22">
@@ -8993,13 +8993,13 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>11.1769117625527</v>
+        <v>11.1769117626</v>
       </c>
       <c r="E22" t="n">
-        <v>3.33102249438043</v>
+        <v>3.3310224944</v>
       </c>
       <c r="F22" t="n">
-        <v>2.69089023943175</v>
+        <v>2.6908902394</v>
       </c>
     </row>
     <row r="23">
@@ -9013,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35960270455969</v>
+        <v>1.3596027046</v>
       </c>
       <c r="E23" t="n">
-        <v>1.77026499125126</v>
+        <v>1.7702649913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.363249228856335</v>
+        <v>0.3632492289</v>
       </c>
     </row>
     <row r="24">
@@ -9030,16 +9030,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>0.456083376058024</v>
+        <v>0.4560833761</v>
       </c>
       <c r="D24" t="n">
-        <v>4.83303763708488</v>
+        <v>4.8330376371</v>
       </c>
       <c r="E24" t="n">
-        <v>3.43002527439029</v>
+        <v>3.4300252744</v>
       </c>
       <c r="F24" t="n">
-        <v>0.202187043768461</v>
+        <v>0.2021870438</v>
       </c>
     </row>
     <row r="25">
@@ -9050,16 +9050,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>3.22426802168545</v>
+        <v>3.2242680217</v>
       </c>
       <c r="D25" t="n">
-        <v>2.63817201712728</v>
+        <v>2.6381720171</v>
       </c>
       <c r="E25" t="n">
-        <v>2.10620720408295</v>
+        <v>2.1062072041</v>
       </c>
       <c r="F25" t="n">
-        <v>2.11546851154299</v>
+        <v>2.1154685115</v>
       </c>
     </row>
     <row r="26">
@@ -9070,16 +9070,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>1.50341910813844</v>
+        <v>1.5034191081</v>
       </c>
       <c r="D26" t="n">
-        <v>0.721301765630651</v>
+        <v>0.7213017656</v>
       </c>
       <c r="E26" t="n">
-        <v>0.153528671584097</v>
+        <v>0.1535286716</v>
       </c>
       <c r="F26" t="n">
-        <v>0.159278647278304</v>
+        <v>0.1592786473</v>
       </c>
     </row>
     <row r="27">
@@ -9090,16 +9090,16 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>5.77482588917892</v>
+        <v>5.7748258892</v>
       </c>
       <c r="D27" t="n">
-        <v>5.87094463762768</v>
+        <v>5.8709446376</v>
       </c>
       <c r="E27" t="n">
-        <v>6.49996681179461</v>
+        <v>6.4999668118</v>
       </c>
       <c r="F27" t="n">
-        <v>9.29688878144571</v>
+        <v>9.2968887814</v>
       </c>
     </row>
     <row r="28">
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.05758352469268</v>
+        <v>1.0575835247</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05758352469268</v>
+        <v>1.0575835247</v>
       </c>
     </row>
     <row r="29">
@@ -9128,16 +9128,16 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166913074875336</v>
+        <v>0.1669130749</v>
       </c>
       <c r="D29" t="n">
-        <v>4.12248969710546</v>
+        <v>4.1224896971</v>
       </c>
       <c r="E29" t="n">
-        <v>3.9534331796198</v>
+        <v>3.9534331796</v>
       </c>
       <c r="F29" t="n">
-        <v>4.08534499387167</v>
+        <v>4.0853449939</v>
       </c>
     </row>
     <row r="30">
@@ -9150,10 +9150,10 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>2.13929173735345</v>
+        <v>2.1392917374</v>
       </c>
       <c r="F30" t="n">
-        <v>2.14209940324869</v>
+        <v>2.1420994032</v>
       </c>
     </row>
     <row r="31">
@@ -9166,10 +9166,10 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>20.1847094446841</v>
+        <v>20.1847094447</v>
       </c>
       <c r="F31" t="n">
-        <v>3.07330586584493</v>
+        <v>3.0733058658</v>
       </c>
     </row>
     <row r="32">
@@ -9180,16 +9180,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>17.6324308368215</v>
+        <v>17.6324308368</v>
       </c>
       <c r="D32" t="n">
-        <v>1.14615036490099</v>
+        <v>1.1461503649</v>
       </c>
       <c r="E32" t="n">
-        <v>0.578326414207442</v>
+        <v>0.5783264142</v>
       </c>
       <c r="F32" t="n">
-        <v>0.654599749467464</v>
+        <v>0.6545997495</v>
       </c>
     </row>
     <row r="33">
@@ -9200,16 +9200,16 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>4.18096721283514</v>
+        <v>4.1809672128</v>
       </c>
       <c r="D33" t="n">
-        <v>4.17388701626664</v>
+        <v>4.1738870163</v>
       </c>
       <c r="E33" t="n">
-        <v>4.58401631336874</v>
+        <v>4.5840163134</v>
       </c>
       <c r="F33" t="n">
-        <v>4.17930435468186</v>
+        <v>4.1793043547</v>
       </c>
     </row>
     <row r="34">
@@ -9221,13 +9221,13 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>2.66614531061906</v>
+        <v>2.6661453106</v>
       </c>
       <c r="E34" t="n">
-        <v>2.11562638300831</v>
+        <v>2.115626383</v>
       </c>
       <c r="F34" t="n">
-        <v>2.14111305126284</v>
+        <v>2.1411130513</v>
       </c>
     </row>
     <row r="35">
@@ -9238,16 +9238,16 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>7.33302853532034</v>
+        <v>7.3330285353</v>
       </c>
       <c r="D35" t="n">
-        <v>2.38296887652746</v>
+        <v>2.3829688765</v>
       </c>
       <c r="E35" t="n">
-        <v>0.646537278346251</v>
+        <v>0.6465372783</v>
       </c>
       <c r="F35" t="n">
-        <v>0.24865714483881</v>
+        <v>0.2486571448</v>
       </c>
     </row>
     <row r="36">
@@ -9264,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>12.0419358471416</v>
+        <v>12.0419358471</v>
       </c>
       <c r="F36" t="n">
-        <v>1.57706388307033</v>
+        <v>1.5770638831</v>
       </c>
     </row>
     <row r="37">
@@ -9279,13 +9279,13 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>5.94840147106993</v>
+        <v>5.9484014711</v>
       </c>
       <c r="E37" t="n">
-        <v>7.02264726192444</v>
+        <v>7.0226472619</v>
       </c>
       <c r="F37" t="n">
-        <v>6.68952016485973</v>
+        <v>6.6895201649</v>
       </c>
     </row>
     <row r="38">
@@ -9296,16 +9296,16 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>0.943271022849446</v>
+        <v>0.9432710228</v>
       </c>
       <c r="D38" t="n">
-        <v>2.6144303857919</v>
+        <v>2.6144303858</v>
       </c>
       <c r="E38" t="n">
-        <v>2.52332561922478</v>
+        <v>2.5233256192</v>
       </c>
       <c r="F38" t="n">
-        <v>1.35927828921079</v>
+        <v>1.3592782892</v>
       </c>
     </row>
     <row r="39">
@@ -9316,16 +9316,16 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>2.97976139733796</v>
+        <v>2.9797613973</v>
       </c>
       <c r="D39" t="n">
-        <v>3.29831276357972</v>
+        <v>3.2983127636</v>
       </c>
       <c r="E39" t="n">
-        <v>3.07768019374141</v>
+        <v>3.0776801937</v>
       </c>
       <c r="F39" t="n">
-        <v>1.60083096741314</v>
+        <v>1.6008309674</v>
       </c>
     </row>
     <row r="40">
@@ -9337,13 +9337,13 @@
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
-        <v>2.98052752522209</v>
+        <v>2.9805275252</v>
       </c>
       <c r="E40" t="n">
-        <v>3.21684996328964</v>
+        <v>3.2168499633</v>
       </c>
       <c r="F40" t="n">
-        <v>3.38215169917029</v>
+        <v>3.3821516992</v>
       </c>
     </row>
     <row r="41">
@@ -9355,13 +9355,13 @@
       </c>
       <c r="C41"/>
       <c r="D41" t="n">
-        <v>43.8331829453177</v>
+        <v>43.8331829453</v>
       </c>
       <c r="E41" t="n">
-        <v>30.2804212557598</v>
+        <v>30.2804212558</v>
       </c>
       <c r="F41" t="n">
-        <v>38.1588848577468</v>
+        <v>38.1588848577</v>
       </c>
     </row>
     <row r="42">
@@ -9372,16 +9372,16 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>2.10645024483824</v>
+        <v>2.1064502448</v>
       </c>
       <c r="D42" t="n">
-        <v>6.92063768232793</v>
+        <v>6.9206376823</v>
       </c>
       <c r="E42" t="n">
-        <v>3.83656569836818</v>
+        <v>3.8365656984</v>
       </c>
       <c r="F42" t="n">
-        <v>4.25390522577354</v>
+        <v>4.2539052258</v>
       </c>
     </row>
     <row r="43">
@@ -9392,16 +9392,16 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>6.38830861719034</v>
+        <v>6.3883086172</v>
       </c>
       <c r="D43" t="n">
-        <v>3.78366179966857</v>
+        <v>3.7836617997</v>
       </c>
       <c r="E43" t="n">
-        <v>2.84596980099268</v>
+        <v>2.845969801</v>
       </c>
       <c r="F43" t="n">
-        <v>3.10369724407425</v>
+        <v>3.1036972441</v>
       </c>
     </row>
     <row r="44">
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3.59924154818217</v>
+        <v>3.5992415482</v>
       </c>
       <c r="E44" t="n">
-        <v>3.42462639004872</v>
+        <v>3.42462639</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0308291132387858</v>
+        <v>0.0308291132</v>
       </c>
     </row>
     <row r="45">
@@ -9433,13 +9433,13 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>10.1193328097413</v>
+        <v>10.1193328097</v>
       </c>
       <c r="E45" t="n">
-        <v>8.22994004941695</v>
+        <v>8.2299400494</v>
       </c>
       <c r="F45" t="n">
-        <v>2.62046974570417</v>
+        <v>2.6204697457</v>
       </c>
     </row>
     <row r="46">
@@ -9450,16 +9450,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>8.35610735566221</v>
+        <v>8.3561073557</v>
       </c>
       <c r="D46" t="n">
-        <v>7.67424433786038</v>
+        <v>7.6742443379</v>
       </c>
       <c r="E46" t="n">
-        <v>3.22370282698648</v>
+        <v>3.223702827</v>
       </c>
       <c r="F46" t="n">
-        <v>3.33643798281438</v>
+        <v>3.3364379828</v>
       </c>
     </row>
     <row r="47">
@@ -9471,13 +9471,13 @@
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
-        <v>3.41793496629762</v>
+        <v>3.4179349663</v>
       </c>
       <c r="E47" t="n">
-        <v>1.86405374890517</v>
+        <v>1.8640537489</v>
       </c>
       <c r="F47" t="n">
-        <v>1.40862600783234</v>
+        <v>1.4086260078</v>
       </c>
     </row>
     <row r="48">
@@ -9488,16 +9488,16 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>9.39366432930934</v>
+        <v>9.3936643293</v>
       </c>
       <c r="D48" t="n">
-        <v>3.71131029169717</v>
+        <v>3.7113102917</v>
       </c>
       <c r="E48" t="n">
-        <v>2.74412688518416</v>
+        <v>2.7441268852</v>
       </c>
       <c r="F48" t="n">
-        <v>1.46567814339775</v>
+        <v>1.4656781434</v>
       </c>
     </row>
     <row r="49">
@@ -9509,13 +9509,13 @@
       </c>
       <c r="C49"/>
       <c r="D49" t="n">
-        <v>9.82654205211828</v>
+        <v>9.8265420521</v>
       </c>
       <c r="E49" t="n">
-        <v>7.13837466833952</v>
+        <v>7.1383746683</v>
       </c>
       <c r="F49" t="n">
-        <v>7.81758972030622</v>
+        <v>7.8175897203</v>
       </c>
     </row>
     <row r="50">
@@ -9526,16 +9526,16 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>2.40522045643658</v>
+        <v>2.4052204564</v>
       </c>
       <c r="D50" t="n">
-        <v>2.01024563705108</v>
+        <v>2.0102456371</v>
       </c>
       <c r="E50" t="n">
-        <v>1.01350929908517</v>
+        <v>1.0135092991</v>
       </c>
       <c r="F50" t="n">
-        <v>3.09186680117602</v>
+        <v>3.0918668012</v>
       </c>
     </row>
     <row r="51">
@@ -9547,13 +9547,13 @@
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
-        <v>1.8352991027124</v>
+        <v>1.8352991027</v>
       </c>
       <c r="E51" t="n">
-        <v>1.63360337809616</v>
+        <v>1.6336033781</v>
       </c>
       <c r="F51" t="n">
-        <v>1.64448767776689</v>
+        <v>1.6444876778</v>
       </c>
     </row>
     <row r="52">
@@ -9564,16 +9564,16 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>0.172726496055366</v>
+        <v>0.1727264961</v>
       </c>
       <c r="D52" t="n">
-        <v>0.413052886217129</v>
+        <v>0.4130528862</v>
       </c>
       <c r="E52" t="n">
-        <v>0.617666243420624</v>
+        <v>0.6176662434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.386029190010806</v>
+        <v>0.38602919</v>
       </c>
     </row>
     <row r="53">
@@ -9596,16 +9596,16 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>2.3462996493634</v>
+        <v>2.3462996494</v>
       </c>
       <c r="D54" t="n">
-        <v>3.53253293044436</v>
+        <v>3.5325329304</v>
       </c>
       <c r="E54" t="n">
-        <v>5.12468515368471</v>
+        <v>5.1246851537</v>
       </c>
       <c r="F54" t="n">
-        <v>4.66056071721619</v>
+        <v>4.6605607172</v>
       </c>
     </row>
     <row r="55">
@@ -9616,16 +9616,16 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>1.55084386366119</v>
+        <v>1.5508438637</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.34038121070869</v>
+        <v>1.3403812107</v>
       </c>
       <c r="F55" t="n">
-        <v>1.4119564310587</v>
+        <v>1.4119564311</v>
       </c>
     </row>
     <row r="56">
@@ -9637,13 +9637,13 @@
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>4.26517640951186</v>
+        <v>4.2651764095</v>
       </c>
       <c r="E56" t="n">
-        <v>3.56374641089975</v>
+        <v>3.5637464109</v>
       </c>
       <c r="F56" t="n">
-        <v>3.58197700216842</v>
+        <v>3.5819770022</v>
       </c>
     </row>
     <row r="57">
@@ -9655,13 +9655,13 @@
       </c>
       <c r="C57"/>
       <c r="D57" t="n">
-        <v>11.7153635372223</v>
+        <v>11.7153635372</v>
       </c>
       <c r="E57" t="n">
-        <v>5.21053947410308</v>
+        <v>5.2105394741</v>
       </c>
       <c r="F57" t="n">
-        <v>3.98565422382035</v>
+        <v>3.9856542238</v>
       </c>
     </row>
     <row r="58">
@@ -9672,16 +9672,16 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>1.86078736426138</v>
+        <v>1.8607873643</v>
       </c>
       <c r="D58" t="n">
-        <v>1.61889269358652</v>
+        <v>1.6188926936</v>
       </c>
       <c r="E58" t="n">
-        <v>4.12359041272843</v>
+        <v>4.1235904127</v>
       </c>
       <c r="F58" t="n">
-        <v>4.55595187692862</v>
+        <v>4.5559518769</v>
       </c>
     </row>
     <row r="59">
@@ -9692,16 +9692,16 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>0.186831864472974</v>
+        <v>0.1868318645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166828921748261</v>
+        <v>0.1668289217</v>
       </c>
       <c r="E59" t="n">
-        <v>0.390883318447412</v>
+        <v>0.3908833184</v>
       </c>
       <c r="F59" t="n">
-        <v>0.115007820416408</v>
+        <v>0.1150078204</v>
       </c>
     </row>
     <row r="60">
@@ -9712,16 +9712,16 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>11.8102009601687</v>
+        <v>11.8102009602</v>
       </c>
       <c r="D60" t="n">
-        <v>13.7921625923632</v>
+        <v>13.7921625924</v>
       </c>
       <c r="E60" t="n">
-        <v>9.50469539221951</v>
+        <v>9.5046953922</v>
       </c>
       <c r="F60" t="n">
-        <v>7.56233102753203</v>
+        <v>7.5623310275</v>
       </c>
     </row>
     <row r="61">
@@ -9733,13 +9733,13 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="n">
-        <v>4.08909742673781</v>
+        <v>4.0890974267</v>
       </c>
       <c r="E61" t="n">
-        <v>5.61494292259245</v>
+        <v>5.6149429226</v>
       </c>
       <c r="F61" t="n">
-        <v>3.52006909862577</v>
+        <v>3.5200690986</v>
       </c>
     </row>
     <row r="62">
@@ -9750,10 +9750,10 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>0.476681383817925</v>
+        <v>0.4766813838</v>
       </c>
       <c r="D62" t="n">
-        <v>0.809137189647576</v>
+        <v>0.8091371896</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -9766,13 +9766,13 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>3.48739661196212</v>
+        <v>3.487396612</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0586620980424158</v>
+        <v>0.058662098</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -9786,16 +9786,16 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>14.5165521088971</v>
+        <v>14.5165521089</v>
       </c>
       <c r="D64" t="n">
-        <v>8.40593120530641</v>
+        <v>8.4059312053</v>
       </c>
       <c r="E64" t="n">
-        <v>6.64802272702723</v>
+        <v>6.648022727</v>
       </c>
       <c r="F64" t="n">
-        <v>6.80516276269613</v>
+        <v>6.8051627627</v>
       </c>
     </row>
     <row r="65">
@@ -9806,16 +9806,16 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>16.5865318891311</v>
+        <v>16.5865318891</v>
       </c>
       <c r="D65" t="n">
-        <v>17.4865924333735</v>
+        <v>17.4865924334</v>
       </c>
       <c r="E65" t="n">
-        <v>14.1026723884953</v>
+        <v>14.1026723885</v>
       </c>
       <c r="F65" t="n">
-        <v>5.02134159048173</v>
+        <v>5.0213415905</v>
       </c>
     </row>
     <row r="66">
@@ -9829,13 +9829,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>26.0666758052632</v>
+        <v>26.0666758053</v>
       </c>
       <c r="E66" t="n">
-        <v>21.7328503008064</v>
+        <v>21.7328503008</v>
       </c>
       <c r="F66" t="n">
-        <v>5.26588917649263</v>
+        <v>5.2658891765</v>
       </c>
     </row>
     <row r="67">
@@ -9850,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2.62982361756525</v>
+        <v>2.6298236176</v>
       </c>
       <c r="F67" t="n">
-        <v>1.65534869074287</v>
+        <v>1.6553486907</v>
       </c>
     </row>
     <row r="68">
@@ -9864,10 +9864,10 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.824802334058637</v>
+        <v>0.8248023341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.695825778856043</v>
+        <v>0.6958257789</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -9881,13 +9881,13 @@
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>8.95906339977202</v>
+        <v>8.9590633998</v>
       </c>
       <c r="E69" t="n">
-        <v>2.17163719964644</v>
+        <v>2.1716371996</v>
       </c>
       <c r="F69" t="n">
-        <v>1.5223937996504</v>
+        <v>1.5223937997</v>
       </c>
     </row>
     <row r="70">
@@ -9898,16 +9898,16 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>2.70774192278399</v>
+        <v>2.7077419228</v>
       </c>
       <c r="D70" t="n">
-        <v>2.26427016108828</v>
+        <v>2.2642701611</v>
       </c>
       <c r="E70" t="n">
-        <v>3.00058113094714</v>
+        <v>3.0005811309</v>
       </c>
       <c r="F70" t="n">
-        <v>2.61719603551417</v>
+        <v>2.6171960355</v>
       </c>
     </row>
     <row r="71">
@@ -9918,16 +9918,16 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>3.93863418679942</v>
+        <v>3.9386341868</v>
       </c>
       <c r="D71" t="n">
-        <v>2.86576632716781</v>
+        <v>2.8657663272</v>
       </c>
       <c r="E71" t="n">
-        <v>2.50435751482434</v>
+        <v>2.5043575148</v>
       </c>
       <c r="F71" t="n">
-        <v>2.49515461464192</v>
+        <v>2.4951546146</v>
       </c>
     </row>
     <row r="72">
@@ -9938,16 +9938,16 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>2.49593716873141</v>
+        <v>2.4959371687</v>
       </c>
       <c r="D72" t="n">
-        <v>1.49454494628182</v>
+        <v>1.4945449463</v>
       </c>
       <c r="E72" t="n">
-        <v>1.21981370470389</v>
+        <v>1.2198137047</v>
       </c>
       <c r="F72" t="n">
-        <v>1.69175309565028</v>
+        <v>1.6917530957</v>
       </c>
     </row>
     <row r="73">
@@ -9958,16 +9958,16 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>13.082586060183</v>
+        <v>13.0825860602</v>
       </c>
       <c r="D73" t="n">
-        <v>14.2057147486807</v>
+        <v>14.2057147487</v>
       </c>
       <c r="E73" t="n">
-        <v>5.28749616941133</v>
+        <v>5.2874961694</v>
       </c>
       <c r="F73" t="n">
-        <v>5.39304851441482</v>
+        <v>5.3930485144</v>
       </c>
     </row>
     <row r="74">
@@ -9981,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.103178934369685</v>
+        <v>0.1031789344</v>
       </c>
       <c r="E74" t="n">
-        <v>4.25093950289802</v>
+        <v>4.2509395029</v>
       </c>
       <c r="F74" t="n">
-        <v>4.56696247587023</v>
+        <v>4.5669624759</v>
       </c>
     </row>
     <row r="75">
@@ -10000,10 +10000,10 @@
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" t="n">
-        <v>10.7439049105377</v>
+        <v>10.7439049105</v>
       </c>
       <c r="F75" t="n">
-        <v>0.824085556108811</v>
+        <v>0.8240855561</v>
       </c>
     </row>
     <row r="76">
@@ -10014,16 +10014,16 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>2.38954594379699</v>
+        <v>2.3895459438</v>
       </c>
       <c r="D76" t="n">
-        <v>4.04934150730013</v>
+        <v>4.0493415073</v>
       </c>
       <c r="E76" t="n">
-        <v>3.67269825149293</v>
+        <v>3.6726982515</v>
       </c>
       <c r="F76" t="n">
-        <v>4.33440328725693</v>
+        <v>4.3344032873</v>
       </c>
     </row>
     <row r="77">
@@ -10034,16 +10034,16 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>0.677063336349798</v>
+        <v>0.6770633363</v>
       </c>
       <c r="D77" t="n">
-        <v>4.20039704670622</v>
+        <v>4.2003970467</v>
       </c>
       <c r="E77" t="n">
-        <v>2.39556716755207</v>
+        <v>2.3955671676</v>
       </c>
       <c r="F77" t="n">
-        <v>2.4191111916177</v>
+        <v>2.4191111916</v>
       </c>
     </row>
     <row r="78">
@@ -10054,16 +10054,16 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>0.464857525899094</v>
+        <v>0.4648575259</v>
       </c>
       <c r="D78" t="n">
-        <v>0.390240879578713</v>
+        <v>0.3902408796</v>
       </c>
       <c r="E78" t="n">
-        <v>0.653441090301897</v>
+        <v>0.6534410903</v>
       </c>
       <c r="F78" t="n">
-        <v>0.240180388288656</v>
+        <v>0.2401803883</v>
       </c>
     </row>
     <row r="79">
@@ -10074,16 +10074,16 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220837489372196</v>
+        <v>0.2208374894</v>
       </c>
       <c r="D79" t="n">
-        <v>0.55054643283809</v>
+        <v>0.5505464328</v>
       </c>
       <c r="E79" t="n">
-        <v>0.456557627486575</v>
+        <v>0.4565576275</v>
       </c>
       <c r="F79" t="n">
-        <v>0.483606671980489</v>
+        <v>0.483606672</v>
       </c>
     </row>
     <row r="80">
@@ -10094,16 +10094,16 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>1.76310287693512</v>
+        <v>1.7631028769</v>
       </c>
       <c r="D80" t="n">
-        <v>3.57323638726782</v>
+        <v>3.5732363873</v>
       </c>
       <c r="E80" t="n">
-        <v>3.0436800011115</v>
+        <v>3.0436800011</v>
       </c>
       <c r="F80" t="n">
-        <v>0.803067858884915</v>
+        <v>0.8030678589</v>
       </c>
     </row>
     <row r="81">
@@ -10114,10 +10114,10 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>0.198923363344545</v>
+        <v>0.1989233633</v>
       </c>
       <c r="D81" t="n">
-        <v>3.68906064060006</v>
+        <v>3.6890606406</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
@@ -10132,10 +10132,10 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" t="n">
-        <v>3.11747149969446</v>
+        <v>3.1174714997</v>
       </c>
       <c r="F82" t="n">
-        <v>2.95098147373831</v>
+        <v>2.9509814737</v>
       </c>
     </row>
     <row r="83">
@@ -10147,13 +10147,13 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
-        <v>3.34369366833286</v>
+        <v>3.3436936683</v>
       </c>
       <c r="E83" t="n">
-        <v>2.44399006073546</v>
+        <v>2.4439900607</v>
       </c>
       <c r="F83" t="n">
-        <v>2.53401569612292</v>
+        <v>2.5340156961</v>
       </c>
     </row>
     <row r="84">
@@ -10165,13 +10165,13 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="n">
-        <v>5.08288984016921</v>
+        <v>5.0828898402</v>
       </c>
       <c r="E84" t="n">
-        <v>4.24985952675842</v>
+        <v>4.2498595268</v>
       </c>
       <c r="F84" t="n">
-        <v>4.3580355566655</v>
+        <v>4.3580355567</v>
       </c>
     </row>
     <row r="85">
@@ -10182,13 +10182,13 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05223908937631</v>
+        <v>1.0522390894</v>
       </c>
       <c r="D85" t="n">
-        <v>0.534132819159194</v>
+        <v>0.5341328192</v>
       </c>
       <c r="E85" t="n">
-        <v>1.16909296915319</v>
+        <v>1.1690929692</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>14.9489769840747</v>
+        <v>14.9489769841</v>
       </c>
       <c r="D86" t="n">
-        <v>10.5528565498628</v>
+        <v>10.5528565499</v>
       </c>
       <c r="E86" t="n">
-        <v>10.1872306770011</v>
+        <v>10.187230677</v>
       </c>
       <c r="F86" t="n">
-        <v>10.5147840323966</v>
+        <v>10.5147840324</v>
       </c>
     </row>
     <row r="87">
@@ -10222,10 +10222,10 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>4.20361044732929</v>
+        <v>4.2036104473</v>
       </c>
       <c r="D87" t="n">
-        <v>0.911704634220828</v>
+        <v>0.9117046342</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
@@ -10240,10 +10240,10 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" t="n">
-        <v>1.24788650550937</v>
+        <v>1.2478865055</v>
       </c>
       <c r="F88" t="n">
-        <v>0.64616196773575</v>
+        <v>0.6461619677</v>
       </c>
     </row>
     <row r="89">
@@ -10254,16 +10254,16 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>8.87132620863997</v>
+        <v>8.8713262086</v>
       </c>
       <c r="D89" t="n">
-        <v>8.52249120064722</v>
+        <v>8.5224912006</v>
       </c>
       <c r="E89" t="n">
-        <v>6.75808342162104</v>
+        <v>6.7580834216</v>
       </c>
       <c r="F89" t="n">
-        <v>7.10218418606714</v>
+        <v>7.1021841861</v>
       </c>
     </row>
     <row r="90">
@@ -10274,16 +10274,16 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>2.54517849600635</v>
+        <v>2.545178496</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60563983240734</v>
+        <v>2.6056398324</v>
       </c>
       <c r="E90" t="n">
-        <v>1.99286853376956</v>
+        <v>1.9928685338</v>
       </c>
       <c r="F90" t="n">
-        <v>2.0457343765412</v>
+        <v>2.0457343765</v>
       </c>
     </row>
     <row r="91">
@@ -10294,16 +10294,16 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>15.8561596618237</v>
+        <v>15.8561596618</v>
       </c>
       <c r="D91" t="n">
-        <v>6.40518594445996</v>
+        <v>6.4051859445</v>
       </c>
       <c r="E91" t="n">
-        <v>4.89483698439467</v>
+        <v>4.8948369844</v>
       </c>
       <c r="F91" t="n">
-        <v>4.86010314596907</v>
+        <v>4.860103146</v>
       </c>
     </row>
     <row r="92">
@@ -10315,13 +10315,13 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>1.11554544095819</v>
+        <v>1.115545441</v>
       </c>
       <c r="E92" t="n">
-        <v>1.11554544095818</v>
+        <v>1.115545441</v>
       </c>
       <c r="F92" t="n">
-        <v>1.52718780532453</v>
+        <v>1.5271878053</v>
       </c>
     </row>
     <row r="93">
@@ -10332,16 +10332,16 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>1.55694271075762</v>
+        <v>1.5569427108</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5020111303197</v>
+        <v>1.5020111303</v>
       </c>
       <c r="E93" t="n">
-        <v>1.32922504333827</v>
+        <v>1.3292250433</v>
       </c>
       <c r="F93" t="n">
-        <v>1.37779521000565</v>
+        <v>1.37779521</v>
       </c>
     </row>
     <row r="94">
@@ -10352,16 +10352,16 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>11.9925121206656</v>
+        <v>11.9925121207</v>
       </c>
       <c r="D94" t="n">
-        <v>9.88536016272667</v>
+        <v>9.8853601627</v>
       </c>
       <c r="E94" t="n">
-        <v>8.47471507899226</v>
+        <v>8.474715079</v>
       </c>
       <c r="F94" t="n">
-        <v>7.47917413328382</v>
+        <v>7.4791741333</v>
       </c>
     </row>
     <row r="95">
@@ -10373,13 +10373,13 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>3.07583066536121</v>
+        <v>3.0758306654</v>
       </c>
       <c r="E95" t="n">
-        <v>1.68778629828561</v>
+        <v>1.6877862983</v>
       </c>
       <c r="F95" t="n">
-        <v>1.6879008206839</v>
+        <v>1.6879008207</v>
       </c>
     </row>
     <row r="96">
@@ -10390,13 +10390,13 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>47.3293096991185</v>
+        <v>47.3293096991</v>
       </c>
       <c r="D96" t="n">
-        <v>57.0428419158142</v>
+        <v>57.0428419158</v>
       </c>
       <c r="E96" t="n">
-        <v>28.8207620111615</v>
+        <v>28.8207620112</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -10410,16 +10410,16 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>1.56945853539325</v>
+        <v>1.5694585354</v>
       </c>
       <c r="D97" t="n">
-        <v>4.09866638169917</v>
+        <v>4.0986663817</v>
       </c>
       <c r="E97" t="n">
-        <v>4.58810345016884</v>
+        <v>4.5881034502</v>
       </c>
       <c r="F97" t="n">
-        <v>4.09851715086873</v>
+        <v>4.0985171509</v>
       </c>
     </row>
     <row r="98">
@@ -10432,10 +10432,10 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" t="n">
-        <v>3.01467918590421</v>
+        <v>3.0146791859</v>
       </c>
       <c r="F98" t="n">
-        <v>3.03270387784063</v>
+        <v>3.0327038778</v>
       </c>
     </row>
     <row r="99">
@@ -10447,13 +10447,13 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>6.85722228210877</v>
+        <v>6.8572222821</v>
       </c>
       <c r="E99" t="n">
-        <v>4.13387242904085</v>
+        <v>4.133872429</v>
       </c>
       <c r="F99" t="n">
-        <v>3.93873968088583</v>
+        <v>3.9387396809</v>
       </c>
     </row>
     <row r="100">
@@ -10466,10 +10466,10 @@
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" t="n">
-        <v>2.83934173511963</v>
+        <v>2.8393417351</v>
       </c>
       <c r="F100" t="n">
-        <v>1.88340647655123</v>
+        <v>1.8834064766</v>
       </c>
     </row>
     <row r="101">
@@ -10481,13 +10481,13 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>3.54874886514287</v>
+        <v>3.5487488651</v>
       </c>
       <c r="E101" t="n">
-        <v>2.85615087282756</v>
+        <v>2.8561508728</v>
       </c>
       <c r="F101" t="n">
-        <v>2.92846118254087</v>
+        <v>2.9284611825</v>
       </c>
     </row>
     <row r="102">
@@ -10498,16 +10498,16 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>0.54998582706151</v>
+        <v>0.5499858271</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57663936536554</v>
+        <v>1.5766393654</v>
       </c>
       <c r="E102" t="n">
-        <v>1.53754043951716</v>
+        <v>1.5375404395</v>
       </c>
       <c r="F102" t="n">
-        <v>1.5081988707009</v>
+        <v>1.5081988707</v>
       </c>
     </row>
     <row r="103">
@@ -10520,7 +10520,7 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" t="n">
-        <v>1.96146772795591</v>
+        <v>1.961467728</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -10534,16 +10534,16 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>1.56144879075778</v>
+        <v>1.5614487908</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12238844260587</v>
+        <v>1.1223884426</v>
       </c>
       <c r="E104" t="n">
-        <v>0.894558796965872</v>
+        <v>0.894558797</v>
       </c>
       <c r="F104" t="n">
-        <v>0.912889569353876</v>
+        <v>0.9128895694</v>
       </c>
     </row>
     <row r="105">
@@ -10554,16 +10554,16 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>0.211919336990705</v>
+        <v>0.211919337</v>
       </c>
       <c r="D105" t="n">
-        <v>1.00546756087867</v>
+        <v>1.0054675609</v>
       </c>
       <c r="E105" t="n">
-        <v>0.880912822315389</v>
+        <v>0.8809128223</v>
       </c>
       <c r="F105" t="n">
-        <v>0.883457294271269</v>
+        <v>0.8834572943</v>
       </c>
     </row>
     <row r="106">
@@ -10574,16 +10574,16 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>0.900648728420557</v>
+        <v>0.9006487284</v>
       </c>
       <c r="D106" t="n">
-        <v>2.47882550180696</v>
+        <v>2.4788255018</v>
       </c>
       <c r="E106" t="n">
-        <v>2.45409204039692</v>
+        <v>2.4540920404</v>
       </c>
       <c r="F106" t="n">
-        <v>2.60388536376553</v>
+        <v>2.6038853638</v>
       </c>
     </row>
     <row r="107">
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01804246967008</v>
+        <v>1.0180424697</v>
       </c>
       <c r="E107" t="n">
-        <v>0.961866562759904</v>
+        <v>0.9618665628</v>
       </c>
       <c r="F107" t="n">
-        <v>0.563696633746248</v>
+        <v>0.5636966337</v>
       </c>
     </row>
     <row r="108">
@@ -10614,16 +10614,16 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.384210366407466</v>
+        <v>0.3842103664</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1.43263134206006</v>
+        <v>1.4326313421</v>
       </c>
       <c r="F108" t="n">
-        <v>1.47942587158481</v>
+        <v>1.4794258716</v>
       </c>
     </row>
     <row r="109">
@@ -10635,13 +10635,13 @@
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
-        <v>1.04986189199313</v>
+        <v>1.049861892</v>
       </c>
       <c r="E109" t="n">
-        <v>1.43965409593354</v>
+        <v>1.4396540959</v>
       </c>
       <c r="F109" t="n">
-        <v>1.22987083797169</v>
+        <v>1.229870838</v>
       </c>
     </row>
     <row r="110">
@@ -10655,13 +10655,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14061579149211</v>
+        <v>1.1406157915</v>
       </c>
       <c r="E110" t="n">
-        <v>0.64023412318404</v>
+        <v>0.6402341232</v>
       </c>
       <c r="F110" t="n">
-        <v>0.653312049628012</v>
+        <v>0.6533120496</v>
       </c>
     </row>
     <row r="111">
@@ -10673,13 +10673,13 @@
       </c>
       <c r="C111"/>
       <c r="D111" t="n">
-        <v>6.30265358928409</v>
+        <v>6.3026535893</v>
       </c>
       <c r="E111" t="n">
-        <v>5.27313453339111</v>
+        <v>5.2731345334</v>
       </c>
       <c r="F111" t="n">
-        <v>9.94357070778264</v>
+        <v>9.9435707078</v>
       </c>
     </row>
     <row r="112">
@@ -10690,16 +10690,16 @@
         <v>227</v>
       </c>
       <c r="C112" t="n">
-        <v>6.39564890712685</v>
+        <v>6.3956489071</v>
       </c>
       <c r="D112" t="n">
-        <v>1.70046377419339</v>
+        <v>1.7004637742</v>
       </c>
       <c r="E112" t="n">
-        <v>5.06658668906344</v>
+        <v>5.0665866891</v>
       </c>
       <c r="F112" t="n">
-        <v>5.00585766085961</v>
+        <v>5.0058576609</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -6511,7 +6511,9 @@
       <c r="D318" t="s">
         <v>7</v>
       </c>
-      <c r="E318"/>
+      <c r="E318" t="n">
+        <v>4.85625557213734</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -6526,7 +6528,9 @@
       <c r="D319" t="s">
         <v>7</v>
       </c>
-      <c r="E319"/>
+      <c r="E319" t="n">
+        <v>5.39065169090605</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -10119,8 +10123,12 @@
       <c r="D81" t="n">
         <v>3.68906064060006</v>
       </c>
-      <c r="E81"/>
-      <c r="F81"/>
+      <c r="E81" t="n">
+        <v>4.85625557213734</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.39065169090605</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -7368,15 +7368,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7384,14 +7387,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="n">
         <v>43.8331829453</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>30.2804212558</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>38.1588848577</v>
       </c>
     </row>
@@ -7399,16 +7405,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.1727264961</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.4130528862</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.6176662434</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.38602919</v>
       </c>
     </row>
@@ -7416,14 +7425,17 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="n">
         <v>8.9590633998</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2.1716371996</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.5223937997</v>
       </c>
     </row>
@@ -7431,16 +7443,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.1031789344</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4.2509395029</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4.5669624759</v>
       </c>
     </row>
@@ -7448,14 +7463,17 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
         <v>3.3436936683</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2.4439900607</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.5340156961</v>
       </c>
     </row>
@@ -7463,14 +7481,17 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
         <v>5.0828898402</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4.2498595268</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.3580355567</v>
       </c>
     </row>
@@ -7478,16 +7499,19 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0522390894</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.5341328192</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.1690929692</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7495,12 +7519,15 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9"/>
-      <c r="D9" t="n">
+      <c r="D9"/>
+      <c r="E9" t="n">
         <v>1.2478865055</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.6461619677</v>
       </c>
     </row>
@@ -7508,14 +7535,17 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
         <v>3.5487488651</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2.8561508728</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.9284611825</v>
       </c>
     </row>
@@ -7523,16 +7553,19 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.3842103664</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1.4326313421</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.4794258716</v>
       </c>
     </row>
@@ -7540,16 +7573,19 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
         <v>2.4052204564</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>2.0102456371</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.0135092991</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.0918668012</v>
       </c>
     </row>
@@ -7557,16 +7593,19 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1.1406157915</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.6402341232</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.6533120496</v>
       </c>
     </row>
@@ -7574,16 +7613,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>3.9386341868</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>2.8657663272</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>2.5043575148</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.4951546146</v>
       </c>
     </row>
@@ -7591,16 +7633,19 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.7631028769</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>3.5732363873</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>3.0436800011</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.8030678589</v>
       </c>
     </row>
@@ -7608,27 +7653,33 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>4.2036104473</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.9117046342</v>
       </c>
-      <c r="D16"/>
       <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17"/>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
         <v>2.6480961239</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>2.2947686553</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.3000006726</v>
       </c>
     </row>
@@ -7636,16 +7687,19 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
         <v>2.1972048478</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>5.5233904738</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>5.8591887382</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>5.5766627816</v>
       </c>
     </row>
@@ -7653,16 +7707,19 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.5034191081</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.7213017656</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.1535286716</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1592786473</v>
       </c>
     </row>
@@ -7670,16 +7727,19 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
         <v>5.7748258892</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5.8709446376</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>6.4999668118</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>9.2968887814</v>
       </c>
     </row>
@@ -7687,12 +7747,15 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
       <c r="C21"/>
-      <c r="D21" t="n">
+      <c r="D21"/>
+      <c r="E21" t="n">
         <v>2.1392917374</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>2.1420994032</v>
       </c>
     </row>
@@ -7700,16 +7763,19 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>6.3883086172</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>3.7836617997</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>2.845969801</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3.1036972441</v>
       </c>
     </row>
@@ -7717,16 +7783,19 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
         <v>3.487396612</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.058662098</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7734,16 +7803,19 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>2.7077419228</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>2.2642701611</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>3.0005811309</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>2.6171960355</v>
       </c>
     </row>
@@ -7751,16 +7823,19 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
         <v>2.2563841637</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>3.7434200306</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>3.4327806993</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3.4327806993</v>
       </c>
     </row>
@@ -7768,16 +7843,19 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.4560833761</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>4.8330376371</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>3.4300252744</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.2021870438</v>
       </c>
     </row>
@@ -7785,14 +7863,17 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27"/>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="n">
         <v>2.6661453106</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>2.115626383</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2.1411130513</v>
       </c>
     </row>
@@ -7800,16 +7881,19 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
         <v>12.0419358471</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.5770638831</v>
       </c>
     </row>
@@ -7817,16 +7901,19 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>3.5992415482</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>3.42462639</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.0308291132</v>
       </c>
     </row>
@@ -7834,14 +7921,17 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
         <v>3.4179349663</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.8640537489</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.4086260078</v>
       </c>
     </row>
@@ -7849,14 +7939,17 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="n">
         <v>9.8265420521</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>7.1383746683</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7.8175897203</v>
       </c>
     </row>
@@ -7864,14 +7957,17 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32"/>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="n">
         <v>4.0890974267</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>5.6149429226</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>3.5200690986</v>
       </c>
     </row>
@@ -7879,16 +7975,19 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.6770633363</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>4.2003970467</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>2.3955671676</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>2.4191111916</v>
       </c>
     </row>
@@ -7896,12 +7995,15 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
       <c r="C34"/>
-      <c r="D34" t="n">
+      <c r="D34"/>
+      <c r="E34" t="n">
         <v>2.8393417351</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1.8834064766</v>
       </c>
     </row>
@@ -7909,16 +8011,19 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>1.0180424697</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.9618665628</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.5636966337</v>
       </c>
     </row>
@@ -7926,14 +8031,17 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="n">
         <v>1.049861892</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>1.4396540959</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1.229870838</v>
       </c>
     </row>
@@ -7941,14 +8049,17 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37"/>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="n">
         <v>2.9805275252</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>3.2168499633</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>3.3821516992</v>
       </c>
     </row>
@@ -7956,16 +8067,19 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
         <v>2.3895459438</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>4.0493415073</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>3.6726982515</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>4.3344032873</v>
       </c>
     </row>
@@ -7973,16 +8087,19 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.9006487284</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>2.4788255018</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2.4540920404</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>2.6038853638</v>
       </c>
     </row>
@@ -7990,14 +8107,17 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40"/>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="n">
         <v>0.1909475137</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.0657212087</v>
       </c>
     </row>
@@ -8005,16 +8125,19 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
         <v>2.7215835182</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>2.2389043927</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1.3957685253</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1.4575155432</v>
       </c>
     </row>
@@ -8022,16 +8145,19 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
         <v>1.1332398839</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>4.7317743678</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>2.9633220331</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>2.6404637216</v>
       </c>
     </row>
@@ -8039,16 +8165,19 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
         <v>3.1932647006</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1.4697861811</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>2.4883718309</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>2.8690077445</v>
       </c>
     </row>
@@ -8056,16 +8185,19 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
         <v>1.922930825</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>4.0541997699</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>3.2665910717</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>3.2797929703</v>
       </c>
     </row>
@@ -8073,16 +8205,19 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
         <v>3.2242680217</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>2.6381720171</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>2.1062072041</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>2.1154685115</v>
       </c>
     </row>
@@ -8090,16 +8225,19 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
         <v>2.1064502448</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>6.9206376823</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>3.8365656984</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>4.2539052258</v>
       </c>
     </row>
@@ -8107,16 +8245,19 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
         <v>2.4959371687</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>1.4945449463</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>1.2198137047</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1.6917530957</v>
       </c>
     </row>
@@ -8124,16 +8265,19 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
         <v>2.545178496</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>2.6056398324</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>1.9928685338</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>2.0457343765</v>
       </c>
     </row>
@@ -8141,25 +8285,31 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49"/>
-      <c r="C49" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="n">
         <v>0.0488750135</v>
       </c>
-      <c r="D49"/>
       <c r="E49"/>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50"/>
-      <c r="C50" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1.0575835247</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1.0575835247</v>
       </c>
     </row>
@@ -8167,51 +8317,63 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.4766813838</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>0.8091371896</v>
       </c>
-      <c r="D52"/>
       <c r="E52"/>
+      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
         <v>0.8248023341</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.6958257789</v>
       </c>
-      <c r="D53"/>
       <c r="E53"/>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
         <v>8.8713262086</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>8.5224912006</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>6.7580834216</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>7.1021841861</v>
       </c>
     </row>
@@ -8219,16 +8381,19 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
         <v>1.5569427108</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>1.5020111303</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>1.3292250433</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>1.37779521</v>
       </c>
     </row>
@@ -8236,16 +8401,19 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
         <v>1.5614487908</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>1.1223884426</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.894558797</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.9128895694</v>
       </c>
     </row>
@@ -8253,16 +8421,19 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
         <v>5.1921654451</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>5.3533117337</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>10.355925536</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>10.9663195326</v>
       </c>
     </row>
@@ -8270,14 +8441,17 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58"/>
-      <c r="C58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="n">
         <v>8.6172524626</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>9.1797321026</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>9.9376744107</v>
       </c>
     </row>
@@ -8285,16 +8459,19 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
         <v>0.1542534712</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>0.3140737294</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.6196162536</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.6484240565</v>
       </c>
     </row>
@@ -8302,12 +8479,15 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
       <c r="C60"/>
-      <c r="D60" t="n">
+      <c r="D60"/>
+      <c r="E60" t="n">
         <v>20.1847094447</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>3.0733058658</v>
       </c>
     </row>
@@ -8315,14 +8495,17 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61"/>
-      <c r="C61" t="n">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="n">
         <v>11.7153635372</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>5.2105394741</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>3.9856542238</v>
       </c>
     </row>
@@ -8330,16 +8513,19 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
         <v>11.8102009602</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>13.7921625924</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>9.5046953922</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>7.5623310275</v>
       </c>
     </row>
@@ -8347,14 +8533,17 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63"/>
-      <c r="C63" t="n">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>2.6298236176</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>1.6553486907</v>
       </c>
     </row>
@@ -8362,25 +8551,31 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>0.1989233633</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>3.6890606406</v>
       </c>
-      <c r="D64"/>
       <c r="E64"/>
+      <c r="F64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
       <c r="C65"/>
-      <c r="D65" t="n">
+      <c r="D65"/>
+      <c r="E65" t="n">
         <v>3.1174714997</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>2.9509814737</v>
       </c>
     </row>
@@ -8388,14 +8583,17 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66"/>
-      <c r="C66" t="n">
-        <v>1.115545441</v>
-      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66"/>
       <c r="D66" t="n">
         <v>1.115545441</v>
       </c>
       <c r="E66" t="n">
+        <v>1.115545441</v>
+      </c>
+      <c r="F66" t="n">
         <v>1.5271878053</v>
       </c>
     </row>
@@ -8403,16 +8601,19 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>14.9489769841</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>10.5528565499</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>10.187230677</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>10.5147840324</v>
       </c>
     </row>
@@ -8420,14 +8621,17 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68"/>
-      <c r="C68" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="n">
         <v>6.8572222821</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>4.133872429</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>3.9387396809</v>
       </c>
     </row>
@@ -8435,14 +8639,17 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69"/>
-      <c r="C69" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="n">
         <v>6.3026535893</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>5.2731345334</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>9.9435707078</v>
       </c>
     </row>
@@ -8450,14 +8657,17 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70"/>
-      <c r="C70" t="n">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="n">
         <v>15.3356906174</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>15.6942959309</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>15.9420633867</v>
       </c>
     </row>
@@ -8465,14 +8675,17 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71"/>
-      <c r="C71" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="n">
         <v>1.6882747765</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>8.9623462328</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>1.4749878184</v>
       </c>
     </row>
@@ -8480,16 +8693,19 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="n">
         <v>33.3179494354</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>37.3742474973</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>19.1421522229</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>5.4685869516</v>
       </c>
     </row>
@@ -8497,16 +8713,19 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n">
         <v>0.1669130749</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>4.1224896971</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>3.9534331796</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>4.0853449939</v>
       </c>
     </row>
@@ -8514,14 +8733,17 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74"/>
-      <c r="C74" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="n">
         <v>5.9484014711</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>7.0226472619</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>6.6895201649</v>
       </c>
     </row>
@@ -8529,16 +8751,19 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
         <v>1.8607873643</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>1.6188926936</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>4.1235904127</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>4.5559518769</v>
       </c>
     </row>
@@ -8546,16 +8771,19 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>13.0825860602</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>14.2057147487</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>5.2874961694</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>5.3930485144</v>
       </c>
     </row>
@@ -8563,12 +8791,15 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
       <c r="C77"/>
-      <c r="D77" t="n">
+      <c r="D77"/>
+      <c r="E77" t="n">
         <v>3.0146791859</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>3.0327038778</v>
       </c>
     </row>
@@ -8576,16 +8807,19 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
         <v>4.6104045244</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>3.9598413881</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>3.5020813704</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>2.4543012316</v>
       </c>
     </row>
@@ -8593,16 +8827,19 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
         <v>2.258439741</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>3.2472851451</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>1.724081553</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>1.9971744946</v>
       </c>
     </row>
@@ -8610,16 +8847,19 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="n">
         <v>9.4977613655</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>10.1591450106</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>6.9183544789</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>6.9679206405</v>
       </c>
     </row>
@@ -8627,16 +8867,19 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
         <v>0.1868318645</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>0.1668289217</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0.3908833184</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.1150078204</v>
       </c>
     </row>
@@ -8644,16 +8887,19 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>26.0666758053</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>21.7328503008</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>5.2658891765</v>
       </c>
     </row>
@@ -8661,16 +8907,19 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>15.8561596618</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>6.4051859445</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>4.8948369844</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>4.860103146</v>
       </c>
     </row>
@@ -8678,16 +8927,19 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
         <v>47.3293096991</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>57.0428419158</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>28.8207620112</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8695,16 +8947,19 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.5694585354</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>4.0986663817</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>4.5881034502</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>4.0985171509</v>
       </c>
     </row>
@@ -8712,16 +8967,19 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
         <v>6.3956489071</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>1.7004637742</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>5.0665866891</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>5.0058576609</v>
       </c>
     </row>
@@ -8729,14 +8987,17 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87"/>
-      <c r="C87" t="n">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" t="n">
         <v>11.1769117626</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>3.3310224944</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>2.6908902394</v>
       </c>
     </row>
@@ -8744,16 +9005,19 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>1.3596027046</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>1.7702649913</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.3632492289</v>
       </c>
     </row>
@@ -8761,16 +9025,19 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
         <v>17.6324308368</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>1.1461503649</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>0.5783264142</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.6545997495</v>
       </c>
     </row>
@@ -8778,16 +9045,19 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
         <v>0.9432710228</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>2.6144303858</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>2.5233256192</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1.3592782892</v>
       </c>
     </row>
@@ -8795,16 +9065,19 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
         <v>2.9797613973</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>3.2983127636</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>3.0776801937</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1.6008309674</v>
       </c>
     </row>
@@ -8812,16 +9085,19 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>9.3936643293</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>3.7113102917</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>2.7441268852</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>1.4656781434</v>
       </c>
     </row>
@@ -8829,14 +9105,17 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93"/>
-      <c r="C93" t="n">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93" t="n">
         <v>1.8352991027</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>1.6336033781</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1.6444876778</v>
       </c>
     </row>
@@ -8844,14 +9123,17 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94"/>
-      <c r="C94" t="n">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" t="n">
         <v>4.2651764095</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>3.5637464109</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>3.5819770022</v>
       </c>
     </row>
@@ -8859,12 +9141,15 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
       <c r="C95"/>
-      <c r="D95" t="n">
+      <c r="D95"/>
+      <c r="E95" t="n">
         <v>10.7439049105</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.8240855561</v>
       </c>
     </row>
@@ -8872,16 +9157,19 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.4648575259</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>0.3902408796</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>0.6534410903</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.2401803883</v>
       </c>
     </row>
@@ -8889,14 +9177,17 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97"/>
-      <c r="C97" t="n">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="n">
         <v>3.0758306654</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>1.6877862983</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1.6879008207</v>
       </c>
     </row>
@@ -8904,12 +9195,15 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
       <c r="C98"/>
-      <c r="D98" t="n">
+      <c r="D98"/>
+      <c r="E98" t="n">
         <v>1.961467728</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8917,14 +9211,17 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99"/>
-      <c r="C99" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" t="n">
         <v>10.1193328097</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>8.2299400494</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>2.6204697457</v>
       </c>
     </row>
@@ -8932,16 +9229,19 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
         <v>8.3561073557</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>7.6742443379</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>3.223702827</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>3.3364379828</v>
       </c>
     </row>
@@ -8949,16 +9249,19 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
         <v>16.5865318891</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>17.4865924334</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>14.1026723885</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>5.0213415905</v>
       </c>
     </row>
@@ -8966,16 +9269,19 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>1.3892384966</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>1.3801349378</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>1.6023444354</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1.9980345674</v>
       </c>
     </row>
@@ -8983,16 +9289,19 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>4.1809672128</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>4.1738870163</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>4.5840163134</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>4.1793043547</v>
       </c>
     </row>
@@ -9000,16 +9309,19 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
         <v>7.3330285353</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>2.3829688765</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0.6465372783</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>0.2486571448</v>
       </c>
     </row>
@@ -9017,16 +9329,19 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
         <v>2.3462996494</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>3.5325329304</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>5.1246851537</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>4.6605607172</v>
       </c>
     </row>
@@ -9034,16 +9349,19 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
         <v>2.2646577111</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>1.2125001826</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>1.2612934174</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1.3130512361</v>
       </c>
     </row>
@@ -9051,16 +9369,19 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
         <v>1.5508438637</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>1.3403812107</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1.4119564311</v>
       </c>
     </row>
@@ -9068,16 +9389,19 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
         <v>14.5165521089</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>8.4059312053</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>6.648022727</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>6.8051627627</v>
       </c>
     </row>
@@ -9085,16 +9409,19 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
         <v>0.2208374894</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>0.5505464328</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.4565576275</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>0.483606672</v>
       </c>
     </row>
@@ -9102,16 +9429,19 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
         <v>11.9925121207</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>9.8853601627</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>8.474715079</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>7.4791741333</v>
       </c>
     </row>
@@ -9119,16 +9449,19 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
         <v>0.5499858271</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>1.5766393654</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>1.5375404395</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1.5081988707</v>
       </c>
     </row>
@@ -9136,16 +9469,19 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
         <v>0.211919337</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>1.0054675609</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>0.8809128223</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>0.8834572943</v>
       </c>
     </row>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -7368,18 +7368,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7387,17 +7384,14 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>43.8331829453</v>
+      </c>
       <c r="D2" t="n">
-        <v>43.8331829453</v>
+        <v>30.2804212558</v>
       </c>
       <c r="E2" t="n">
-        <v>30.2804212558</v>
-      </c>
-      <c r="F2" t="n">
         <v>38.1588848577</v>
       </c>
     </row>
@@ -7405,19 +7399,16 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="n">
+        <v>0.1727264961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1727264961</v>
+        <v>0.4130528862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4130528862</v>
+        <v>0.6176662434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6176662434</v>
-      </c>
-      <c r="F3" t="n">
         <v>0.38602919</v>
       </c>
     </row>
@@ -7425,17 +7416,14 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4"/>
+      <c r="B4"/>
+      <c r="C4" t="n">
+        <v>8.9590633998</v>
+      </c>
       <c r="D4" t="n">
-        <v>8.9590633998</v>
+        <v>2.1716371996</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1716371996</v>
-      </c>
-      <c r="F4" t="n">
         <v>1.5223937997</v>
       </c>
     </row>
@@ -7443,19 +7431,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1031789344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1031789344</v>
+        <v>4.2509395029</v>
       </c>
       <c r="E5" t="n">
-        <v>4.2509395029</v>
-      </c>
-      <c r="F5" t="n">
         <v>4.5669624759</v>
       </c>
     </row>
@@ -7463,17 +7448,14 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6"/>
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>3.3436936683</v>
+      </c>
       <c r="D6" t="n">
-        <v>3.3436936683</v>
+        <v>2.4439900607</v>
       </c>
       <c r="E6" t="n">
-        <v>2.4439900607</v>
-      </c>
-      <c r="F6" t="n">
         <v>2.5340156961</v>
       </c>
     </row>
@@ -7481,17 +7463,14 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
+      <c r="B7"/>
+      <c r="C7" t="n">
+        <v>5.0828898402</v>
+      </c>
       <c r="D7" t="n">
-        <v>5.0828898402</v>
+        <v>4.2498595268</v>
       </c>
       <c r="E7" t="n">
-        <v>4.2498595268</v>
-      </c>
-      <c r="F7" t="n">
         <v>4.3580355567</v>
       </c>
     </row>
@@ -7499,19 +7478,16 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" t="n">
+        <v>1.0522390894</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0522390894</v>
+        <v>0.5341328192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5341328192</v>
+        <v>1.1690929692</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1690929692</v>
-      </c>
-      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7519,15 +7495,12 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>1.2478865055</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.2478865055</v>
-      </c>
-      <c r="F9" t="n">
         <v>0.6461619677</v>
       </c>
     </row>
@@ -7535,17 +7508,14 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10"/>
+      <c r="B10"/>
+      <c r="C10" t="n">
+        <v>3.5487488651</v>
+      </c>
       <c r="D10" t="n">
-        <v>3.5487488651</v>
+        <v>2.8561508728</v>
       </c>
       <c r="E10" t="n">
-        <v>2.8561508728</v>
-      </c>
-      <c r="F10" t="n">
         <v>2.9284611825</v>
       </c>
     </row>
@@ -7553,19 +7523,16 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="n">
+        <v>0.3842103664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3842103664</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.4326313421</v>
       </c>
       <c r="E11" t="n">
-        <v>1.4326313421</v>
-      </c>
-      <c r="F11" t="n">
         <v>1.4794258716</v>
       </c>
     </row>
@@ -7573,19 +7540,16 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12" t="n">
+        <v>2.4052204564</v>
       </c>
       <c r="C12" t="n">
-        <v>2.4052204564</v>
+        <v>2.0102456371</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0102456371</v>
+        <v>1.0135092991</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0135092991</v>
-      </c>
-      <c r="F12" t="n">
         <v>3.0918668012</v>
       </c>
     </row>
@@ -7593,19 +7557,16 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.1406157915</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1406157915</v>
+        <v>0.6402341232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6402341232</v>
-      </c>
-      <c r="F13" t="n">
         <v>0.6533120496</v>
       </c>
     </row>
@@ -7613,19 +7574,16 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" t="n">
+        <v>3.9386341868</v>
       </c>
       <c r="C14" t="n">
-        <v>3.9386341868</v>
+        <v>2.8657663272</v>
       </c>
       <c r="D14" t="n">
-        <v>2.8657663272</v>
+        <v>2.5043575148</v>
       </c>
       <c r="E14" t="n">
-        <v>2.5043575148</v>
-      </c>
-      <c r="F14" t="n">
         <v>2.4951546146</v>
       </c>
     </row>
@@ -7633,19 +7591,16 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" t="n">
+        <v>1.7631028769</v>
       </c>
       <c r="C15" t="n">
-        <v>1.7631028769</v>
+        <v>3.5732363873</v>
       </c>
       <c r="D15" t="n">
-        <v>3.5732363873</v>
+        <v>3.0436800011</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0436800011</v>
-      </c>
-      <c r="F15" t="n">
         <v>0.8030678589</v>
       </c>
     </row>
@@ -7653,33 +7608,27 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" t="n">
+        <v>4.2036104473</v>
       </c>
       <c r="C16" t="n">
-        <v>4.2036104473</v>
-      </c>
-      <c r="D16" t="n">
         <v>0.9117046342</v>
       </c>
+      <c r="D16"/>
       <c r="E16"/>
-      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17"/>
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>2.6480961239</v>
+      </c>
       <c r="D17" t="n">
-        <v>2.6480961239</v>
+        <v>2.2947686553</v>
       </c>
       <c r="E17" t="n">
-        <v>2.2947686553</v>
-      </c>
-      <c r="F17" t="n">
         <v>2.3000006726</v>
       </c>
     </row>
@@ -7687,19 +7636,16 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="n">
+        <v>2.1972048478</v>
       </c>
       <c r="C18" t="n">
-        <v>2.1972048478</v>
+        <v>5.5233904738</v>
       </c>
       <c r="D18" t="n">
-        <v>5.5233904738</v>
+        <v>5.8591887382</v>
       </c>
       <c r="E18" t="n">
-        <v>5.8591887382</v>
-      </c>
-      <c r="F18" t="n">
         <v>5.5766627816</v>
       </c>
     </row>
@@ -7707,19 +7653,16 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" t="n">
+        <v>1.5034191081</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5034191081</v>
+        <v>0.7213017656</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7213017656</v>
+        <v>0.1535286716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1535286716</v>
-      </c>
-      <c r="F19" t="n">
         <v>0.1592786473</v>
       </c>
     </row>
@@ -7727,19 +7670,16 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20" t="n">
+        <v>5.7748258892</v>
       </c>
       <c r="C20" t="n">
-        <v>5.7748258892</v>
+        <v>5.8709446376</v>
       </c>
       <c r="D20" t="n">
-        <v>5.8709446376</v>
+        <v>6.4999668118</v>
       </c>
       <c r="E20" t="n">
-        <v>6.4999668118</v>
-      </c>
-      <c r="F20" t="n">
         <v>9.2968887814</v>
       </c>
     </row>
@@ -7747,15 +7687,12 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
+      <c r="B21"/>
       <c r="C21"/>
-      <c r="D21"/>
+      <c r="D21" t="n">
+        <v>2.1392917374</v>
+      </c>
       <c r="E21" t="n">
-        <v>2.1392917374</v>
-      </c>
-      <c r="F21" t="n">
         <v>2.1420994032</v>
       </c>
     </row>
@@ -7763,19 +7700,16 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22" t="n">
+        <v>6.3883086172</v>
       </c>
       <c r="C22" t="n">
-        <v>6.3883086172</v>
+        <v>3.7836617997</v>
       </c>
       <c r="D22" t="n">
-        <v>3.7836617997</v>
+        <v>2.845969801</v>
       </c>
       <c r="E22" t="n">
-        <v>2.845969801</v>
-      </c>
-      <c r="F22" t="n">
         <v>3.1036972441</v>
       </c>
     </row>
@@ -7783,19 +7717,16 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" t="n">
+        <v>3.487396612</v>
       </c>
       <c r="C23" t="n">
-        <v>3.487396612</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.058662098</v>
       </c>
       <c r="E23" t="n">
-        <v>0.058662098</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7803,19 +7734,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24" t="n">
+        <v>2.7077419228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.7077419228</v>
+        <v>2.2642701611</v>
       </c>
       <c r="D24" t="n">
-        <v>2.2642701611</v>
+        <v>3.0005811309</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0005811309</v>
-      </c>
-      <c r="F24" t="n">
         <v>2.6171960355</v>
       </c>
     </row>
@@ -7823,19 +7751,16 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25" t="n">
+        <v>2.2563841637</v>
       </c>
       <c r="C25" t="n">
-        <v>2.2563841637</v>
+        <v>3.7434200306</v>
       </c>
       <c r="D25" t="n">
-        <v>3.7434200306</v>
+        <v>3.4327806993</v>
       </c>
       <c r="E25" t="n">
-        <v>3.4327806993</v>
-      </c>
-      <c r="F25" t="n">
         <v>3.4327806993</v>
       </c>
     </row>
@@ -7843,19 +7768,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26" t="n">
+        <v>0.4560833761</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4560833761</v>
+        <v>4.8330376371</v>
       </c>
       <c r="D26" t="n">
-        <v>4.8330376371</v>
+        <v>3.4300252744</v>
       </c>
       <c r="E26" t="n">
-        <v>3.4300252744</v>
-      </c>
-      <c r="F26" t="n">
         <v>0.2021870438</v>
       </c>
     </row>
@@ -7863,17 +7785,14 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27"/>
+      <c r="B27"/>
+      <c r="C27" t="n">
+        <v>2.6661453106</v>
+      </c>
       <c r="D27" t="n">
-        <v>2.6661453106</v>
+        <v>2.115626383</v>
       </c>
       <c r="E27" t="n">
-        <v>2.115626383</v>
-      </c>
-      <c r="F27" t="n">
         <v>2.1411130513</v>
       </c>
     </row>
@@ -7881,19 +7800,16 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28" t="n">
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12.0419358471</v>
       </c>
       <c r="E28" t="n">
-        <v>12.0419358471</v>
-      </c>
-      <c r="F28" t="n">
         <v>1.5770638831</v>
       </c>
     </row>
@@ -7901,19 +7817,16 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" t="n">
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.5992415482</v>
       </c>
       <c r="D29" t="n">
-        <v>3.5992415482</v>
+        <v>3.42462639</v>
       </c>
       <c r="E29" t="n">
-        <v>3.42462639</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.0308291132</v>
       </c>
     </row>
@@ -7921,17 +7834,14 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30"/>
+      <c r="B30"/>
+      <c r="C30" t="n">
+        <v>3.4179349663</v>
+      </c>
       <c r="D30" t="n">
-        <v>3.4179349663</v>
+        <v>1.8640537489</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8640537489</v>
-      </c>
-      <c r="F30" t="n">
         <v>1.4086260078</v>
       </c>
     </row>
@@ -7939,17 +7849,14 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31"/>
+      <c r="B31"/>
+      <c r="C31" t="n">
+        <v>9.8265420521</v>
+      </c>
       <c r="D31" t="n">
-        <v>9.8265420521</v>
+        <v>7.1383746683</v>
       </c>
       <c r="E31" t="n">
-        <v>7.1383746683</v>
-      </c>
-      <c r="F31" t="n">
         <v>7.8175897203</v>
       </c>
     </row>
@@ -7957,17 +7864,14 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32"/>
+      <c r="B32"/>
+      <c r="C32" t="n">
+        <v>4.0890974267</v>
+      </c>
       <c r="D32" t="n">
-        <v>4.0890974267</v>
+        <v>5.6149429226</v>
       </c>
       <c r="E32" t="n">
-        <v>5.6149429226</v>
-      </c>
-      <c r="F32" t="n">
         <v>3.5200690986</v>
       </c>
     </row>
@@ -7975,19 +7879,16 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" t="n">
+        <v>0.6770633363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6770633363</v>
+        <v>4.2003970467</v>
       </c>
       <c r="D33" t="n">
-        <v>4.2003970467</v>
+        <v>2.3955671676</v>
       </c>
       <c r="E33" t="n">
-        <v>2.3955671676</v>
-      </c>
-      <c r="F33" t="n">
         <v>2.4191111916</v>
       </c>
     </row>
@@ -7995,15 +7896,12 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
+      <c r="D34" t="n">
+        <v>2.8393417351</v>
+      </c>
       <c r="E34" t="n">
-        <v>2.8393417351</v>
-      </c>
-      <c r="F34" t="n">
         <v>1.8834064766</v>
       </c>
     </row>
@@ -8011,19 +7909,16 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.0180424697</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0180424697</v>
+        <v>0.9618665628</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9618665628</v>
-      </c>
-      <c r="F35" t="n">
         <v>0.5636966337</v>
       </c>
     </row>
@@ -8031,17 +7926,14 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36"/>
+      <c r="B36"/>
+      <c r="C36" t="n">
+        <v>1.049861892</v>
+      </c>
       <c r="D36" t="n">
-        <v>1.049861892</v>
+        <v>1.4396540959</v>
       </c>
       <c r="E36" t="n">
-        <v>1.4396540959</v>
-      </c>
-      <c r="F36" t="n">
         <v>1.229870838</v>
       </c>
     </row>
@@ -8049,17 +7941,14 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37"/>
+      <c r="B37"/>
+      <c r="C37" t="n">
+        <v>2.9805275252</v>
+      </c>
       <c r="D37" t="n">
-        <v>2.9805275252</v>
+        <v>3.2168499633</v>
       </c>
       <c r="E37" t="n">
-        <v>3.2168499633</v>
-      </c>
-      <c r="F37" t="n">
         <v>3.3821516992</v>
       </c>
     </row>
@@ -8067,19 +7956,16 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38" t="n">
+        <v>2.3895459438</v>
       </c>
       <c r="C38" t="n">
-        <v>2.3895459438</v>
+        <v>4.0493415073</v>
       </c>
       <c r="D38" t="n">
-        <v>4.0493415073</v>
+        <v>3.6726982515</v>
       </c>
       <c r="E38" t="n">
-        <v>3.6726982515</v>
-      </c>
-      <c r="F38" t="n">
         <v>4.3344032873</v>
       </c>
     </row>
@@ -8087,19 +7973,16 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="n">
+        <v>0.9006487284</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9006487284</v>
+        <v>2.4788255018</v>
       </c>
       <c r="D39" t="n">
-        <v>2.4788255018</v>
+        <v>2.4540920404</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4540920404</v>
-      </c>
-      <c r="F39" t="n">
         <v>2.6038853638</v>
       </c>
     </row>
@@ -8107,17 +7990,14 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40"/>
+      <c r="B40"/>
+      <c r="C40" t="n">
+        <v>0.1909475137</v>
+      </c>
       <c r="D40" t="n">
-        <v>0.1909475137</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
         <v>0.0657212087</v>
       </c>
     </row>
@@ -8125,19 +8005,16 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41" t="n">
+        <v>2.7215835182</v>
       </c>
       <c r="C41" t="n">
-        <v>2.7215835182</v>
+        <v>2.2389043927</v>
       </c>
       <c r="D41" t="n">
-        <v>2.2389043927</v>
+        <v>1.3957685253</v>
       </c>
       <c r="E41" t="n">
-        <v>1.3957685253</v>
-      </c>
-      <c r="F41" t="n">
         <v>1.4575155432</v>
       </c>
     </row>
@@ -8145,19 +8022,16 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="n">
+        <v>1.1332398839</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1332398839</v>
+        <v>4.7317743678</v>
       </c>
       <c r="D42" t="n">
-        <v>4.7317743678</v>
+        <v>2.9633220331</v>
       </c>
       <c r="E42" t="n">
-        <v>2.9633220331</v>
-      </c>
-      <c r="F42" t="n">
         <v>2.6404637216</v>
       </c>
     </row>
@@ -8165,19 +8039,16 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43" t="n">
+        <v>3.1932647006</v>
       </c>
       <c r="C43" t="n">
-        <v>3.1932647006</v>
+        <v>1.4697861811</v>
       </c>
       <c r="D43" t="n">
-        <v>1.4697861811</v>
+        <v>2.4883718309</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4883718309</v>
-      </c>
-      <c r="F43" t="n">
         <v>2.8690077445</v>
       </c>
     </row>
@@ -8185,19 +8056,16 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="n">
+        <v>1.922930825</v>
       </c>
       <c r="C44" t="n">
-        <v>1.922930825</v>
+        <v>4.0541997699</v>
       </c>
       <c r="D44" t="n">
-        <v>4.0541997699</v>
+        <v>3.2665910717</v>
       </c>
       <c r="E44" t="n">
-        <v>3.2665910717</v>
-      </c>
-      <c r="F44" t="n">
         <v>3.2797929703</v>
       </c>
     </row>
@@ -8205,19 +8073,16 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45" t="n">
+        <v>3.2242680217</v>
       </c>
       <c r="C45" t="n">
-        <v>3.2242680217</v>
+        <v>2.6381720171</v>
       </c>
       <c r="D45" t="n">
-        <v>2.6381720171</v>
+        <v>2.1062072041</v>
       </c>
       <c r="E45" t="n">
-        <v>2.1062072041</v>
-      </c>
-      <c r="F45" t="n">
         <v>2.1154685115</v>
       </c>
     </row>
@@ -8225,19 +8090,16 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46" t="n">
+        <v>2.1064502448</v>
       </c>
       <c r="C46" t="n">
-        <v>2.1064502448</v>
+        <v>6.9206376823</v>
       </c>
       <c r="D46" t="n">
-        <v>6.9206376823</v>
+        <v>3.8365656984</v>
       </c>
       <c r="E46" t="n">
-        <v>3.8365656984</v>
-      </c>
-      <c r="F46" t="n">
         <v>4.2539052258</v>
       </c>
     </row>
@@ -8245,19 +8107,16 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47" t="n">
+        <v>2.4959371687</v>
       </c>
       <c r="C47" t="n">
-        <v>2.4959371687</v>
+        <v>1.4945449463</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4945449463</v>
+        <v>1.2198137047</v>
       </c>
       <c r="E47" t="n">
-        <v>1.2198137047</v>
-      </c>
-      <c r="F47" t="n">
         <v>1.6917530957</v>
       </c>
     </row>
@@ -8265,19 +8124,16 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="n">
+        <v>2.545178496</v>
       </c>
       <c r="C48" t="n">
-        <v>2.545178496</v>
+        <v>2.6056398324</v>
       </c>
       <c r="D48" t="n">
-        <v>2.6056398324</v>
+        <v>1.9928685338</v>
       </c>
       <c r="E48" t="n">
-        <v>1.9928685338</v>
-      </c>
-      <c r="F48" t="n">
         <v>2.0457343765</v>
       </c>
     </row>
@@ -8285,31 +8141,25 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49" t="n">
+      <c r="B49"/>
+      <c r="C49" t="n">
         <v>0.0488750135</v>
       </c>
+      <c r="D49"/>
       <c r="E49"/>
-      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50"/>
+      <c r="B50"/>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1.0575835247</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0575835247</v>
-      </c>
-      <c r="F50" t="n">
         <v>1.0575835247</v>
       </c>
     </row>
@@ -8317,63 +8167,51 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
+      <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52" t="n">
+        <v>0.4766813838</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4766813838</v>
-      </c>
-      <c r="D52" t="n">
         <v>0.8091371896</v>
       </c>
+      <c r="D52"/>
       <c r="E52"/>
-      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53" t="n">
+        <v>0.8248023341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8248023341</v>
-      </c>
-      <c r="D53" t="n">
         <v>0.6958257789</v>
       </c>
+      <c r="D53"/>
       <c r="E53"/>
-      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54" t="n">
+        <v>8.8713262086</v>
       </c>
       <c r="C54" t="n">
-        <v>8.8713262086</v>
+        <v>8.5224912006</v>
       </c>
       <c r="D54" t="n">
-        <v>8.5224912006</v>
+        <v>6.7580834216</v>
       </c>
       <c r="E54" t="n">
-        <v>6.7580834216</v>
-      </c>
-      <c r="F54" t="n">
         <v>7.1021841861</v>
       </c>
     </row>
@@ -8381,19 +8219,16 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55" t="n">
+        <v>1.5569427108</v>
       </c>
       <c r="C55" t="n">
-        <v>1.5569427108</v>
+        <v>1.5020111303</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5020111303</v>
+        <v>1.3292250433</v>
       </c>
       <c r="E55" t="n">
-        <v>1.3292250433</v>
-      </c>
-      <c r="F55" t="n">
         <v>1.37779521</v>
       </c>
     </row>
@@ -8401,19 +8236,16 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56" t="n">
+        <v>1.5614487908</v>
       </c>
       <c r="C56" t="n">
-        <v>1.5614487908</v>
+        <v>1.1223884426</v>
       </c>
       <c r="D56" t="n">
-        <v>1.1223884426</v>
+        <v>0.894558797</v>
       </c>
       <c r="E56" t="n">
-        <v>0.894558797</v>
-      </c>
-      <c r="F56" t="n">
         <v>0.9128895694</v>
       </c>
     </row>
@@ -8421,19 +8253,16 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57" t="n">
+        <v>5.1921654451</v>
       </c>
       <c r="C57" t="n">
-        <v>5.1921654451</v>
+        <v>5.3533117337</v>
       </c>
       <c r="D57" t="n">
-        <v>5.3533117337</v>
+        <v>10.355925536</v>
       </c>
       <c r="E57" t="n">
-        <v>10.355925536</v>
-      </c>
-      <c r="F57" t="n">
         <v>10.9663195326</v>
       </c>
     </row>
@@ -8441,17 +8270,14 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58"/>
+      <c r="B58"/>
+      <c r="C58" t="n">
+        <v>8.6172524626</v>
+      </c>
       <c r="D58" t="n">
-        <v>8.6172524626</v>
+        <v>9.1797321026</v>
       </c>
       <c r="E58" t="n">
-        <v>9.1797321026</v>
-      </c>
-      <c r="F58" t="n">
         <v>9.9376744107</v>
       </c>
     </row>
@@ -8459,19 +8285,16 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="n">
+        <v>0.1542534712</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1542534712</v>
+        <v>0.3140737294</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3140737294</v>
+        <v>0.6196162536</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6196162536</v>
-      </c>
-      <c r="F59" t="n">
         <v>0.6484240565</v>
       </c>
     </row>
@@ -8479,15 +8302,12 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
+      <c r="B60"/>
       <c r="C60"/>
-      <c r="D60"/>
+      <c r="D60" t="n">
+        <v>20.1847094447</v>
+      </c>
       <c r="E60" t="n">
-        <v>20.1847094447</v>
-      </c>
-      <c r="F60" t="n">
         <v>3.0733058658</v>
       </c>
     </row>
@@ -8495,17 +8315,14 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61"/>
+      <c r="B61"/>
+      <c r="C61" t="n">
+        <v>11.7153635372</v>
+      </c>
       <c r="D61" t="n">
-        <v>11.7153635372</v>
+        <v>5.2105394741</v>
       </c>
       <c r="E61" t="n">
-        <v>5.2105394741</v>
-      </c>
-      <c r="F61" t="n">
         <v>3.9856542238</v>
       </c>
     </row>
@@ -8513,19 +8330,16 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="n">
+        <v>11.8102009602</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8102009602</v>
+        <v>13.7921625924</v>
       </c>
       <c r="D62" t="n">
-        <v>13.7921625924</v>
+        <v>9.5046953922</v>
       </c>
       <c r="E62" t="n">
-        <v>9.5046953922</v>
-      </c>
-      <c r="F62" t="n">
         <v>7.5623310275</v>
       </c>
     </row>
@@ -8533,17 +8347,14 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63"/>
+      <c r="B63"/>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2.6298236176</v>
       </c>
       <c r="E63" t="n">
-        <v>2.6298236176</v>
-      </c>
-      <c r="F63" t="n">
         <v>1.6553486907</v>
       </c>
     </row>
@@ -8551,31 +8362,25 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="n">
+        <v>0.1989233633</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1989233633</v>
-      </c>
-      <c r="D64" t="n">
         <v>3.6890606406</v>
       </c>
+      <c r="D64"/>
       <c r="E64"/>
-      <c r="F64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
+      <c r="B65"/>
       <c r="C65"/>
-      <c r="D65"/>
+      <c r="D65" t="n">
+        <v>3.1174714997</v>
+      </c>
       <c r="E65" t="n">
-        <v>3.1174714997</v>
-      </c>
-      <c r="F65" t="n">
         <v>2.9509814737</v>
       </c>
     </row>
@@ -8583,17 +8388,14 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66"/>
+      <c r="B66"/>
+      <c r="C66" t="n">
+        <v>1.115545441</v>
+      </c>
       <c r="D66" t="n">
         <v>1.115545441</v>
       </c>
       <c r="E66" t="n">
-        <v>1.115545441</v>
-      </c>
-      <c r="F66" t="n">
         <v>1.5271878053</v>
       </c>
     </row>
@@ -8601,19 +8403,16 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
+      <c r="B67" t="n">
+        <v>14.9489769841</v>
       </c>
       <c r="C67" t="n">
-        <v>14.9489769841</v>
+        <v>10.5528565499</v>
       </c>
       <c r="D67" t="n">
-        <v>10.5528565499</v>
+        <v>10.187230677</v>
       </c>
       <c r="E67" t="n">
-        <v>10.187230677</v>
-      </c>
-      <c r="F67" t="n">
         <v>10.5147840324</v>
       </c>
     </row>
@@ -8621,17 +8420,14 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68"/>
+      <c r="B68"/>
+      <c r="C68" t="n">
+        <v>6.8572222821</v>
+      </c>
       <c r="D68" t="n">
-        <v>6.8572222821</v>
+        <v>4.133872429</v>
       </c>
       <c r="E68" t="n">
-        <v>4.133872429</v>
-      </c>
-      <c r="F68" t="n">
         <v>3.9387396809</v>
       </c>
     </row>
@@ -8639,17 +8435,14 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69"/>
+      <c r="B69"/>
+      <c r="C69" t="n">
+        <v>6.3026535893</v>
+      </c>
       <c r="D69" t="n">
-        <v>6.3026535893</v>
+        <v>5.2731345334</v>
       </c>
       <c r="E69" t="n">
-        <v>5.2731345334</v>
-      </c>
-      <c r="F69" t="n">
         <v>9.9435707078</v>
       </c>
     </row>
@@ -8657,17 +8450,14 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70"/>
+      <c r="B70"/>
+      <c r="C70" t="n">
+        <v>15.3356906174</v>
+      </c>
       <c r="D70" t="n">
-        <v>15.3356906174</v>
+        <v>15.6942959309</v>
       </c>
       <c r="E70" t="n">
-        <v>15.6942959309</v>
-      </c>
-      <c r="F70" t="n">
         <v>15.9420633867</v>
       </c>
     </row>
@@ -8675,17 +8465,14 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71"/>
+      <c r="B71"/>
+      <c r="C71" t="n">
+        <v>1.6882747765</v>
+      </c>
       <c r="D71" t="n">
-        <v>1.6882747765</v>
+        <v>8.9623462328</v>
       </c>
       <c r="E71" t="n">
-        <v>8.9623462328</v>
-      </c>
-      <c r="F71" t="n">
         <v>1.4749878184</v>
       </c>
     </row>
@@ -8693,19 +8480,16 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
+      <c r="B72" t="n">
+        <v>33.3179494354</v>
       </c>
       <c r="C72" t="n">
-        <v>33.3179494354</v>
+        <v>37.3742474973</v>
       </c>
       <c r="D72" t="n">
-        <v>37.3742474973</v>
+        <v>19.1421522229</v>
       </c>
       <c r="E72" t="n">
-        <v>19.1421522229</v>
-      </c>
-      <c r="F72" t="n">
         <v>5.4685869516</v>
       </c>
     </row>
@@ -8713,19 +8497,16 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
+      <c r="B73" t="n">
+        <v>0.1669130749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1669130749</v>
+        <v>4.1224896971</v>
       </c>
       <c r="D73" t="n">
-        <v>4.1224896971</v>
+        <v>3.9534331796</v>
       </c>
       <c r="E73" t="n">
-        <v>3.9534331796</v>
-      </c>
-      <c r="F73" t="n">
         <v>4.0853449939</v>
       </c>
     </row>
@@ -8733,17 +8514,14 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74"/>
+      <c r="B74"/>
+      <c r="C74" t="n">
+        <v>5.9484014711</v>
+      </c>
       <c r="D74" t="n">
-        <v>5.9484014711</v>
+        <v>7.0226472619</v>
       </c>
       <c r="E74" t="n">
-        <v>7.0226472619</v>
-      </c>
-      <c r="F74" t="n">
         <v>6.6895201649</v>
       </c>
     </row>
@@ -8751,19 +8529,16 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="n">
+        <v>1.8607873643</v>
       </c>
       <c r="C75" t="n">
-        <v>1.8607873643</v>
+        <v>1.6188926936</v>
       </c>
       <c r="D75" t="n">
-        <v>1.6188926936</v>
+        <v>4.1235904127</v>
       </c>
       <c r="E75" t="n">
-        <v>4.1235904127</v>
-      </c>
-      <c r="F75" t="n">
         <v>4.5559518769</v>
       </c>
     </row>
@@ -8771,19 +8546,16 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76" t="n">
+        <v>13.0825860602</v>
       </c>
       <c r="C76" t="n">
-        <v>13.0825860602</v>
+        <v>14.2057147487</v>
       </c>
       <c r="D76" t="n">
-        <v>14.2057147487</v>
+        <v>5.2874961694</v>
       </c>
       <c r="E76" t="n">
-        <v>5.2874961694</v>
-      </c>
-      <c r="F76" t="n">
         <v>5.3930485144</v>
       </c>
     </row>
@@ -8791,15 +8563,12 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
+      <c r="B77"/>
       <c r="C77"/>
-      <c r="D77"/>
+      <c r="D77" t="n">
+        <v>3.0146791859</v>
+      </c>
       <c r="E77" t="n">
-        <v>3.0146791859</v>
-      </c>
-      <c r="F77" t="n">
         <v>3.0327038778</v>
       </c>
     </row>
@@ -8807,19 +8576,16 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
+      <c r="B78" t="n">
+        <v>4.6104045244</v>
       </c>
       <c r="C78" t="n">
-        <v>4.6104045244</v>
+        <v>3.9598413881</v>
       </c>
       <c r="D78" t="n">
-        <v>3.9598413881</v>
+        <v>3.5020813704</v>
       </c>
       <c r="E78" t="n">
-        <v>3.5020813704</v>
-      </c>
-      <c r="F78" t="n">
         <v>2.4543012316</v>
       </c>
     </row>
@@ -8827,19 +8593,16 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" t="n">
+        <v>2.258439741</v>
       </c>
       <c r="C79" t="n">
-        <v>2.258439741</v>
+        <v>3.2472851451</v>
       </c>
       <c r="D79" t="n">
-        <v>3.2472851451</v>
+        <v>1.724081553</v>
       </c>
       <c r="E79" t="n">
-        <v>1.724081553</v>
-      </c>
-      <c r="F79" t="n">
         <v>1.9971744946</v>
       </c>
     </row>
@@ -8847,19 +8610,16 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80" t="n">
+        <v>9.4977613655</v>
       </c>
       <c r="C80" t="n">
-        <v>9.4977613655</v>
+        <v>10.1591450106</v>
       </c>
       <c r="D80" t="n">
-        <v>10.1591450106</v>
+        <v>6.9183544789</v>
       </c>
       <c r="E80" t="n">
-        <v>6.9183544789</v>
-      </c>
-      <c r="F80" t="n">
         <v>6.9679206405</v>
       </c>
     </row>
@@ -8867,19 +8627,16 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" t="n">
+        <v>0.1868318645</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1868318645</v>
+        <v>0.1668289217</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1668289217</v>
+        <v>0.3908833184</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3908833184</v>
-      </c>
-      <c r="F81" t="n">
         <v>0.1150078204</v>
       </c>
     </row>
@@ -8887,19 +8644,16 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" t="n">
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>26.0666758053</v>
       </c>
       <c r="D82" t="n">
-        <v>26.0666758053</v>
+        <v>21.7328503008</v>
       </c>
       <c r="E82" t="n">
-        <v>21.7328503008</v>
-      </c>
-      <c r="F82" t="n">
         <v>5.2658891765</v>
       </c>
     </row>
@@ -8907,19 +8661,16 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" t="n">
+        <v>15.8561596618</v>
       </c>
       <c r="C83" t="n">
-        <v>15.8561596618</v>
+        <v>6.4051859445</v>
       </c>
       <c r="D83" t="n">
-        <v>6.4051859445</v>
+        <v>4.8948369844</v>
       </c>
       <c r="E83" t="n">
-        <v>4.8948369844</v>
-      </c>
-      <c r="F83" t="n">
         <v>4.860103146</v>
       </c>
     </row>
@@ -8927,19 +8678,16 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84" t="n">
+        <v>47.3293096991</v>
       </c>
       <c r="C84" t="n">
-        <v>47.3293096991</v>
+        <v>57.0428419158</v>
       </c>
       <c r="D84" t="n">
-        <v>57.0428419158</v>
+        <v>28.8207620112</v>
       </c>
       <c r="E84" t="n">
-        <v>28.8207620112</v>
-      </c>
-      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8947,19 +8695,16 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" t="n">
+        <v>1.5694585354</v>
       </c>
       <c r="C85" t="n">
-        <v>1.5694585354</v>
+        <v>4.0986663817</v>
       </c>
       <c r="D85" t="n">
-        <v>4.0986663817</v>
+        <v>4.5881034502</v>
       </c>
       <c r="E85" t="n">
-        <v>4.5881034502</v>
-      </c>
-      <c r="F85" t="n">
         <v>4.0985171509</v>
       </c>
     </row>
@@ -8967,19 +8712,16 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
+      <c r="B86" t="n">
+        <v>6.3956489071</v>
       </c>
       <c r="C86" t="n">
-        <v>6.3956489071</v>
+        <v>1.7004637742</v>
       </c>
       <c r="D86" t="n">
-        <v>1.7004637742</v>
+        <v>5.0665866891</v>
       </c>
       <c r="E86" t="n">
-        <v>5.0665866891</v>
-      </c>
-      <c r="F86" t="n">
         <v>5.0058576609</v>
       </c>
     </row>
@@ -8987,17 +8729,14 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87"/>
+      <c r="B87"/>
+      <c r="C87" t="n">
+        <v>11.1769117626</v>
+      </c>
       <c r="D87" t="n">
-        <v>11.1769117626</v>
+        <v>3.3310224944</v>
       </c>
       <c r="E87" t="n">
-        <v>3.3310224944</v>
-      </c>
-      <c r="F87" t="n">
         <v>2.6908902394</v>
       </c>
     </row>
@@ -9005,19 +8744,16 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="n">
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.3596027046</v>
       </c>
       <c r="D88" t="n">
-        <v>1.3596027046</v>
+        <v>1.7702649913</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7702649913</v>
-      </c>
-      <c r="F88" t="n">
         <v>0.3632492289</v>
       </c>
     </row>
@@ -9025,19 +8761,16 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" t="n">
+        <v>17.6324308368</v>
       </c>
       <c r="C89" t="n">
-        <v>17.6324308368</v>
+        <v>1.1461503649</v>
       </c>
       <c r="D89" t="n">
-        <v>1.1461503649</v>
+        <v>0.5783264142</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5783264142</v>
-      </c>
-      <c r="F89" t="n">
         <v>0.6545997495</v>
       </c>
     </row>
@@ -9045,19 +8778,16 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="B90" t="n">
+        <v>0.9432710228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9432710228</v>
+        <v>2.6144303858</v>
       </c>
       <c r="D90" t="n">
-        <v>2.6144303858</v>
+        <v>2.5233256192</v>
       </c>
       <c r="E90" t="n">
-        <v>2.5233256192</v>
-      </c>
-      <c r="F90" t="n">
         <v>1.3592782892</v>
       </c>
     </row>
@@ -9065,19 +8795,16 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" t="n">
+        <v>2.9797613973</v>
       </c>
       <c r="C91" t="n">
-        <v>2.9797613973</v>
+        <v>3.2983127636</v>
       </c>
       <c r="D91" t="n">
-        <v>3.2983127636</v>
+        <v>3.0776801937</v>
       </c>
       <c r="E91" t="n">
-        <v>3.0776801937</v>
-      </c>
-      <c r="F91" t="n">
         <v>1.6008309674</v>
       </c>
     </row>
@@ -9085,19 +8812,16 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="n">
+        <v>9.3936643293</v>
       </c>
       <c r="C92" t="n">
-        <v>9.3936643293</v>
+        <v>3.7113102917</v>
       </c>
       <c r="D92" t="n">
-        <v>3.7113102917</v>
+        <v>2.7441268852</v>
       </c>
       <c r="E92" t="n">
-        <v>2.7441268852</v>
-      </c>
-      <c r="F92" t="n">
         <v>1.4656781434</v>
       </c>
     </row>
@@ -9105,17 +8829,14 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93"/>
+      <c r="B93"/>
+      <c r="C93" t="n">
+        <v>1.8352991027</v>
+      </c>
       <c r="D93" t="n">
-        <v>1.8352991027</v>
+        <v>1.6336033781</v>
       </c>
       <c r="E93" t="n">
-        <v>1.6336033781</v>
-      </c>
-      <c r="F93" t="n">
         <v>1.6444876778</v>
       </c>
     </row>
@@ -9123,17 +8844,14 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94"/>
+      <c r="B94"/>
+      <c r="C94" t="n">
+        <v>4.2651764095</v>
+      </c>
       <c r="D94" t="n">
-        <v>4.2651764095</v>
+        <v>3.5637464109</v>
       </c>
       <c r="E94" t="n">
-        <v>3.5637464109</v>
-      </c>
-      <c r="F94" t="n">
         <v>3.5819770022</v>
       </c>
     </row>
@@ -9141,15 +8859,12 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
+      <c r="B95"/>
       <c r="C95"/>
-      <c r="D95"/>
+      <c r="D95" t="n">
+        <v>10.7439049105</v>
+      </c>
       <c r="E95" t="n">
-        <v>10.7439049105</v>
-      </c>
-      <c r="F95" t="n">
         <v>0.8240855561</v>
       </c>
     </row>
@@ -9157,19 +8872,16 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="n">
+        <v>0.4648575259</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4648575259</v>
+        <v>0.3902408796</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3902408796</v>
+        <v>0.6534410903</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6534410903</v>
-      </c>
-      <c r="F96" t="n">
         <v>0.2401803883</v>
       </c>
     </row>
@@ -9177,17 +8889,14 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97"/>
+      <c r="B97"/>
+      <c r="C97" t="n">
+        <v>3.0758306654</v>
+      </c>
       <c r="D97" t="n">
-        <v>3.0758306654</v>
+        <v>1.6877862983</v>
       </c>
       <c r="E97" t="n">
-        <v>1.6877862983</v>
-      </c>
-      <c r="F97" t="n">
         <v>1.6879008207</v>
       </c>
     </row>
@@ -9195,15 +8904,12 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
+      <c r="B98"/>
       <c r="C98"/>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>1.961467728</v>
+      </c>
       <c r="E98" t="n">
-        <v>1.961467728</v>
-      </c>
-      <c r="F98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9211,17 +8917,14 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99"/>
+      <c r="B99"/>
+      <c r="C99" t="n">
+        <v>10.1193328097</v>
+      </c>
       <c r="D99" t="n">
-        <v>10.1193328097</v>
+        <v>8.2299400494</v>
       </c>
       <c r="E99" t="n">
-        <v>8.2299400494</v>
-      </c>
-      <c r="F99" t="n">
         <v>2.6204697457</v>
       </c>
     </row>
@@ -9229,19 +8932,16 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="n">
+        <v>8.3561073557</v>
       </c>
       <c r="C100" t="n">
-        <v>8.3561073557</v>
+        <v>7.6742443379</v>
       </c>
       <c r="D100" t="n">
-        <v>7.6742443379</v>
+        <v>3.223702827</v>
       </c>
       <c r="E100" t="n">
-        <v>3.223702827</v>
-      </c>
-      <c r="F100" t="n">
         <v>3.3364379828</v>
       </c>
     </row>
@@ -9249,19 +8949,16 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101" t="n">
+        <v>16.5865318891</v>
       </c>
       <c r="C101" t="n">
-        <v>16.5865318891</v>
+        <v>17.4865924334</v>
       </c>
       <c r="D101" t="n">
-        <v>17.4865924334</v>
+        <v>14.1026723885</v>
       </c>
       <c r="E101" t="n">
-        <v>14.1026723885</v>
-      </c>
-      <c r="F101" t="n">
         <v>5.0213415905</v>
       </c>
     </row>
@@ -9269,19 +8966,16 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="n">
+        <v>1.3892384966</v>
       </c>
       <c r="C102" t="n">
-        <v>1.3892384966</v>
+        <v>1.3801349378</v>
       </c>
       <c r="D102" t="n">
-        <v>1.3801349378</v>
+        <v>1.6023444354</v>
       </c>
       <c r="E102" t="n">
-        <v>1.6023444354</v>
-      </c>
-      <c r="F102" t="n">
         <v>1.9980345674</v>
       </c>
     </row>
@@ -9289,19 +8983,16 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103" t="n">
+        <v>4.1809672128</v>
       </c>
       <c r="C103" t="n">
-        <v>4.1809672128</v>
+        <v>4.1738870163</v>
       </c>
       <c r="D103" t="n">
-        <v>4.1738870163</v>
+        <v>4.5840163134</v>
       </c>
       <c r="E103" t="n">
-        <v>4.5840163134</v>
-      </c>
-      <c r="F103" t="n">
         <v>4.1793043547</v>
       </c>
     </row>
@@ -9309,19 +9000,16 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104" t="n">
+        <v>7.3330285353</v>
       </c>
       <c r="C104" t="n">
-        <v>7.3330285353</v>
+        <v>2.3829688765</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3829688765</v>
+        <v>0.6465372783</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6465372783</v>
-      </c>
-      <c r="F104" t="n">
         <v>0.2486571448</v>
       </c>
     </row>
@@ -9329,19 +9017,16 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105" t="n">
+        <v>2.3462996494</v>
       </c>
       <c r="C105" t="n">
-        <v>2.3462996494</v>
+        <v>3.5325329304</v>
       </c>
       <c r="D105" t="n">
-        <v>3.5325329304</v>
+        <v>5.1246851537</v>
       </c>
       <c r="E105" t="n">
-        <v>5.1246851537</v>
-      </c>
-      <c r="F105" t="n">
         <v>4.6605607172</v>
       </c>
     </row>
@@ -9349,19 +9034,16 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106" t="n">
+        <v>2.2646577111</v>
       </c>
       <c r="C106" t="n">
-        <v>2.2646577111</v>
+        <v>1.2125001826</v>
       </c>
       <c r="D106" t="n">
-        <v>1.2125001826</v>
+        <v>1.2612934174</v>
       </c>
       <c r="E106" t="n">
-        <v>1.2612934174</v>
-      </c>
-      <c r="F106" t="n">
         <v>1.3130512361</v>
       </c>
     </row>
@@ -9369,19 +9051,16 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107" t="n">
+        <v>1.5508438637</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5508438637</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1.3403812107</v>
       </c>
       <c r="E107" t="n">
-        <v>1.3403812107</v>
-      </c>
-      <c r="F107" t="n">
         <v>1.4119564311</v>
       </c>
     </row>
@@ -9389,19 +9068,16 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108" t="n">
+        <v>14.5165521089</v>
       </c>
       <c r="C108" t="n">
-        <v>14.5165521089</v>
+        <v>8.4059312053</v>
       </c>
       <c r="D108" t="n">
-        <v>8.4059312053</v>
+        <v>6.648022727</v>
       </c>
       <c r="E108" t="n">
-        <v>6.648022727</v>
-      </c>
-      <c r="F108" t="n">
         <v>6.8051627627</v>
       </c>
     </row>
@@ -9409,19 +9085,16 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109" t="n">
+        <v>0.2208374894</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2208374894</v>
+        <v>0.5505464328</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5505464328</v>
+        <v>0.4565576275</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4565576275</v>
-      </c>
-      <c r="F109" t="n">
         <v>0.483606672</v>
       </c>
     </row>
@@ -9429,19 +9102,16 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110" t="n">
+        <v>11.9925121207</v>
       </c>
       <c r="C110" t="n">
-        <v>11.9925121207</v>
+        <v>9.8853601627</v>
       </c>
       <c r="D110" t="n">
-        <v>9.8853601627</v>
+        <v>8.474715079</v>
       </c>
       <c r="E110" t="n">
-        <v>8.474715079</v>
-      </c>
-      <c r="F110" t="n">
         <v>7.4791741333</v>
       </c>
     </row>
@@ -9449,19 +9119,16 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111" t="n">
+        <v>0.5499858271</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5499858271</v>
+        <v>1.5766393654</v>
       </c>
       <c r="D111" t="n">
-        <v>1.5766393654</v>
+        <v>1.5375404395</v>
       </c>
       <c r="E111" t="n">
-        <v>1.5375404395</v>
-      </c>
-      <c r="F111" t="n">
         <v>1.5081988707</v>
       </c>
     </row>
@@ -9469,19 +9136,16 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112" t="n">
+        <v>0.211919337</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211919337</v>
+        <v>1.0054675609</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0054675609</v>
+        <v>0.8809128223</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8809128223</v>
-      </c>
-      <c r="F112" t="n">
         <v>0.8834572943</v>
       </c>
     </row>

--- a/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
+++ b/user-data/uganda-donor-percent/uganda-donor-percent.xlsx
@@ -736,7 +736,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
